--- a/input/dynamic_data/season_16/forecasting_method/average/improved_hor_5/forecast_point_GW3.xlsx
+++ b/input/dynamic_data/season_16/forecasting_method/average/improved_hor_5/forecast_point_GW3.xlsx
@@ -141,37 +141,37 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.9308528686202115</v>
+        <v>3.8923150953984447</v>
       </c>
       <c r="C2" t="n">
-        <v>4.128676708712217</v>
+        <v>4.056022007255808</v>
       </c>
       <c r="D2" t="n">
-        <v>4.059378514438514</v>
+        <v>3.990885148191186</v>
       </c>
       <c r="E2" t="n">
-        <v>3.6108813423569655</v>
+        <v>3.5288056011618245</v>
       </c>
       <c r="F2" t="n">
-        <v>3.9308528686202115</v>
+        <v>3.6238042935095907</v>
       </c>
       <c r="G2" t="n">
-        <v>4.128676708712217</v>
+        <v>3.9785979400775857</v>
       </c>
       <c r="H2" t="n">
-        <v>4.059378514438514</v>
+        <v>3.9064347400172794</v>
       </c>
       <c r="I2" t="n">
-        <v>3.6108813423569655</v>
+        <v>3.930196508810665</v>
       </c>
       <c r="J2" t="n">
-        <v>3.9308528686202115</v>
+        <v>3.765293155281925</v>
       </c>
       <c r="K2" t="n">
-        <v>4.128676708712217</v>
+        <v>3.4459962960494646</v>
       </c>
       <c r="L2" t="n">
-        <v>4.059378514438514</v>
+        <v>3.9182795999004885</v>
       </c>
     </row>
     <row r="3">
@@ -445,37 +445,37 @@
         <v>9.0</v>
       </c>
       <c r="B10" t="n">
-        <v>4.216620711614779</v>
+        <v>4.2587869187309275</v>
       </c>
       <c r="C10" t="n">
-        <v>3.979494454506766</v>
+        <v>3.9808376896189186</v>
       </c>
       <c r="D10" t="n">
-        <v>4.580670832473717</v>
+        <v>4.575589335692414</v>
       </c>
       <c r="E10" t="n">
-        <v>4.527235035479526</v>
+        <v>4.502108590971744</v>
       </c>
       <c r="F10" t="n">
-        <v>4.216620711614779</v>
+        <v>4.433645872906989</v>
       </c>
       <c r="G10" t="n">
-        <v>3.979494454506766</v>
+        <v>3.9019881220405885</v>
       </c>
       <c r="H10" t="n">
-        <v>4.580670832473717</v>
+        <v>3.989553261367023</v>
       </c>
       <c r="I10" t="n">
-        <v>4.527235035479526</v>
+        <v>4.4580512624114315</v>
       </c>
       <c r="J10" t="n">
-        <v>4.216620711614779</v>
+        <v>4.058415262467566</v>
       </c>
       <c r="K10" t="n">
-        <v>3.979494454506766</v>
+        <v>4.104118137608655</v>
       </c>
       <c r="L10" t="n">
-        <v>4.580670832473717</v>
+        <v>4.060676218847493</v>
       </c>
     </row>
     <row r="11">
@@ -559,37 +559,37 @@
         <v>12.0</v>
       </c>
       <c r="B13" t="n">
-        <v>2.0630887490813508</v>
+        <v>2.083719636572164</v>
       </c>
       <c r="C13" t="n">
-        <v>2.122441615616222</v>
+        <v>2.1565769653014466</v>
       </c>
       <c r="D13" t="n">
-        <v>2.0645492918707524</v>
+        <v>2.075539020163789</v>
       </c>
       <c r="E13" t="n">
-        <v>2.2574945873858256</v>
+        <v>2.238769553892654</v>
       </c>
       <c r="F13" t="n">
-        <v>2.0630887490813508</v>
+        <v>2.2442001672306087</v>
       </c>
       <c r="G13" t="n">
-        <v>2.122441615616222</v>
+        <v>1.973699238836012</v>
       </c>
       <c r="H13" t="n">
-        <v>2.0645492918707524</v>
+        <v>2.251025593616661</v>
       </c>
       <c r="I13" t="n">
-        <v>2.2574945873858256</v>
+        <v>2.2787475816407374</v>
       </c>
       <c r="J13" t="n">
-        <v>2.0630887490813508</v>
+        <v>2.2374160070263716</v>
       </c>
       <c r="K13" t="n">
-        <v>2.122441615616222</v>
+        <v>2.0211283851343333</v>
       </c>
       <c r="L13" t="n">
-        <v>2.0645492918707524</v>
+        <v>2.3230923253168783</v>
       </c>
     </row>
     <row r="14">
@@ -787,37 +787,37 @@
         <v>18.0</v>
       </c>
       <c r="B19" t="n">
-        <v>3.8058565529763815</v>
+        <v>3.730493056877839</v>
       </c>
       <c r="C19" t="n">
-        <v>3.8377432392255146</v>
+        <v>3.7576923882086053</v>
       </c>
       <c r="D19" t="n">
-        <v>3.90022638651744</v>
+        <v>3.7725031143428613</v>
       </c>
       <c r="E19" t="n">
-        <v>4.054010232418382</v>
+        <v>3.9044088154313585</v>
       </c>
       <c r="F19" t="n">
-        <v>3.8058565529763815</v>
+        <v>4.205879177959366</v>
       </c>
       <c r="G19" t="n">
-        <v>3.8377432392255146</v>
+        <v>3.659183794970187</v>
       </c>
       <c r="H19" t="n">
-        <v>3.90022638651744</v>
+        <v>3.57331494823062</v>
       </c>
       <c r="I19" t="n">
-        <v>4.054010232418382</v>
+        <v>4.063047624782047</v>
       </c>
       <c r="J19" t="n">
-        <v>3.8058565529763815</v>
+        <v>4.138335718193249</v>
       </c>
       <c r="K19" t="n">
-        <v>3.8377432392255146</v>
+        <v>4.053215685124403</v>
       </c>
       <c r="L19" t="n">
-        <v>3.90022638651744</v>
+        <v>4.125594536644481</v>
       </c>
     </row>
     <row r="20">
@@ -977,37 +977,37 @@
         <v>23.0</v>
       </c>
       <c r="B24" t="n">
-        <v>2.2394443848854895</v>
+        <v>2.19509895152142</v>
       </c>
       <c r="C24" t="n">
-        <v>2.213831460557588</v>
+        <v>2.1818274945732177</v>
       </c>
       <c r="D24" t="n">
-        <v>1.9739205398959079</v>
+        <v>1.931875093561406</v>
       </c>
       <c r="E24" t="n">
-        <v>2.258943140464484</v>
+        <v>2.2221321878463653</v>
       </c>
       <c r="F24" t="n">
-        <v>2.2394443848854895</v>
+        <v>2.10852624860856</v>
       </c>
       <c r="G24" t="n">
-        <v>2.213831460557588</v>
+        <v>1.9752286114189914</v>
       </c>
       <c r="H24" t="n">
-        <v>1.9739205398959079</v>
+        <v>2.00932220182935</v>
       </c>
       <c r="I24" t="n">
-        <v>2.258943140464484</v>
+        <v>2.173941370551384</v>
       </c>
       <c r="J24" t="n">
-        <v>2.2394443848854895</v>
+        <v>2.0104416017817326</v>
       </c>
       <c r="K24" t="n">
-        <v>2.213831460557588</v>
+        <v>2.2058329309384046</v>
       </c>
       <c r="L24" t="n">
-        <v>1.9739205398959079</v>
+        <v>2.023972335064972</v>
       </c>
     </row>
     <row r="25">
@@ -1056,34 +1056,34 @@
         <v>2.0190345468713673</v>
       </c>
       <c r="C26" t="n">
-        <v>2.3293518895810883</v>
+        <v>2.3154065920581806</v>
       </c>
       <c r="D26" t="n">
-        <v>2.2643426585832565</v>
+        <v>2.2888088139373153</v>
       </c>
       <c r="E26" t="n">
-        <v>2.0722263544648136</v>
+        <v>2.1090193745882626</v>
       </c>
       <c r="F26" t="n">
-        <v>2.0190345468713673</v>
+        <v>2.2805360104210557</v>
       </c>
       <c r="G26" t="n">
-        <v>2.3293518895810883</v>
+        <v>2.1315820817332765</v>
       </c>
       <c r="H26" t="n">
-        <v>2.2643426585832565</v>
+        <v>2.1232135589015235</v>
       </c>
       <c r="I26" t="n">
-        <v>2.0722263544648136</v>
+        <v>2.3139913063532878</v>
       </c>
       <c r="J26" t="n">
-        <v>2.0190345468713673</v>
+        <v>2.0266005229869184</v>
       </c>
       <c r="K26" t="n">
-        <v>2.3293518895810883</v>
+        <v>2.0720797893516685</v>
       </c>
       <c r="L26" t="n">
-        <v>2.2643426585832565</v>
+        <v>2.1078450872150825</v>
       </c>
     </row>
     <row r="27">
@@ -1243,37 +1243,37 @@
         <v>30.0</v>
       </c>
       <c r="B31" t="n">
-        <v>1.8155178978766835</v>
+        <v>1.83404359071216</v>
       </c>
       <c r="C31" t="n">
-        <v>1.7836514726367974</v>
+        <v>1.8117316265143752</v>
       </c>
       <c r="D31" t="n">
-        <v>1.7901532402030855</v>
+        <v>1.8205909492226415</v>
       </c>
       <c r="E31" t="n">
-        <v>1.6676828639301295</v>
+        <v>1.6770758969032489</v>
       </c>
       <c r="F31" t="n">
-        <v>1.8155178978766835</v>
+        <v>1.8397077155189143</v>
       </c>
       <c r="G31" t="n">
-        <v>1.7836514726367974</v>
+        <v>1.806238201258295</v>
       </c>
       <c r="H31" t="n">
-        <v>1.7901532402030855</v>
+        <v>1.8697343331077882</v>
       </c>
       <c r="I31" t="n">
-        <v>1.6676828639301295</v>
+        <v>1.8018673873663327</v>
       </c>
       <c r="J31" t="n">
-        <v>1.8155178978766835</v>
+        <v>1.6266995039850158</v>
       </c>
       <c r="K31" t="n">
-        <v>1.7836514726367974</v>
+        <v>1.8007779889727433</v>
       </c>
       <c r="L31" t="n">
-        <v>1.7901532402030855</v>
+        <v>1.5885262888021594</v>
       </c>
     </row>
     <row r="32">
@@ -1281,37 +1281,37 @@
         <v>31.0</v>
       </c>
       <c r="B32" t="n">
-        <v>1.5096373716771792</v>
+        <v>1.4349028483268236</v>
       </c>
       <c r="C32" t="n">
-        <v>1.64011631979265</v>
+        <v>1.5581673389124842</v>
       </c>
       <c r="D32" t="n">
-        <v>1.48068772458153</v>
+        <v>1.4066906671968493</v>
       </c>
       <c r="E32" t="n">
-        <v>1.648721841965829</v>
+        <v>1.5619470063278955</v>
       </c>
       <c r="F32" t="n">
-        <v>1.5096373716771792</v>
+        <v>1.5743585651687353</v>
       </c>
       <c r="G32" t="n">
-        <v>1.64011631979265</v>
+        <v>1.6168553749952317</v>
       </c>
       <c r="H32" t="n">
-        <v>1.48068772458153</v>
+        <v>1.5908898155134197</v>
       </c>
       <c r="I32" t="n">
-        <v>1.648721841965829</v>
+        <v>1.3736803260717216</v>
       </c>
       <c r="J32" t="n">
-        <v>1.5096373716771792</v>
+        <v>1.5859917556787784</v>
       </c>
       <c r="K32" t="n">
-        <v>1.64011631979265</v>
+        <v>1.566697453487768</v>
       </c>
       <c r="L32" t="n">
-        <v>1.48068772458153</v>
+        <v>1.5009618946000898</v>
       </c>
     </row>
     <row r="33">
@@ -1357,37 +1357,37 @@
         <v>33.0</v>
       </c>
       <c r="B34" t="n">
-        <v>1.7475807725362438</v>
+        <v>1.7654132293988587</v>
       </c>
       <c r="C34" t="n">
-        <v>1.8831705278655866</v>
+        <v>1.9088731294174346</v>
       </c>
       <c r="D34" t="n">
-        <v>1.9012399409365446</v>
+        <v>1.9042539550548068</v>
       </c>
       <c r="E34" t="n">
-        <v>1.8936145361089551</v>
+        <v>1.9240414360689913</v>
       </c>
       <c r="F34" t="n">
-        <v>1.7475807725362438</v>
+        <v>1.7723715030288305</v>
       </c>
       <c r="G34" t="n">
-        <v>1.8831705278655866</v>
+        <v>1.9442444643732795</v>
       </c>
       <c r="H34" t="n">
-        <v>1.9012399409365446</v>
+        <v>1.9382584899664994</v>
       </c>
       <c r="I34" t="n">
-        <v>1.8936145361089551</v>
+        <v>1.9031026543463485</v>
       </c>
       <c r="J34" t="n">
-        <v>1.7475807725362438</v>
+        <v>1.975977268741366</v>
       </c>
       <c r="K34" t="n">
-        <v>1.8831705278655866</v>
+        <v>1.8343425335648822</v>
       </c>
       <c r="L34" t="n">
-        <v>1.9012399409365446</v>
+        <v>1.9146787047022944</v>
       </c>
     </row>
     <row r="35">
@@ -1512,34 +1512,34 @@
         <v>1.8418789504888184</v>
       </c>
       <c r="C38" t="n">
-        <v>1.8726933501135654</v>
+        <v>1.8747146766209468</v>
       </c>
       <c r="D38" t="n">
-        <v>2.048642357219232</v>
+        <v>2.058172993941219</v>
       </c>
       <c r="E38" t="n">
-        <v>2.0227150188340706</v>
+        <v>2.0271764123236653</v>
       </c>
       <c r="F38" t="n">
-        <v>1.8418789504888184</v>
+        <v>1.801452272022389</v>
       </c>
       <c r="G38" t="n">
-        <v>1.8726933501135654</v>
+        <v>2.0345301362180988</v>
       </c>
       <c r="H38" t="n">
-        <v>2.048642357219232</v>
+        <v>1.9610214699460007</v>
       </c>
       <c r="I38" t="n">
-        <v>2.0227150188340706</v>
+        <v>1.8378551846452191</v>
       </c>
       <c r="J38" t="n">
-        <v>1.8418789504888184</v>
+        <v>2.035760945277115</v>
       </c>
       <c r="K38" t="n">
-        <v>1.8726933501135654</v>
+        <v>2.040699117909973</v>
       </c>
       <c r="L38" t="n">
-        <v>2.048642357219232</v>
+        <v>2.0785131826224457</v>
       </c>
     </row>
     <row r="39">
@@ -1775,37 +1775,37 @@
         <v>44.0</v>
       </c>
       <c r="B45" t="n">
-        <v>5.63163499914741</v>
+        <v>5.576958931194523</v>
       </c>
       <c r="C45" t="n">
-        <v>4.925858676944907</v>
+        <v>4.863108184621433</v>
       </c>
       <c r="D45" t="n">
-        <v>5.061902471962233</v>
+        <v>5.079848384951281</v>
       </c>
       <c r="E45" t="n">
-        <v>5.355567344333409</v>
+        <v>5.327682062054959</v>
       </c>
       <c r="F45" t="n">
-        <v>5.63163499914741</v>
+        <v>4.9908745733941835</v>
       </c>
       <c r="G45" t="n">
-        <v>4.925858676944907</v>
+        <v>5.313710865546371</v>
       </c>
       <c r="H45" t="n">
-        <v>5.061902471962233</v>
+        <v>5.516229791646202</v>
       </c>
       <c r="I45" t="n">
-        <v>5.355567344333409</v>
+        <v>5.723997394629597</v>
       </c>
       <c r="J45" t="n">
-        <v>5.63163499914741</v>
+        <v>5.546428134899359</v>
       </c>
       <c r="K45" t="n">
-        <v>4.925858676944907</v>
+        <v>5.614733895068456</v>
       </c>
       <c r="L45" t="n">
-        <v>5.061902471962233</v>
+        <v>4.9799715166907115</v>
       </c>
     </row>
     <row r="46">
@@ -2003,37 +2003,37 @@
         <v>50.0</v>
       </c>
       <c r="B51" t="n">
-        <v>1.1626300401864311</v>
+        <v>1.151003739784567</v>
       </c>
       <c r="C51" t="n">
-        <v>1.3186544953516894</v>
+        <v>1.314226764096617</v>
       </c>
       <c r="D51" t="n">
-        <v>1.302015256777831</v>
+        <v>1.3078315005038017</v>
       </c>
       <c r="E51" t="n">
-        <v>1.2207420756156369</v>
+        <v>1.2058749215435427</v>
       </c>
       <c r="F51" t="n">
-        <v>1.1626300401864311</v>
+        <v>1.2529574503640377</v>
       </c>
       <c r="G51" t="n">
-        <v>1.3186544953516894</v>
+        <v>1.3007108196603958</v>
       </c>
       <c r="H51" t="n">
-        <v>1.302015256777831</v>
+        <v>1.1742626899208863</v>
       </c>
       <c r="I51" t="n">
-        <v>1.2207420756156369</v>
+        <v>1.3280265503255166</v>
       </c>
       <c r="J51" t="n">
-        <v>1.1626300401864311</v>
+        <v>1.3038659713435103</v>
       </c>
       <c r="K51" t="n">
-        <v>1.3186544953516894</v>
+        <v>1.3497018115847474</v>
       </c>
       <c r="L51" t="n">
-        <v>1.302015256777831</v>
+        <v>1.2999244175714313</v>
       </c>
     </row>
     <row r="52">
@@ -2307,37 +2307,37 @@
         <v>58.0</v>
       </c>
       <c r="B59" t="n">
-        <v>0.9732096404392604</v>
+        <v>0.9831403510559876</v>
       </c>
       <c r="C59" t="n">
-        <v>0.9401955324444147</v>
+        <v>0.9434593851968721</v>
       </c>
       <c r="D59" t="n">
-        <v>0.911923329241775</v>
+        <v>0.9150701601852049</v>
       </c>
       <c r="E59" t="n">
-        <v>0.8534878709702018</v>
+        <v>0.8572208968450585</v>
       </c>
       <c r="F59" t="n">
-        <v>0.9732096404392604</v>
+        <v>0.8720170262547272</v>
       </c>
       <c r="G59" t="n">
-        <v>0.9401955324444147</v>
+        <v>0.9526414719838677</v>
       </c>
       <c r="H59" t="n">
-        <v>0.911923329241775</v>
+        <v>0.9497529289758428</v>
       </c>
       <c r="I59" t="n">
-        <v>0.8534878709702018</v>
+        <v>0.9126705002809199</v>
       </c>
       <c r="J59" t="n">
-        <v>0.9732096404392604</v>
+        <v>0.835276041938407</v>
       </c>
       <c r="K59" t="n">
-        <v>0.9401955324444147</v>
+        <v>0.9673518088900631</v>
       </c>
       <c r="L59" t="n">
-        <v>0.911923329241775</v>
+        <v>0.9474546754603277</v>
       </c>
     </row>
     <row r="60">
@@ -2424,34 +2424,34 @@
         <v>3.0888268047172502</v>
       </c>
       <c r="C62" t="n">
-        <v>3.1061444692881395</v>
+        <v>3.0955894244804685</v>
       </c>
       <c r="D62" t="n">
-        <v>3.0388237308724677</v>
+        <v>3.0163423354036523</v>
       </c>
       <c r="E62" t="n">
-        <v>3.1386624660046554</v>
+        <v>3.149021091734952</v>
       </c>
       <c r="F62" t="n">
-        <v>3.0888268047172502</v>
+        <v>3.4591081852066687</v>
       </c>
       <c r="G62" t="n">
-        <v>3.1061444692881395</v>
+        <v>3.3044942335778966</v>
       </c>
       <c r="H62" t="n">
-        <v>3.0388237308724677</v>
+        <v>3.4569938151504576</v>
       </c>
       <c r="I62" t="n">
-        <v>3.1386624660046554</v>
+        <v>3.150775421656221</v>
       </c>
       <c r="J62" t="n">
-        <v>3.0888268047172502</v>
+        <v>3.407013181772877</v>
       </c>
       <c r="K62" t="n">
-        <v>3.1061444692881395</v>
+        <v>3.1719808632010205</v>
       </c>
       <c r="L62" t="n">
-        <v>3.0388237308724677</v>
+        <v>3.0276455466841887</v>
       </c>
     </row>
     <row r="63">
@@ -2538,34 +2538,34 @@
         <v>0.940895804818038</v>
       </c>
       <c r="C65" t="n">
-        <v>0.9706977535650205</v>
+        <v>0.9606551979128548</v>
       </c>
       <c r="D65" t="n">
-        <v>0.9161455384676312</v>
+        <v>0.9063524273372532</v>
       </c>
       <c r="E65" t="n">
-        <v>0.9335741478161472</v>
+        <v>0.9460466951095157</v>
       </c>
       <c r="F65" t="n">
-        <v>0.940895804818038</v>
+        <v>0.8494269610130372</v>
       </c>
       <c r="G65" t="n">
-        <v>0.9706977535650205</v>
+        <v>0.8722943160508458</v>
       </c>
       <c r="H65" t="n">
-        <v>0.9161455384676312</v>
+        <v>0.8326021231805596</v>
       </c>
       <c r="I65" t="n">
-        <v>0.9335741478161472</v>
+        <v>0.8512866805496536</v>
       </c>
       <c r="J65" t="n">
-        <v>0.940895804818038</v>
+        <v>0.9512542914637099</v>
       </c>
       <c r="K65" t="n">
-        <v>0.9706977535650205</v>
+        <v>0.9087354753029355</v>
       </c>
       <c r="L65" t="n">
-        <v>0.9161455384676312</v>
+        <v>0.9369281724391179</v>
       </c>
     </row>
     <row r="66">
@@ -2687,37 +2687,37 @@
         <v>68.0</v>
       </c>
       <c r="B69" t="n">
-        <v>6.122882065349996</v>
+        <v>6.062853809807348</v>
       </c>
       <c r="C69" t="n">
-        <v>6.431021821042042</v>
+        <v>6.317851426886088</v>
       </c>
       <c r="D69" t="n">
-        <v>6.3230796809871945</v>
+        <v>6.216391179074778</v>
       </c>
       <c r="E69" t="n">
-        <v>5.6244793051704765</v>
+        <v>5.496634254602497</v>
       </c>
       <c r="F69" t="n">
-        <v>6.122882065349996</v>
+        <v>5.644608704180919</v>
       </c>
       <c r="G69" t="n">
-        <v>6.431021821042042</v>
+        <v>6.1972520434453156</v>
       </c>
       <c r="H69" t="n">
-        <v>6.3230796809871945</v>
+        <v>6.084847235075419</v>
       </c>
       <c r="I69" t="n">
-        <v>5.6244793051704765</v>
+        <v>6.121859688313609</v>
       </c>
       <c r="J69" t="n">
-        <v>6.122882065349996</v>
+        <v>5.864998437184765</v>
       </c>
       <c r="K69" t="n">
-        <v>6.431021821042042</v>
+        <v>5.367646570234005</v>
       </c>
       <c r="L69" t="n">
-        <v>6.3230796809871945</v>
+        <v>6.103297348211029</v>
       </c>
     </row>
     <row r="70">
@@ -2953,37 +2953,37 @@
         <v>75.0</v>
       </c>
       <c r="B76" t="n">
-        <v>8.630592024377163</v>
+        <v>8.545978377079347</v>
       </c>
       <c r="C76" t="n">
-        <v>9.064934624722067</v>
+        <v>8.905413750275475</v>
       </c>
       <c r="D76" t="n">
-        <v>8.91278330723653</v>
+        <v>8.762399072513334</v>
       </c>
       <c r="E76" t="n">
-        <v>7.928061607978061</v>
+        <v>7.747855871200568</v>
       </c>
       <c r="F76" t="n">
-        <v>8.630592024377163</v>
+        <v>7.956435277224148</v>
       </c>
       <c r="G76" t="n">
-        <v>9.064934624722067</v>
+        <v>8.73542124253815</v>
       </c>
       <c r="H76" t="n">
-        <v>8.91278330723653</v>
+        <v>8.576979509990519</v>
       </c>
       <c r="I76" t="n">
-        <v>7.928061607978061</v>
+        <v>8.629150918864765</v>
       </c>
       <c r="J76" t="n">
-        <v>8.630592024377163</v>
+        <v>8.267088634845022</v>
       </c>
       <c r="K76" t="n">
-        <v>9.064934624722067</v>
+        <v>7.566039519346672</v>
       </c>
       <c r="L76" t="n">
-        <v>8.91278330723653</v>
+        <v>8.602986118900755</v>
       </c>
     </row>
     <row r="77">
@@ -3067,37 +3067,37 @@
         <v>78.0</v>
       </c>
       <c r="B79" t="n">
-        <v>4.718205590953648</v>
+        <v>4.671948673395279</v>
       </c>
       <c r="C79" t="n">
-        <v>4.955653691796367</v>
+        <v>4.868446200171012</v>
       </c>
       <c r="D79" t="n">
-        <v>4.872475018212496</v>
+        <v>4.790262380300965</v>
       </c>
       <c r="E79" t="n">
-        <v>4.334143532510045</v>
+        <v>4.235627959953265</v>
       </c>
       <c r="F79" t="n">
-        <v>4.718205590953648</v>
+        <v>4.349654960288653</v>
       </c>
       <c r="G79" t="n">
-        <v>4.955653691796367</v>
+        <v>4.775514035359947</v>
       </c>
       <c r="H79" t="n">
-        <v>4.872475018212496</v>
+        <v>4.688896493222035</v>
       </c>
       <c r="I79" t="n">
-        <v>4.334143532510045</v>
+        <v>4.7174177617912285</v>
       </c>
       <c r="J79" t="n">
-        <v>4.718205590953648</v>
+        <v>4.519484145196869</v>
       </c>
       <c r="K79" t="n">
-        <v>4.955653691796367</v>
+        <v>4.136231890086812</v>
       </c>
       <c r="L79" t="n">
-        <v>4.872475018212496</v>
+        <v>4.703113887256586</v>
       </c>
     </row>
     <row r="80">
@@ -3485,37 +3485,37 @@
         <v>89.0</v>
       </c>
       <c r="B90" t="n">
-        <v>3.600291552146209</v>
+        <v>3.67302471481583</v>
       </c>
       <c r="C90" t="n">
-        <v>3.397825236428879</v>
+        <v>3.433305187289753</v>
       </c>
       <c r="D90" t="n">
-        <v>3.911129700589564</v>
+        <v>3.946253483809907</v>
       </c>
       <c r="E90" t="n">
-        <v>3.8655044329503716</v>
+        <v>3.882879429983678</v>
       </c>
       <c r="F90" t="n">
-        <v>3.600291552146209</v>
+        <v>3.8238332132337103</v>
       </c>
       <c r="G90" t="n">
-        <v>3.397825236428879</v>
+        <v>3.3653007494076976</v>
       </c>
       <c r="H90" t="n">
-        <v>3.911129700589564</v>
+        <v>3.440822001595193</v>
       </c>
       <c r="I90" t="n">
-        <v>3.8655044329503716</v>
+        <v>3.844881835889675</v>
       </c>
       <c r="J90" t="n">
-        <v>3.600291552146209</v>
+        <v>3.50021258318112</v>
       </c>
       <c r="K90" t="n">
-        <v>3.397825236428879</v>
+        <v>3.5396293920364887</v>
       </c>
       <c r="L90" t="n">
-        <v>3.911129700589564</v>
+        <v>3.502162563027744</v>
       </c>
     </row>
     <row r="91">
@@ -3599,37 +3599,37 @@
         <v>92.0</v>
       </c>
       <c r="B93" t="n">
-        <v>3.381474087611778</v>
+        <v>3.449786695442319</v>
       </c>
       <c r="C93" t="n">
-        <v>3.1913132102783153</v>
+        <v>3.2246367710866792</v>
       </c>
       <c r="D93" t="n">
-        <v>3.6734202061909387</v>
+        <v>3.7064092464112175</v>
       </c>
       <c r="E93" t="n">
-        <v>3.630567937693319</v>
+        <v>3.646886922250398</v>
       </c>
       <c r="F93" t="n">
-        <v>3.381474087611778</v>
+        <v>3.5914293991527195</v>
       </c>
       <c r="G93" t="n">
-        <v>3.1913132102783153</v>
+        <v>3.160765486994786</v>
       </c>
       <c r="H93" t="n">
-        <v>3.6734202061909387</v>
+        <v>3.23169673065581</v>
       </c>
       <c r="I93" t="n">
-        <v>3.630567937693319</v>
+        <v>3.611198734791283</v>
       </c>
       <c r="J93" t="n">
-        <v>3.381474087611778</v>
+        <v>3.287477688884398</v>
       </c>
       <c r="K93" t="n">
-        <v>3.1913132102783153</v>
+        <v>3.3244988344861537</v>
       </c>
       <c r="L93" t="n">
-        <v>3.6734202061909387</v>
+        <v>3.289309153427539</v>
       </c>
     </row>
     <row r="94">
@@ -3637,37 +3637,37 @@
         <v>93.0</v>
       </c>
       <c r="B94" t="n">
-        <v>3.3959626849717615</v>
+        <v>3.4645679917388676</v>
       </c>
       <c r="C94" t="n">
-        <v>3.204987025589429</v>
+        <v>3.2384533678128333</v>
       </c>
       <c r="D94" t="n">
-        <v>3.689159704682591</v>
+        <v>3.722290092998009</v>
       </c>
       <c r="E94" t="n">
-        <v>3.646123827129235</v>
+        <v>3.6625127336169414</v>
       </c>
       <c r="F94" t="n">
-        <v>3.3959626849717615</v>
+        <v>3.6068175917465246</v>
       </c>
       <c r="G94" t="n">
-        <v>3.204987025589429</v>
+        <v>3.1743084145180727</v>
       </c>
       <c r="H94" t="n">
-        <v>3.689159704682591</v>
+        <v>3.245543577180994</v>
       </c>
       <c r="I94" t="n">
-        <v>3.646123827129235</v>
+        <v>3.6266716330302358</v>
       </c>
       <c r="J94" t="n">
-        <v>3.3959626849717615</v>
+        <v>3.3015635400043797</v>
       </c>
       <c r="K94" t="n">
-        <v>3.204987025589429</v>
+        <v>3.3387433100576414</v>
       </c>
       <c r="L94" t="n">
-        <v>3.689159704682591</v>
+        <v>3.3034028518211227</v>
       </c>
     </row>
     <row r="95">
@@ -3751,37 +3751,37 @@
         <v>96.0</v>
       </c>
       <c r="B97" t="n">
-        <v>4.130733430608483</v>
+        <v>4.214182590822797</v>
       </c>
       <c r="C97" t="n">
-        <v>3.898437138268728</v>
+        <v>3.9391444579439896</v>
       </c>
       <c r="D97" t="n">
-        <v>4.48736830661401</v>
+        <v>4.52766698338957</v>
       </c>
       <c r="E97" t="n">
-        <v>4.435020929856336</v>
+        <v>4.454955837922161</v>
       </c>
       <c r="F97" t="n">
-        <v>4.130733430608483</v>
+        <v>4.387210162899079</v>
       </c>
       <c r="G97" t="n">
-        <v>3.898437138268728</v>
+        <v>3.861120719888196</v>
       </c>
       <c r="H97" t="n">
-        <v>4.48736830661401</v>
+        <v>3.9477687473087353</v>
       </c>
       <c r="I97" t="n">
-        <v>4.435020929856336</v>
+        <v>4.411359942997144</v>
       </c>
       <c r="J97" t="n">
-        <v>4.130733430608483</v>
+        <v>4.015909523483939</v>
       </c>
       <c r="K97" t="n">
-        <v>3.898437138268728</v>
+        <v>4.061133730387326</v>
       </c>
       <c r="L97" t="n">
-        <v>4.48736830661401</v>
+        <v>4.018146799778038</v>
       </c>
     </row>
     <row r="98">
@@ -3865,37 +3865,37 @@
         <v>99.0</v>
       </c>
       <c r="B100" t="n">
-        <v>1.6133957970713504</v>
+        <v>1.629529755042064</v>
       </c>
       <c r="C100" t="n">
-        <v>1.6598114762097962</v>
+        <v>1.6865063189489786</v>
       </c>
       <c r="D100" t="n">
-        <v>1.6145379842888965</v>
+        <v>1.6231322735296458</v>
       </c>
       <c r="E100" t="n">
-        <v>1.7654268537024504</v>
+        <v>1.7507833293502602</v>
       </c>
       <c r="F100" t="n">
-        <v>1.6133957970713504</v>
+        <v>1.7550302279574463</v>
       </c>
       <c r="G100" t="n">
-        <v>1.6598114762097962</v>
+        <v>1.5434905832523549</v>
       </c>
       <c r="H100" t="n">
-        <v>1.6145379842888965</v>
+        <v>1.760367911200293</v>
       </c>
       <c r="I100" t="n">
-        <v>1.7654268537024504</v>
+        <v>1.7820473173743718</v>
       </c>
       <c r="J100" t="n">
-        <v>1.6133957970713504</v>
+        <v>1.7497248160768142</v>
       </c>
       <c r="K100" t="n">
-        <v>1.6598114762097962</v>
+        <v>1.5805815641083492</v>
       </c>
       <c r="L100" t="n">
-        <v>1.6145379842888965</v>
+        <v>1.8167262050863766</v>
       </c>
     </row>
     <row r="101">
@@ -3903,37 +3903,37 @@
         <v>100.0</v>
       </c>
       <c r="B101" t="n">
-        <v>1.3131366995711824</v>
+        <v>1.3262680665668942</v>
       </c>
       <c r="C101" t="n">
-        <v>1.3509142441903332</v>
+        <v>1.3726410751103915</v>
       </c>
       <c r="D101" t="n">
-        <v>1.3140663214010293</v>
+        <v>1.3210611807091066</v>
       </c>
       <c r="E101" t="n">
-        <v>1.436874198019651</v>
+        <v>1.424955889274314</v>
       </c>
       <c r="F101" t="n">
-        <v>1.3131366995711824</v>
+        <v>1.4284124238894265</v>
       </c>
       <c r="G101" t="n">
-        <v>1.3509142441903332</v>
+        <v>1.256241112063318</v>
       </c>
       <c r="H101" t="n">
-        <v>1.3140663214010293</v>
+        <v>1.432756743968598</v>
       </c>
       <c r="I101" t="n">
-        <v>1.436874198019651</v>
+        <v>1.4504015301542124</v>
       </c>
       <c r="J101" t="n">
-        <v>1.3131366995711824</v>
+        <v>1.4240943693491548</v>
       </c>
       <c r="K101" t="n">
-        <v>1.3509142441903332</v>
+        <v>1.2864293202348707</v>
       </c>
       <c r="L101" t="n">
-        <v>1.3140663214010293</v>
+        <v>1.4786265448949243</v>
       </c>
     </row>
     <row r="102">
@@ -4017,37 +4017,37 @@
         <v>103.0</v>
       </c>
       <c r="B104" t="n">
-        <v>1.767458493449617</v>
+        <v>1.7851330783841128</v>
       </c>
       <c r="C104" t="n">
-        <v>1.8183063923169585</v>
+        <v>1.8475503178411943</v>
       </c>
       <c r="D104" t="n">
-        <v>1.7687097477930493</v>
+        <v>1.7781247032189267</v>
       </c>
       <c r="E104" t="n">
-        <v>1.9340069515517884</v>
+        <v>1.9179651213094533</v>
       </c>
       <c r="F104" t="n">
-        <v>1.767458493449617</v>
+        <v>1.9226175550319882</v>
       </c>
       <c r="G104" t="n">
-        <v>1.8183063923169585</v>
+        <v>1.6908780510528578</v>
       </c>
       <c r="H104" t="n">
-        <v>1.7687097477930493</v>
+        <v>1.928464932098445</v>
       </c>
       <c r="I104" t="n">
-        <v>1.9340069515517884</v>
+        <v>1.9522144984756935</v>
       </c>
       <c r="J104" t="n">
-        <v>1.767458493449617</v>
+        <v>1.9168055309107568</v>
       </c>
       <c r="K104" t="n">
-        <v>1.8183063923169585</v>
+        <v>1.7315108389052272</v>
       </c>
       <c r="L104" t="n">
-        <v>1.7687097477930493</v>
+        <v>1.9902048631098574</v>
       </c>
     </row>
     <row r="105">
@@ -4093,37 +4093,37 @@
         <v>105.0</v>
       </c>
       <c r="B106" t="n">
-        <v>3.7869839510416297</v>
+        <v>3.637004388624139</v>
       </c>
       <c r="C106" t="n">
-        <v>3.8187125165817393</v>
+        <v>3.6635220863947477</v>
       </c>
       <c r="D106" t="n">
-        <v>3.880885820465208</v>
+        <v>3.6779616457580033</v>
       </c>
       <c r="E106" t="n">
-        <v>4.033907078163657</v>
+        <v>3.8065617011471744</v>
       </c>
       <c r="F106" t="n">
-        <v>3.7869839510416297</v>
+        <v>4.100477013369233</v>
       </c>
       <c r="G106" t="n">
-        <v>3.8187125165817393</v>
+        <v>3.5674821848421177</v>
       </c>
       <c r="H106" t="n">
-        <v>3.880885820465208</v>
+        <v>3.4837652692290173</v>
       </c>
       <c r="I106" t="n">
-        <v>4.033907078163657</v>
+        <v>3.9612249151024486</v>
       </c>
       <c r="J106" t="n">
-        <v>3.7869839510416297</v>
+        <v>4.034626238191054</v>
       </c>
       <c r="K106" t="n">
-        <v>3.8187125165817393</v>
+        <v>3.951639370473807</v>
       </c>
       <c r="L106" t="n">
-        <v>3.880885820465208</v>
+        <v>4.022204359232267</v>
       </c>
     </row>
     <row r="107">
@@ -4131,37 +4131,37 @@
         <v>106.0</v>
       </c>
       <c r="B107" t="n">
-        <v>3.547277288794084</v>
+        <v>3.4067910595349122</v>
       </c>
       <c r="C107" t="n">
-        <v>3.5769975150748126</v>
+        <v>3.431630253011534</v>
       </c>
       <c r="D107" t="n">
-        <v>3.635235403506967</v>
+        <v>3.4451558241920988</v>
       </c>
       <c r="E107" t="n">
-        <v>3.7785707963034194</v>
+        <v>3.5656158160265488</v>
       </c>
       <c r="F107" t="n">
-        <v>3.547277288794084</v>
+        <v>3.8409270202336225</v>
       </c>
       <c r="G107" t="n">
-        <v>3.5769975150748126</v>
+        <v>3.341669438284036</v>
       </c>
       <c r="H107" t="n">
-        <v>3.635235403506967</v>
+        <v>3.2632515951451553</v>
       </c>
       <c r="I107" t="n">
-        <v>3.7785707963034194</v>
+        <v>3.7104892333338864</v>
       </c>
       <c r="J107" t="n">
-        <v>3.547277288794084</v>
+        <v>3.7792444352903214</v>
       </c>
       <c r="K107" t="n">
-        <v>3.5769975150748126</v>
+        <v>3.701510429831815</v>
       </c>
       <c r="L107" t="n">
-        <v>3.635235403506967</v>
+        <v>3.7676088303645257</v>
       </c>
     </row>
     <row r="108">
@@ -4283,37 +4283,37 @@
         <v>110.0</v>
       </c>
       <c r="B111" t="n">
-        <v>2.3076379354677634</v>
+        <v>2.2384087974037303</v>
       </c>
       <c r="C111" t="n">
-        <v>2.326972065853553</v>
+        <v>2.254729219826723</v>
       </c>
       <c r="D111" t="n">
-        <v>2.3648580132115806</v>
+        <v>2.263616103991735</v>
       </c>
       <c r="E111" t="n">
-        <v>2.4581031031731584</v>
+        <v>2.342763518889033</v>
       </c>
       <c r="F111" t="n">
-        <v>2.3076379354677634</v>
+        <v>2.523654865247403</v>
       </c>
       <c r="G111" t="n">
-        <v>2.326972065853553</v>
+        <v>2.195621080939236</v>
       </c>
       <c r="H111" t="n">
-        <v>2.3648580132115806</v>
+        <v>2.144097172695958</v>
       </c>
       <c r="I111" t="n">
-        <v>2.4581031031731584</v>
+        <v>2.43795160825045</v>
       </c>
       <c r="J111" t="n">
-        <v>2.3076379354677634</v>
+        <v>2.483126744100303</v>
       </c>
       <c r="K111" t="n">
-        <v>2.326972065853553</v>
+        <v>2.4320521467343275</v>
       </c>
       <c r="L111" t="n">
-        <v>2.3648580132115806</v>
+        <v>2.4754816493545833</v>
       </c>
     </row>
     <row r="112">
@@ -4473,37 +4473,37 @@
         <v>115.0</v>
       </c>
       <c r="B116" t="n">
-        <v>2.9373744882250254</v>
+        <v>2.967347697288546</v>
       </c>
       <c r="C116" t="n">
-        <v>2.703821883986509</v>
+        <v>2.7327355730638807</v>
       </c>
       <c r="D116" t="n">
-        <v>2.636544429337166</v>
+        <v>2.6863673165229276</v>
       </c>
       <c r="E116" t="n">
-        <v>2.917684763118822</v>
+        <v>3.0018306367019836</v>
       </c>
       <c r="F116" t="n">
-        <v>2.9373744882250254</v>
+        <v>2.617596313384723</v>
       </c>
       <c r="G116" t="n">
-        <v>2.703821883986509</v>
+        <v>2.956622343421238</v>
       </c>
       <c r="H116" t="n">
-        <v>2.636544429337166</v>
+        <v>2.763509622689698</v>
       </c>
       <c r="I116" t="n">
-        <v>2.917684763118822</v>
+        <v>2.8676559095726915</v>
       </c>
       <c r="J116" t="n">
-        <v>2.9373744882250254</v>
+        <v>2.7526601726162374</v>
       </c>
       <c r="K116" t="n">
-        <v>2.703821883986509</v>
+        <v>2.734257988964913</v>
       </c>
       <c r="L116" t="n">
-        <v>2.636544429337166</v>
+        <v>2.9999957762488756</v>
       </c>
     </row>
     <row r="117">
@@ -4511,37 +4511,37 @@
         <v>116.0</v>
       </c>
       <c r="B117" t="n">
-        <v>1.7527566395271623</v>
+        <v>1.717701506736619</v>
       </c>
       <c r="C117" t="n">
-        <v>1.613393790357295</v>
+        <v>1.581892144170976</v>
       </c>
       <c r="D117" t="n">
-        <v>1.573248754101336</v>
+        <v>1.555051061746451</v>
       </c>
       <c r="E117" t="n">
-        <v>1.741007611084004</v>
+        <v>1.7376625638925742</v>
       </c>
       <c r="F117" t="n">
-        <v>1.7527566395271623</v>
+        <v>1.515241754661129</v>
       </c>
       <c r="G117" t="n">
-        <v>1.613393790357295</v>
+        <v>1.7114929466427031</v>
       </c>
       <c r="H117" t="n">
-        <v>1.573248754101336</v>
+        <v>1.5997062451133615</v>
       </c>
       <c r="I117" t="n">
-        <v>1.741007611084004</v>
+        <v>1.6599931585962024</v>
       </c>
       <c r="J117" t="n">
-        <v>1.7527566395271623</v>
+        <v>1.5934258497436256</v>
       </c>
       <c r="K117" t="n">
-        <v>1.613393790357295</v>
+        <v>1.5827734214441016</v>
       </c>
       <c r="L117" t="n">
-        <v>1.573248754101336</v>
+        <v>1.7366004225844172</v>
       </c>
     </row>
     <row r="118">
@@ -4625,37 +4625,37 @@
         <v>119.0</v>
       </c>
       <c r="B120" t="n">
-        <v>2.759399813592713</v>
+        <v>2.7318058154567857</v>
       </c>
       <c r="C120" t="n">
-        <v>2.539998094410053</v>
+        <v>2.515816713162081</v>
       </c>
       <c r="D120" t="n">
-        <v>2.476796961370129</v>
+        <v>2.473129072280996</v>
       </c>
       <c r="E120" t="n">
-        <v>2.7409030832624297</v>
+        <v>2.7635515709372602</v>
       </c>
       <c r="F120" t="n">
-        <v>2.759399813592713</v>
+        <v>2.4098169681823047</v>
       </c>
       <c r="G120" t="n">
-        <v>2.539998094410053</v>
+        <v>2.721931817847972</v>
       </c>
       <c r="H120" t="n">
-        <v>2.476796961370129</v>
+        <v>2.544147982803917</v>
       </c>
       <c r="I120" t="n">
-        <v>2.7409030832624297</v>
+        <v>2.6400273542793813</v>
       </c>
       <c r="J120" t="n">
-        <v>2.759399813592713</v>
+        <v>2.5341597394874125</v>
       </c>
       <c r="K120" t="n">
-        <v>2.539998094410053</v>
+        <v>2.5172182828587446</v>
       </c>
       <c r="L120" t="n">
-        <v>2.476796961370129</v>
+        <v>2.761862357886517</v>
       </c>
     </row>
     <row r="121">
@@ -4853,37 +4853,37 @@
         <v>125.0</v>
       </c>
       <c r="B126" t="n">
-        <v>1.7195021096028755</v>
+        <v>1.6514030161532567</v>
       </c>
       <c r="C126" t="n">
-        <v>1.6998358576913875</v>
+        <v>1.6414187172596606</v>
       </c>
       <c r="D126" t="n">
-        <v>1.5156261773890918</v>
+        <v>1.4533761013950945</v>
       </c>
       <c r="E126" t="n">
-        <v>1.7344737479159327</v>
+        <v>1.6717404902213193</v>
       </c>
       <c r="F126" t="n">
-        <v>1.7195021096028755</v>
+        <v>1.58627318562432</v>
       </c>
       <c r="G126" t="n">
-        <v>1.6998358576913875</v>
+        <v>1.4859915468633953</v>
       </c>
       <c r="H126" t="n">
-        <v>1.5156261773890918</v>
+        <v>1.511640622043417</v>
       </c>
       <c r="I126" t="n">
-        <v>1.7344737479159327</v>
+        <v>1.6354858781107064</v>
       </c>
       <c r="J126" t="n">
-        <v>1.7195021096028755</v>
+        <v>1.5124827619644283</v>
       </c>
       <c r="K126" t="n">
-        <v>1.6998358576913875</v>
+        <v>1.659478335934285</v>
       </c>
       <c r="L126" t="n">
-        <v>1.5156261773890918</v>
+        <v>1.5226621179972026</v>
       </c>
     </row>
     <row r="127">
@@ -4891,37 +4891,37 @@
         <v>126.0</v>
       </c>
       <c r="B127" t="n">
-        <v>3.589535265950583</v>
+        <v>3.518455359694136</v>
       </c>
       <c r="C127" t="n">
-        <v>3.3041289234057665</v>
+        <v>3.2402701349960705</v>
       </c>
       <c r="D127" t="n">
-        <v>3.2219144161867246</v>
+        <v>3.185290180710543</v>
       </c>
       <c r="E127" t="n">
-        <v>3.5654739952719847</v>
+        <v>3.5593426082993735</v>
       </c>
       <c r="F127" t="n">
-        <v>3.589535265950583</v>
+        <v>3.103746752279739</v>
       </c>
       <c r="G127" t="n">
-        <v>3.3041289234057665</v>
+        <v>3.505738050282256</v>
       </c>
       <c r="H127" t="n">
-        <v>3.2219144161867246</v>
+        <v>3.276759663993427</v>
       </c>
       <c r="I127" t="n">
-        <v>3.5654739952719847</v>
+        <v>3.400248415113003</v>
       </c>
       <c r="J127" t="n">
-        <v>3.589535265950583</v>
+        <v>3.2638952107324957</v>
       </c>
       <c r="K127" t="n">
-        <v>3.3041289234057665</v>
+        <v>3.242075300056965</v>
       </c>
       <c r="L127" t="n">
-        <v>3.2219144161867246</v>
+        <v>3.5571669702366595</v>
       </c>
     </row>
     <row r="128">
@@ -4929,37 +4929,37 @@
         <v>127.0</v>
       </c>
       <c r="B128" t="n">
-        <v>1.8425165171368405</v>
+        <v>1.8613177060872164</v>
       </c>
       <c r="C128" t="n">
-        <v>2.125703761447575</v>
+        <v>2.134538655253393</v>
       </c>
       <c r="D128" t="n">
-        <v>2.066378089152627</v>
+        <v>2.1100185620060237</v>
       </c>
       <c r="E128" t="n">
-        <v>1.8910579272970371</v>
+        <v>1.9442733708965199</v>
       </c>
       <c r="F128" t="n">
-        <v>1.8425165171368405</v>
+        <v>2.102391988360885</v>
       </c>
       <c r="G128" t="n">
-        <v>2.125703761447575</v>
+        <v>1.9650735926516907</v>
       </c>
       <c r="H128" t="n">
-        <v>2.066378089152627</v>
+        <v>1.9573587768033565</v>
       </c>
       <c r="I128" t="n">
-        <v>1.8910579272970371</v>
+        <v>2.1332339245613055</v>
       </c>
       <c r="J128" t="n">
-        <v>1.8425165171368405</v>
+        <v>1.8682926661390544</v>
       </c>
       <c r="K128" t="n">
-        <v>2.125703761447575</v>
+        <v>1.9102193205768099</v>
       </c>
       <c r="L128" t="n">
-        <v>2.066378089152627</v>
+        <v>1.943190812956577</v>
       </c>
     </row>
     <row r="129">
@@ -5081,37 +5081,37 @@
         <v>131.0</v>
       </c>
       <c r="B132" t="n">
-        <v>2.969738123508056</v>
+        <v>2.940334775750551</v>
       </c>
       <c r="C132" t="n">
-        <v>3.4261747131933573</v>
+        <v>3.37194355251638</v>
       </c>
       <c r="D132" t="n">
-        <v>3.330554560495444</v>
+        <v>3.3332090137301744</v>
       </c>
       <c r="E132" t="n">
-        <v>3.047976378080442</v>
+        <v>3.0713803384111316</v>
       </c>
       <c r="F132" t="n">
-        <v>2.969738123508056</v>
+        <v>3.321161269470671</v>
       </c>
       <c r="G132" t="n">
-        <v>3.4261747131933573</v>
+        <v>3.1042385738268465</v>
       </c>
       <c r="H132" t="n">
-        <v>3.330554560495444</v>
+        <v>3.092051432828197</v>
       </c>
       <c r="I132" t="n">
-        <v>3.047976378080442</v>
+        <v>3.3698824615944014</v>
       </c>
       <c r="J132" t="n">
-        <v>2.969738123508056</v>
+        <v>2.9513531620973947</v>
       </c>
       <c r="K132" t="n">
-        <v>3.4261747131933573</v>
+        <v>3.0175849502929517</v>
       </c>
       <c r="L132" t="n">
-        <v>3.330554560495444</v>
+        <v>3.0696702151220396</v>
       </c>
     </row>
     <row r="133">
@@ -5119,37 +5119,37 @@
         <v>132.0</v>
       </c>
       <c r="B133" t="n">
-        <v>2.74649163781802</v>
+        <v>2.7739565541962</v>
       </c>
       <c r="C133" t="n">
-        <v>2.8255052777746807</v>
+        <v>2.8709480404799743</v>
       </c>
       <c r="D133" t="n">
-        <v>2.7484359887624734</v>
+        <v>2.7630660898049784</v>
       </c>
       <c r="E133" t="n">
-        <v>3.0052948567701816</v>
+        <v>2.980367112905669</v>
       </c>
       <c r="F133" t="n">
-        <v>2.74649163781802</v>
+        <v>2.9875966293903846</v>
       </c>
       <c r="G133" t="n">
-        <v>2.8255052777746807</v>
+        <v>2.627491646903043</v>
       </c>
       <c r="H133" t="n">
-        <v>2.7484359887624734</v>
+        <v>2.996682993950408</v>
       </c>
       <c r="I133" t="n">
-        <v>3.0052948567701816</v>
+        <v>3.033587954207556</v>
       </c>
       <c r="J133" t="n">
-        <v>2.74649163781802</v>
+        <v>2.9785652005297254</v>
       </c>
       <c r="K133" t="n">
-        <v>2.8255052777746807</v>
+        <v>2.6906318068962527</v>
       </c>
       <c r="L133" t="n">
-        <v>2.7484359887624734</v>
+        <v>3.092621996122591</v>
       </c>
     </row>
     <row r="134">
@@ -5312,34 +5312,34 @@
         <v>2.406539054575146</v>
       </c>
       <c r="C138" t="n">
-        <v>2.7764142534419154</v>
+        <v>2.7597924956970807</v>
       </c>
       <c r="D138" t="n">
-        <v>2.6989280838532848</v>
+        <v>2.728089921854562</v>
       </c>
       <c r="E138" t="n">
-        <v>2.4699397341501608</v>
+        <v>2.513794278392632</v>
       </c>
       <c r="F138" t="n">
-        <v>2.406539054575146</v>
+        <v>2.7182293551874115</v>
       </c>
       <c r="G138" t="n">
-        <v>2.7764142534419154</v>
+        <v>2.540687347659603</v>
       </c>
       <c r="H138" t="n">
-        <v>2.6989280838532848</v>
+        <v>2.5307126906855926</v>
       </c>
       <c r="I138" t="n">
-        <v>2.4699397341501608</v>
+        <v>2.7581055803704047</v>
       </c>
       <c r="J138" t="n">
-        <v>2.406539054575146</v>
+        <v>2.4155571355367975</v>
       </c>
       <c r="K138" t="n">
-        <v>2.7764142534419154</v>
+        <v>2.469765039433139</v>
       </c>
       <c r="L138" t="n">
-        <v>2.6989280838532848</v>
+        <v>2.5123946151579286</v>
       </c>
     </row>
     <row r="139">
@@ -5879,37 +5879,37 @@
         <v>152.0</v>
       </c>
       <c r="B153" t="n">
-        <v>2.871731469652233</v>
+        <v>2.814865499956149</v>
       </c>
       <c r="C153" t="n">
-        <v>3.119937103972238</v>
+        <v>3.056674875638855</v>
       </c>
       <c r="D153" t="n">
-        <v>2.8166615474579118</v>
+        <v>2.7595213382006136</v>
       </c>
       <c r="E153" t="n">
-        <v>3.13630709407791</v>
+        <v>3.0640894928872324</v>
       </c>
       <c r="F153" t="n">
-        <v>2.871731469652233</v>
+        <v>3.0884373912989567</v>
       </c>
       <c r="G153" t="n">
-        <v>3.119937103972238</v>
+        <v>3.1718038742481607</v>
       </c>
       <c r="H153" t="n">
-        <v>2.8166615474579118</v>
+        <v>3.120866936142812</v>
       </c>
       <c r="I153" t="n">
-        <v>3.13630709407791</v>
+        <v>2.694764570532855</v>
       </c>
       <c r="J153" t="n">
-        <v>2.871731469652233</v>
+        <v>3.111258355560977</v>
       </c>
       <c r="K153" t="n">
-        <v>3.119937103972238</v>
+        <v>3.0734084999790934</v>
       </c>
       <c r="L153" t="n">
-        <v>2.8166615474579118</v>
+        <v>2.9444542944389593</v>
       </c>
     </row>
     <row r="154">
@@ -5917,37 +5917,37 @@
         <v>153.0</v>
       </c>
       <c r="B154" t="n">
-        <v>2.017306710819888</v>
+        <v>1.9773600432789</v>
       </c>
       <c r="C154" t="n">
-        <v>2.1916638528676042</v>
+        <v>2.1472240021688176</v>
       </c>
       <c r="D154" t="n">
-        <v>1.9786217137089332</v>
+        <v>1.9384824009596258</v>
       </c>
       <c r="E154" t="n">
-        <v>2.2031632883981227</v>
+        <v>2.1524325522339542</v>
       </c>
       <c r="F154" t="n">
-        <v>2.017306710819888</v>
+        <v>2.1695362331941666</v>
       </c>
       <c r="G154" t="n">
-        <v>2.1916638528676042</v>
+        <v>2.228098730171381</v>
       </c>
       <c r="H154" t="n">
-        <v>1.9786217137089332</v>
+        <v>2.1923170325598766</v>
       </c>
       <c r="I154" t="n">
-        <v>2.2031632883981227</v>
+        <v>1.892992680431197</v>
       </c>
       <c r="J154" t="n">
-        <v>2.017306710819888</v>
+        <v>2.185567287921832</v>
       </c>
       <c r="K154" t="n">
-        <v>2.1916638528676042</v>
+        <v>2.1589788800307055</v>
       </c>
       <c r="L154" t="n">
-        <v>1.9786217137089332</v>
+        <v>2.068392351668406</v>
       </c>
     </row>
     <row r="155">
@@ -5993,37 +5993,37 @@
         <v>155.0</v>
       </c>
       <c r="B156" t="n">
-        <v>2.8945793850879498</v>
+        <v>2.8372609814228418</v>
       </c>
       <c r="C156" t="n">
-        <v>3.144759779723653</v>
+        <v>3.0809942278523588</v>
       </c>
       <c r="D156" t="n">
-        <v>2.8390713185411203</v>
+        <v>2.7814764934247536</v>
       </c>
       <c r="E156" t="n">
-        <v>3.1612600118639893</v>
+        <v>3.0884678368796226</v>
       </c>
       <c r="F156" t="n">
-        <v>2.8945793850879498</v>
+        <v>3.1130094507309094</v>
       </c>
       <c r="G156" t="n">
-        <v>3.144759779723653</v>
+        <v>3.197039209607102</v>
       </c>
       <c r="H156" t="n">
-        <v>2.8390713185411203</v>
+        <v>3.145697009774923</v>
       </c>
       <c r="I156" t="n">
-        <v>3.1612600118639893</v>
+        <v>2.7162045114456292</v>
       </c>
       <c r="J156" t="n">
-        <v>2.8945793850879498</v>
+        <v>3.136011981921151</v>
       </c>
       <c r="K156" t="n">
-        <v>3.144759779723653</v>
+        <v>3.0978609873543976</v>
       </c>
       <c r="L156" t="n">
-        <v>2.8390713185411203</v>
+        <v>2.9678808033011617</v>
       </c>
     </row>
     <row r="157">
@@ -6031,37 +6031,37 @@
         <v>156.0</v>
       </c>
       <c r="B157" t="n">
-        <v>1.8799410202394935</v>
+        <v>1.8427144653832657</v>
       </c>
       <c r="C157" t="n">
-        <v>2.042425555560356</v>
+        <v>2.001011774594935</v>
       </c>
       <c r="D157" t="n">
-        <v>1.8438902241227384</v>
+        <v>1.8064841419653173</v>
       </c>
       <c r="E157" t="n">
-        <v>2.05314195304591</v>
+        <v>2.0058656556983405</v>
       </c>
       <c r="F157" t="n">
-        <v>1.8799410202394935</v>
+        <v>2.0218046853271687</v>
       </c>
       <c r="G157" t="n">
-        <v>2.042425555560356</v>
+        <v>2.076379450644026</v>
       </c>
       <c r="H157" t="n">
-        <v>1.8438902241227384</v>
+        <v>2.0430342578912923</v>
       </c>
       <c r="I157" t="n">
-        <v>2.05314195304591</v>
+        <v>1.7640919805939475</v>
       </c>
       <c r="J157" t="n">
-        <v>1.8799410202394935</v>
+        <v>2.0367441277127014</v>
       </c>
       <c r="K157" t="n">
-        <v>2.042425555560356</v>
+        <v>2.011966220422108</v>
       </c>
       <c r="L157" t="n">
-        <v>1.8438902241227384</v>
+        <v>1.9275480555312758</v>
       </c>
     </row>
     <row r="158">
@@ -6110,34 +6110,34 @@
         <v>2.4727540481234342</v>
       </c>
       <c r="C159" t="n">
-        <v>2.664607907838376</v>
+        <v>2.673693433082677</v>
       </c>
       <c r="D159" t="n">
-        <v>2.690175375174138</v>
+        <v>2.667223513228238</v>
       </c>
       <c r="E159" t="n">
-        <v>2.679385744759152</v>
+        <v>2.6949391624400953</v>
       </c>
       <c r="F159" t="n">
-        <v>2.4727540481234342</v>
+        <v>2.4825002644766005</v>
       </c>
       <c r="G159" t="n">
-        <v>2.664607907838376</v>
+        <v>2.7232368545565135</v>
       </c>
       <c r="H159" t="n">
-        <v>2.690175375174138</v>
+        <v>2.714852504535885</v>
       </c>
       <c r="I159" t="n">
-        <v>2.679385744759152</v>
+        <v>2.665610925625495</v>
       </c>
       <c r="J159" t="n">
-        <v>2.4727540481234342</v>
+        <v>2.767683910437144</v>
       </c>
       <c r="K159" t="n">
-        <v>2.664607907838376</v>
+        <v>2.5693009715703057</v>
       </c>
       <c r="L159" t="n">
-        <v>2.690175375174138</v>
+        <v>2.681825104211147</v>
       </c>
     </row>
     <row r="160">
@@ -6300,34 +6300,34 @@
         <v>2.2170715213732706</v>
       </c>
       <c r="C164" t="n">
-        <v>2.3890877107562543</v>
+        <v>2.397233793578824</v>
       </c>
       <c r="D164" t="n">
-        <v>2.412011504469898</v>
+        <v>2.3914328628046007</v>
       </c>
       <c r="E164" t="n">
-        <v>2.402337520784638</v>
+        <v>2.4162827165984355</v>
       </c>
       <c r="F164" t="n">
-        <v>2.2170715213732706</v>
+        <v>2.2258099799086617</v>
       </c>
       <c r="G164" t="n">
-        <v>2.3890877107562543</v>
+        <v>2.4416544301174214</v>
       </c>
       <c r="H164" t="n">
-        <v>2.412011504469898</v>
+        <v>2.4341370210689686</v>
       </c>
       <c r="I164" t="n">
-        <v>2.402337520784638</v>
+        <v>2.3899870166022765</v>
       </c>
       <c r="J164" t="n">
-        <v>2.2170715213732706</v>
+        <v>2.4815056647667446</v>
       </c>
       <c r="K164" t="n">
-        <v>2.3890877107562543</v>
+        <v>2.3036355023776522</v>
       </c>
       <c r="L164" t="n">
-        <v>2.412011504469898</v>
+        <v>2.4045246507078564</v>
       </c>
     </row>
     <row r="165">
@@ -6335,37 +6335,37 @@
         <v>164.0</v>
       </c>
       <c r="B165" t="n">
-        <v>8.652296748588654</v>
+        <v>8.567470309877</v>
       </c>
       <c r="C165" t="n">
-        <v>9.32360351598654</v>
+        <v>9.263674696249245</v>
       </c>
       <c r="D165" t="n">
-        <v>9.413065431807379</v>
+        <v>9.241258052627831</v>
       </c>
       <c r="E165" t="n">
-        <v>9.375311946284262</v>
+        <v>9.337285800281002</v>
       </c>
       <c r="F165" t="n">
-        <v>8.652296748588654</v>
+        <v>8.601238496123731</v>
       </c>
       <c r="G165" t="n">
-        <v>9.32360351598654</v>
+        <v>9.435330180080701</v>
       </c>
       <c r="H165" t="n">
-        <v>9.413065431807379</v>
+        <v>9.406280517853329</v>
       </c>
       <c r="I165" t="n">
-        <v>9.375311946284262</v>
+        <v>9.235670842521326</v>
       </c>
       <c r="J165" t="n">
-        <v>8.652296748588654</v>
+        <v>9.589328040040824</v>
       </c>
       <c r="K165" t="n">
-        <v>9.32360351598654</v>
+        <v>8.901981095844077</v>
       </c>
       <c r="L165" t="n">
-        <v>9.413065431807379</v>
+        <v>9.291848889722194</v>
       </c>
     </row>
     <row r="166">
@@ -6411,37 +6411,37 @@
         <v>166.0</v>
       </c>
       <c r="B167" t="n">
-        <v>0.6251712657888931</v>
+        <v>0.6316163303846548</v>
       </c>
       <c r="C167" t="n">
-        <v>0.614198103019919</v>
+        <v>0.6239324339812949</v>
       </c>
       <c r="D167" t="n">
-        <v>0.616436978364544</v>
+        <v>0.6269834481049645</v>
       </c>
       <c r="E167" t="n">
-        <v>0.5742644609546349</v>
+        <v>0.577559077190346</v>
       </c>
       <c r="F167" t="n">
-        <v>0.6251712657888931</v>
+        <v>0.633566967623268</v>
       </c>
       <c r="G167" t="n">
-        <v>0.614198103019919</v>
+        <v>0.6220405830356255</v>
       </c>
       <c r="H167" t="n">
-        <v>0.616436978364544</v>
+        <v>0.6439076716890768</v>
       </c>
       <c r="I167" t="n">
-        <v>0.5742644609546349</v>
+        <v>0.6205353421322926</v>
       </c>
       <c r="J167" t="n">
-        <v>0.6251712657888931</v>
+        <v>0.5602102243091152</v>
       </c>
       <c r="K167" t="n">
-        <v>0.614198103019919</v>
+        <v>0.6201601701248384</v>
       </c>
       <c r="L167" t="n">
-        <v>0.616436978364544</v>
+        <v>0.5470639576582678</v>
       </c>
     </row>
     <row r="168">
@@ -6449,37 +6449,37 @@
         <v>167.0</v>
       </c>
       <c r="B168" t="n">
-        <v>6.211521592629077</v>
+        <v>6.1512155577491825</v>
       </c>
       <c r="C168" t="n">
-        <v>5.433071841252987</v>
+        <v>5.36385996262904</v>
       </c>
       <c r="D168" t="n">
-        <v>5.583123996696523</v>
+        <v>5.6029177912247174</v>
       </c>
       <c r="E168" t="n">
-        <v>5.907027391715266</v>
+        <v>5.876270776093803</v>
       </c>
       <c r="F168" t="n">
-        <v>6.211521592629077</v>
+        <v>5.504782391514138</v>
       </c>
       <c r="G168" t="n">
-        <v>5.433071841252987</v>
+        <v>5.860860972581841</v>
       </c>
       <c r="H168" t="n">
-        <v>5.583123996696523</v>
+        <v>6.084233169568257</v>
       </c>
       <c r="I168" t="n">
-        <v>5.907027391715266</v>
+        <v>6.313394497029202</v>
       </c>
       <c r="J168" t="n">
-        <v>6.211521592629077</v>
+        <v>6.117541020877336</v>
       </c>
       <c r="K168" t="n">
-        <v>5.433071841252987</v>
+        <v>6.192880190453405</v>
       </c>
       <c r="L168" t="n">
-        <v>5.583123996696523</v>
+        <v>5.492756652603585</v>
       </c>
     </row>
     <row r="169">
@@ -6563,37 +6563,37 @@
         <v>170.0</v>
       </c>
       <c r="B171" t="n">
-        <v>2.1029931141235854</v>
+        <v>2.12445222753301</v>
       </c>
       <c r="C171" t="n">
-        <v>2.025728364354148</v>
+        <v>2.0526801939810366</v>
       </c>
       <c r="D171" t="n">
-        <v>2.1722489666159763</v>
+        <v>2.2107701793228562</v>
       </c>
       <c r="E171" t="n">
-        <v>2.262466456783392</v>
+        <v>2.288487146385905</v>
       </c>
       <c r="F171" t="n">
-        <v>2.1029931141235854</v>
+        <v>2.205420461326088</v>
       </c>
       <c r="G171" t="n">
-        <v>2.025728364354148</v>
+        <v>2.2297003213060735</v>
       </c>
       <c r="H171" t="n">
-        <v>2.1722489666159763</v>
+        <v>2.0309526600164496</v>
       </c>
       <c r="I171" t="n">
-        <v>2.262466456783392</v>
+        <v>2.0298218396489744</v>
       </c>
       <c r="J171" t="n">
-        <v>2.1029931141235854</v>
+        <v>2.2283374233158186</v>
       </c>
       <c r="K171" t="n">
-        <v>2.025728364354148</v>
+        <v>1.9515845954495086</v>
       </c>
       <c r="L171" t="n">
-        <v>2.1722489666159763</v>
+        <v>2.1300379924146524</v>
       </c>
     </row>
     <row r="172">
@@ -6715,37 +6715,37 @@
         <v>174.0</v>
       </c>
       <c r="B175" t="n">
-        <v>1.4843285245736793</v>
+        <v>1.4993217419936156</v>
       </c>
       <c r="C175" t="n">
-        <v>1.4297937420978848</v>
+        <v>1.4486689812598386</v>
       </c>
       <c r="D175" t="n">
-        <v>1.5332104903099122</v>
+        <v>1.5602402131955586</v>
       </c>
       <c r="E175" t="n">
-        <v>1.5968875385948507</v>
+        <v>1.6150885816028542</v>
       </c>
       <c r="F175" t="n">
-        <v>1.4843285245736793</v>
+        <v>1.5564646759525287</v>
       </c>
       <c r="G175" t="n">
-        <v>1.4297937420978848</v>
+        <v>1.5736000680732662</v>
       </c>
       <c r="H175" t="n">
-        <v>1.5332104903099122</v>
+        <v>1.4333348807087336</v>
       </c>
       <c r="I175" t="n">
-        <v>1.5968875385948507</v>
+        <v>1.4325368097795448</v>
       </c>
       <c r="J175" t="n">
-        <v>1.4843285245736793</v>
+        <v>1.57263820949983</v>
       </c>
       <c r="K175" t="n">
-        <v>1.4297937420978848</v>
+        <v>1.3773212583344838</v>
       </c>
       <c r="L175" t="n">
-        <v>1.5332104903099122</v>
+        <v>1.5032638681681523</v>
       </c>
     </row>
     <row r="176">
@@ -6753,37 +6753,37 @@
         <v>175.0</v>
       </c>
       <c r="B176" t="n">
-        <v>1.9732823435572122</v>
+        <v>1.9932144884416283</v>
       </c>
       <c r="C176" t="n">
-        <v>1.90078321577812</v>
+        <v>1.9258761622196097</v>
       </c>
       <c r="D176" t="n">
-        <v>2.038266555818026</v>
+        <v>2.0742001608377163</v>
       </c>
       <c r="E176" t="n">
-        <v>2.1229195103292913</v>
+        <v>2.14711617313501</v>
       </c>
       <c r="F176" t="n">
-        <v>1.9732823435572122</v>
+        <v>2.0691809209216383</v>
       </c>
       <c r="G176" t="n">
-        <v>1.90078321577812</v>
+        <v>2.091960895948725</v>
       </c>
       <c r="H176" t="n">
-        <v>2.038266555818026</v>
+        <v>1.9054908436254547</v>
       </c>
       <c r="I176" t="n">
-        <v>2.1229195103292913</v>
+        <v>1.9044298795279502</v>
       </c>
       <c r="J176" t="n">
-        <v>1.9732823435572122</v>
+        <v>2.090682190791114</v>
       </c>
       <c r="K176" t="n">
-        <v>1.90078321577812</v>
+        <v>1.8310257301415418</v>
       </c>
       <c r="L176" t="n">
-        <v>2.038266555818026</v>
+        <v>1.998455193479297</v>
       </c>
     </row>
     <row r="177">
@@ -6791,37 +6791,37 @@
         <v>176.0</v>
       </c>
       <c r="B177" t="n">
-        <v>4.030912131676635</v>
+        <v>3.9510920894652166</v>
       </c>
       <c r="C177" t="n">
-        <v>4.053807804532838</v>
+        <v>4.011915547987537</v>
       </c>
       <c r="D177" t="n">
-        <v>3.6991583727946966</v>
+        <v>3.627700920100737</v>
       </c>
       <c r="E177" t="n">
-        <v>3.5118861610032366</v>
+        <v>3.487875188982566</v>
       </c>
       <c r="F177" t="n">
-        <v>4.030912131676635</v>
+        <v>3.939148038258009</v>
       </c>
       <c r="G177" t="n">
-        <v>4.053807804532838</v>
+        <v>3.629721924115683</v>
       </c>
       <c r="H177" t="n">
-        <v>3.6991583727946966</v>
+        <v>3.924910152793951</v>
       </c>
       <c r="I177" t="n">
-        <v>3.5118861610032366</v>
+        <v>3.6541507855180786</v>
       </c>
       <c r="J177" t="n">
-        <v>4.030912131676635</v>
+        <v>3.8068073926470545</v>
       </c>
       <c r="K177" t="n">
-        <v>4.053807804532838</v>
+        <v>3.9849240702572017</v>
       </c>
       <c r="L177" t="n">
-        <v>3.6991583727946966</v>
+        <v>3.6685534084436298</v>
       </c>
     </row>
     <row r="178">
@@ -6829,37 +6829,37 @@
         <v>177.0</v>
       </c>
       <c r="B178" t="n">
-        <v>1.980403769232311</v>
+        <v>1.9607958111211001</v>
       </c>
       <c r="C178" t="n">
-        <v>2.013535671384341</v>
+        <v>1.9957515036425386</v>
       </c>
       <c r="D178" t="n">
-        <v>2.202717526561235</v>
+        <v>2.1910544034457247</v>
       </c>
       <c r="E178" t="n">
-        <v>2.1748402338376778</v>
+        <v>2.1580565957566566</v>
       </c>
       <c r="F178" t="n">
-        <v>1.980403769232311</v>
+        <v>1.9177590731348835</v>
       </c>
       <c r="G178" t="n">
-        <v>2.013535671384341</v>
+        <v>2.1658850966494647</v>
       </c>
       <c r="H178" t="n">
-        <v>2.202717526561235</v>
+        <v>2.087630505125317</v>
       </c>
       <c r="I178" t="n">
-        <v>2.1748402338376778</v>
+        <v>1.956512259691747</v>
       </c>
       <c r="J178" t="n">
-        <v>1.980403769232311</v>
+        <v>2.167195370186479</v>
       </c>
       <c r="K178" t="n">
-        <v>2.013535671384341</v>
+        <v>2.172452365066914</v>
       </c>
       <c r="L178" t="n">
-        <v>2.202717526561235</v>
+        <v>2.2127078116422716</v>
       </c>
     </row>
     <row r="179">
@@ -6867,37 +6867,37 @@
         <v>178.0</v>
       </c>
       <c r="B179" t="n">
-        <v>3.0516035831774073</v>
+        <v>3.0821196190091817</v>
       </c>
       <c r="C179" t="n">
-        <v>3.102656521419295</v>
+        <v>3.1370654859400062</v>
       </c>
       <c r="D179" t="n">
-        <v>3.3941667861941127</v>
+        <v>3.4440566044025736</v>
       </c>
       <c r="E179" t="n">
-        <v>3.3512106740688212</v>
+        <v>3.392188281405383</v>
       </c>
       <c r="F179" t="n">
-        <v>3.0516035831774073</v>
+        <v>3.01447138468863</v>
       </c>
       <c r="G179" t="n">
-        <v>3.102656521419295</v>
+        <v>3.404493681107027</v>
       </c>
       <c r="H179" t="n">
-        <v>3.3941667861941127</v>
+        <v>3.281487496349715</v>
       </c>
       <c r="I179" t="n">
-        <v>3.3512106740688212</v>
+        <v>3.0753864253617027</v>
       </c>
       <c r="J179" t="n">
-        <v>3.0516035831774073</v>
+        <v>3.406553263115411</v>
       </c>
       <c r="K179" t="n">
-        <v>3.102656521419295</v>
+        <v>3.4148165850615935</v>
       </c>
       <c r="L179" t="n">
-        <v>3.3941667861941127</v>
+        <v>3.478092985877111</v>
       </c>
     </row>
     <row r="180">
@@ -7057,37 +7057,37 @@
         <v>183.0</v>
       </c>
       <c r="B184" t="n">
-        <v>1.0864109622005325</v>
+        <v>1.097727743056788</v>
       </c>
       <c r="C184" t="n">
-        <v>1.1045864788581654</v>
+        <v>1.1172972633714027</v>
       </c>
       <c r="D184" t="n">
-        <v>1.2083679624660677</v>
+        <v>1.2266352220703345</v>
       </c>
       <c r="E184" t="n">
-        <v>1.1930750222677737</v>
+        <v>1.2081617998226442</v>
       </c>
       <c r="F184" t="n">
-        <v>1.0864109622005325</v>
+        <v>1.0736341474920748</v>
       </c>
       <c r="G184" t="n">
-        <v>1.1045864788581654</v>
+        <v>1.2125444910584373</v>
       </c>
       <c r="H184" t="n">
-        <v>1.2083679624660677</v>
+        <v>1.1687346075150211</v>
       </c>
       <c r="I184" t="n">
-        <v>1.1930750222677737</v>
+        <v>1.095329648764592</v>
       </c>
       <c r="J184" t="n">
-        <v>1.0864109622005325</v>
+        <v>1.2132780317996077</v>
       </c>
       <c r="K184" t="n">
-        <v>1.1045864788581654</v>
+        <v>1.2162210965963758</v>
       </c>
       <c r="L184" t="n">
-        <v>1.2083679624660677</v>
+        <v>1.2387576199122048</v>
       </c>
     </row>
     <row r="185">
@@ -7171,37 +7171,37 @@
         <v>186.0</v>
       </c>
       <c r="B187" t="n">
-        <v>1.6872153548432587</v>
+        <v>1.7042579341851098</v>
       </c>
       <c r="C187" t="n">
-        <v>1.7154422522641513</v>
+        <v>1.7346402493587305</v>
       </c>
       <c r="D187" t="n">
-        <v>1.876616723789178</v>
+        <v>1.9043909774412389</v>
       </c>
       <c r="E187" t="n">
-        <v>1.8528665183687558</v>
+        <v>1.875710390076737</v>
       </c>
       <c r="F187" t="n">
-        <v>1.6872153548432587</v>
+        <v>1.666851845413164</v>
       </c>
       <c r="G187" t="n">
-        <v>1.7154422522641513</v>
+        <v>1.8825146604059944</v>
       </c>
       <c r="H187" t="n">
-        <v>1.876616723789178</v>
+        <v>1.8144983949004132</v>
       </c>
       <c r="I187" t="n">
-        <v>1.8528665183687558</v>
+        <v>1.7005348149961765</v>
       </c>
       <c r="J187" t="n">
-        <v>1.6872153548432587</v>
+        <v>1.883653506204595</v>
       </c>
       <c r="K187" t="n">
-        <v>1.7154422522641513</v>
+        <v>1.8882227097821103</v>
       </c>
       <c r="L187" t="n">
-        <v>1.876616723789178</v>
+        <v>1.9232113933722657</v>
       </c>
     </row>
     <row r="188">
@@ -7475,37 +7475,37 @@
         <v>194.0</v>
       </c>
       <c r="B195" t="n">
-        <v>1.1076517367049095</v>
+        <v>1.0744221846037623</v>
       </c>
       <c r="C195" t="n">
-        <v>1.0949833264932658</v>
+        <v>1.0679262825592193</v>
       </c>
       <c r="D195" t="n">
-        <v>0.9763209700092615</v>
+        <v>0.9455835496469139</v>
       </c>
       <c r="E195" t="n">
-        <v>1.117296017503498</v>
+        <v>1.0876539839306338</v>
       </c>
       <c r="F195" t="n">
-        <v>1.1076517367049095</v>
+        <v>1.0320479524416</v>
       </c>
       <c r="G195" t="n">
-        <v>1.0949833264932658</v>
+        <v>0.9668035412716746</v>
       </c>
       <c r="H195" t="n">
-        <v>0.9763209700092615</v>
+        <v>0.9834911306235326</v>
       </c>
       <c r="I195" t="n">
-        <v>1.117296017503498</v>
+        <v>1.0640663077759767</v>
       </c>
       <c r="J195" t="n">
-        <v>1.1076517367049095</v>
+        <v>0.9840390367402251</v>
       </c>
       <c r="K195" t="n">
-        <v>1.0949833264932658</v>
+        <v>1.0796760824322382</v>
       </c>
       <c r="L195" t="n">
-        <v>0.9763209700092615</v>
+        <v>0.9906618452488768</v>
       </c>
     </row>
     <row r="196">
@@ -7665,37 +7665,37 @@
         <v>199.0</v>
       </c>
       <c r="B200" t="n">
-        <v>5.356385860414246</v>
+        <v>5.518700583457103</v>
       </c>
       <c r="C200" t="n">
-        <v>4.68510472919161</v>
+        <v>4.812306905429713</v>
       </c>
       <c r="D200" t="n">
-        <v>4.814499311784094</v>
+        <v>5.0267829818677985</v>
       </c>
       <c r="E200" t="n">
-        <v>5.093811158220779</v>
+        <v>5.27202772462215</v>
       </c>
       <c r="F200" t="n">
-        <v>5.356385860414246</v>
+        <v>4.938738613635849</v>
       </c>
       <c r="G200" t="n">
-        <v>4.68510472919161</v>
+        <v>5.258202474826556</v>
       </c>
       <c r="H200" t="n">
-        <v>4.814499311784094</v>
+        <v>5.458605836123832</v>
       </c>
       <c r="I200" t="n">
-        <v>5.093811158220779</v>
+        <v>5.6642030452756575</v>
       </c>
       <c r="J200" t="n">
-        <v>5.356385860414246</v>
+        <v>5.488488719714466</v>
       </c>
       <c r="K200" t="n">
-        <v>4.68510472919161</v>
+        <v>5.556080940340329</v>
       </c>
       <c r="L200" t="n">
-        <v>4.814499311784094</v>
+        <v>4.927949453067647</v>
       </c>
     </row>
     <row r="201">
@@ -7972,34 +7972,34 @@
         <v>1.8210320465235694</v>
       </c>
       <c r="C208" t="n">
-        <v>1.7320574147218755</v>
+        <v>1.7226122608140932</v>
       </c>
       <c r="D208" t="n">
-        <v>1.8020086662836745</v>
+        <v>1.7760547499345014</v>
       </c>
       <c r="E208" t="n">
-        <v>1.8063116728999815</v>
+        <v>1.7824975124750562</v>
       </c>
       <c r="F208" t="n">
-        <v>1.8210320465235694</v>
+        <v>1.8154254206983906</v>
       </c>
       <c r="G208" t="n">
-        <v>1.7320574147218755</v>
+        <v>1.8021093427931052</v>
       </c>
       <c r="H208" t="n">
-        <v>1.8020086662836745</v>
+        <v>1.803211550733345</v>
       </c>
       <c r="I208" t="n">
-        <v>1.8063116728999815</v>
+        <v>1.578292764781255</v>
       </c>
       <c r="J208" t="n">
-        <v>1.8210320465235694</v>
+        <v>1.6600511738635884</v>
       </c>
       <c r="K208" t="n">
-        <v>1.7320574147218755</v>
+        <v>1.641565080387948</v>
       </c>
       <c r="L208" t="n">
-        <v>1.8020086662836745</v>
+        <v>1.6137114850652365</v>
       </c>
     </row>
     <row r="209">
@@ -8162,34 +8162,34 @@
         <v>1.3114617622180194</v>
       </c>
       <c r="C213" t="n">
-        <v>1.247384456363842</v>
+        <v>1.2405822926062258</v>
       </c>
       <c r="D213" t="n">
-        <v>1.2977615992690017</v>
+        <v>1.2790702374466083</v>
       </c>
       <c r="E213" t="n">
-        <v>1.300860517078071</v>
+        <v>1.2837101539879554</v>
       </c>
       <c r="F213" t="n">
-        <v>1.3114617622180194</v>
+        <v>1.307424010439393</v>
       </c>
       <c r="G213" t="n">
-        <v>1.247384456363842</v>
+        <v>1.2978341039746293</v>
       </c>
       <c r="H213" t="n">
-        <v>1.2977615992690017</v>
+        <v>1.2986278865829022</v>
       </c>
       <c r="I213" t="n">
-        <v>1.300860517078071</v>
+        <v>1.1366469989078165</v>
       </c>
       <c r="J213" t="n">
-        <v>1.3114617622180194</v>
+        <v>1.1955273615329292</v>
       </c>
       <c r="K213" t="n">
-        <v>1.247384456363842</v>
+        <v>1.182214139081752</v>
       </c>
       <c r="L213" t="n">
-        <v>1.2977615992690017</v>
+        <v>1.1621546759461274</v>
       </c>
     </row>
     <row r="214">
@@ -8197,37 +8197,37 @@
         <v>213.0</v>
       </c>
       <c r="B214" t="n">
-        <v>1.315526966270027</v>
+        <v>1.276061157281926</v>
       </c>
       <c r="C214" t="n">
-        <v>1.2512510367648182</v>
+        <v>1.2070949543578042</v>
       </c>
       <c r="D214" t="n">
-        <v>1.3017843362361594</v>
+        <v>1.244543984782724</v>
       </c>
       <c r="E214" t="n">
-        <v>1.3048928599167815</v>
+        <v>1.2490586549332507</v>
       </c>
       <c r="F214" t="n">
-        <v>1.315526966270027</v>
+        <v>1.2721323975148575</v>
       </c>
       <c r="G214" t="n">
-        <v>1.2512510367648182</v>
+        <v>1.2628013537176253</v>
       </c>
       <c r="H214" t="n">
-        <v>1.3017843362361594</v>
+        <v>1.2635737095597275</v>
       </c>
       <c r="I214" t="n">
-        <v>1.3048928599167815</v>
+        <v>1.10596521121156</v>
       </c>
       <c r="J214" t="n">
-        <v>1.315526966270027</v>
+        <v>1.1632562019496417</v>
       </c>
       <c r="K214" t="n">
-        <v>1.2512510367648182</v>
+        <v>1.1503023465360696</v>
       </c>
       <c r="L214" t="n">
-        <v>1.3017843362361594</v>
+        <v>1.1307843533465403</v>
       </c>
     </row>
     <row r="215">
@@ -8463,37 +8463,37 @@
         <v>220.0</v>
       </c>
       <c r="B221" t="n">
-        <v>0.2769173493447193</v>
+        <v>0.2797430365829307</v>
       </c>
       <c r="C221" t="n">
-        <v>0.31407953943434497</v>
+        <v>0.31941319827141373</v>
       </c>
       <c r="D221" t="n">
-        <v>0.3101163751587613</v>
+        <v>0.317858876251976</v>
       </c>
       <c r="E221" t="n">
-        <v>0.2907585802263002</v>
+        <v>0.29307907579425674</v>
       </c>
       <c r="F221" t="n">
-        <v>0.2769173493447193</v>
+        <v>0.3045221399016886</v>
       </c>
       <c r="G221" t="n">
-        <v>0.31407953943434497</v>
+        <v>0.316128246877961</v>
       </c>
       <c r="H221" t="n">
-        <v>0.3101163751587613</v>
+        <v>0.2853959542181791</v>
       </c>
       <c r="I221" t="n">
-        <v>0.2907585802263002</v>
+        <v>0.32276713533558893</v>
       </c>
       <c r="J221" t="n">
-        <v>0.2769173493447193</v>
+        <v>0.31689508340698863</v>
       </c>
       <c r="K221" t="n">
-        <v>0.31407953943434497</v>
+        <v>0.3280351489777692</v>
       </c>
       <c r="L221" t="n">
-        <v>0.3101163751587613</v>
+        <v>0.3159371176046684</v>
       </c>
     </row>
     <row r="222">
@@ -8504,34 +8504,34 @@
         <v>0.4104461784094875</v>
       </c>
       <c r="C222" t="n">
-        <v>0.4655278803675185</v>
+        <v>0.46865125997582463</v>
       </c>
       <c r="D222" t="n">
-        <v>0.4596536885367373</v>
+        <v>0.4663707187309425</v>
       </c>
       <c r="E222" t="n">
-        <v>0.4309616149947055</v>
+        <v>0.4300131581501436</v>
       </c>
       <c r="F222" t="n">
-        <v>0.4104461784094875</v>
+        <v>0.4468027161300714</v>
       </c>
       <c r="G222" t="n">
-        <v>0.4655278803675185</v>
+        <v>0.4638314948007087</v>
       </c>
       <c r="H222" t="n">
-        <v>0.4596536885367373</v>
+        <v>0.4187402845598776</v>
       </c>
       <c r="I222" t="n">
-        <v>0.4309616149947055</v>
+        <v>0.47357224270137155</v>
       </c>
       <c r="J222" t="n">
-        <v>0.4104461784094875</v>
+        <v>0.46495661707952857</v>
       </c>
       <c r="K222" t="n">
-        <v>0.4655278803675185</v>
+        <v>0.48130160781320314</v>
       </c>
       <c r="L222" t="n">
-        <v>0.4596536885367373</v>
+        <v>0.4635510650149904</v>
       </c>
     </row>
     <row r="223">
@@ -8580,34 +8580,34 @@
         <v>0.6957213809272096</v>
       </c>
       <c r="C224" t="n">
-        <v>0.7890868933034275</v>
+        <v>0.7943811367111044</v>
       </c>
       <c r="D224" t="n">
-        <v>0.7791299219212622</v>
+        <v>0.7905155353543099</v>
       </c>
       <c r="E224" t="n">
-        <v>0.7304958011123399</v>
+        <v>0.7288881318481127</v>
       </c>
       <c r="F224" t="n">
-        <v>0.6957213809272096</v>
+        <v>0.7573470506476909</v>
       </c>
       <c r="G224" t="n">
-        <v>0.7890868933034275</v>
+        <v>0.786211457323735</v>
       </c>
       <c r="H224" t="n">
-        <v>0.7791299219212622</v>
+        <v>0.7097801961581541</v>
       </c>
       <c r="I224" t="n">
-        <v>0.7304958011123399</v>
+        <v>0.8027223835722722</v>
       </c>
       <c r="J224" t="n">
-        <v>0.6957213809272096</v>
+        <v>0.7881185810020839</v>
       </c>
       <c r="K224" t="n">
-        <v>0.7890868933034275</v>
+        <v>0.8158239419547434</v>
       </c>
       <c r="L224" t="n">
-        <v>0.7791299219212622</v>
+        <v>0.7857361185143226</v>
       </c>
     </row>
     <row r="225">
@@ -8805,37 +8805,37 @@
         <v>229.0</v>
       </c>
       <c r="B230" t="n">
-        <v>3.5699429673906753</v>
+        <v>3.5345969974165103</v>
       </c>
       <c r="C230" t="n">
-        <v>3.590220324878664</v>
+        <v>3.5890088939244906</v>
       </c>
       <c r="D230" t="n">
-        <v>3.276128078914459</v>
+        <v>3.2452953485699965</v>
       </c>
       <c r="E230" t="n">
-        <v>3.1102720409674003</v>
+        <v>3.120209018466577</v>
       </c>
       <c r="F230" t="n">
-        <v>3.5699429673906753</v>
+        <v>3.5239120003124063</v>
       </c>
       <c r="G230" t="n">
-        <v>3.590220324878664</v>
+        <v>3.2471033131937626</v>
       </c>
       <c r="H230" t="n">
-        <v>3.276128078914459</v>
+        <v>3.511174968101742</v>
       </c>
       <c r="I230" t="n">
-        <v>3.1102720409674003</v>
+        <v>3.268957063551401</v>
       </c>
       <c r="J230" t="n">
-        <v>3.5699429673906753</v>
+        <v>3.4055217330088783</v>
       </c>
       <c r="K230" t="n">
-        <v>3.590220324878664</v>
+        <v>3.5648626594198958</v>
       </c>
       <c r="L230" t="n">
-        <v>3.276128078914459</v>
+        <v>3.2818414678110006</v>
       </c>
     </row>
     <row r="231">
@@ -9109,37 +9109,37 @@
         <v>237.0</v>
       </c>
       <c r="B238" t="n">
-        <v>3.5548085861207683</v>
+        <v>3.5196124615057114</v>
       </c>
       <c r="C238" t="n">
-        <v>3.5749999799779166</v>
+        <v>3.573793684752272</v>
       </c>
       <c r="D238" t="n">
-        <v>3.2622392936066142</v>
+        <v>3.2315372752373537</v>
       </c>
       <c r="E238" t="n">
-        <v>3.097086384123269</v>
+        <v>3.1069812348973085</v>
       </c>
       <c r="F238" t="n">
-        <v>3.5548085861207683</v>
+        <v>3.5089727622737352</v>
       </c>
       <c r="G238" t="n">
-        <v>3.5749999799779166</v>
+        <v>3.2333375751935916</v>
       </c>
       <c r="H238" t="n">
-        <v>3.2622392936066142</v>
+        <v>3.4962897273127425</v>
       </c>
       <c r="I238" t="n">
-        <v>3.097086384123269</v>
+        <v>3.2550986789758896</v>
       </c>
       <c r="J238" t="n">
-        <v>3.5548085861207683</v>
+        <v>3.3910843975104954</v>
       </c>
       <c r="K238" t="n">
-        <v>3.5749999799779166</v>
+        <v>3.549749815557869</v>
       </c>
       <c r="L238" t="n">
-        <v>3.2622392936066142</v>
+        <v>3.2679284612181956</v>
       </c>
     </row>
     <row r="239">
@@ -9261,37 +9261,37 @@
         <v>241.0</v>
       </c>
       <c r="B242" t="n">
-        <v>2.2690726483293475</v>
+        <v>2.2016744508542185</v>
       </c>
       <c r="C242" t="n">
-        <v>2.1920990895529626</v>
+        <v>2.11281168713651</v>
       </c>
       <c r="D242" t="n">
-        <v>2.1261814492733575</v>
+        <v>2.049235991844781</v>
       </c>
       <c r="E242" t="n">
-        <v>1.989937114500049</v>
+        <v>1.9196865893002353</v>
       </c>
       <c r="F242" t="n">
-        <v>2.2690726483293475</v>
+        <v>1.9528214922241263</v>
       </c>
       <c r="G242" t="n">
-        <v>2.1920990895529626</v>
+        <v>2.1333743319946326</v>
       </c>
       <c r="H242" t="n">
-        <v>2.1261814492733575</v>
+        <v>2.1269056407908478</v>
       </c>
       <c r="I242" t="n">
-        <v>1.989937114500049</v>
+        <v>2.0438621203560063</v>
       </c>
       <c r="J242" t="n">
-        <v>2.2690726483293475</v>
+        <v>1.870542612731903</v>
       </c>
       <c r="K242" t="n">
-        <v>2.1920990895529626</v>
+        <v>2.16631710857281</v>
       </c>
       <c r="L242" t="n">
-        <v>2.1261814492733575</v>
+        <v>2.1217588618581544</v>
       </c>
     </row>
     <row r="243">
@@ -9299,37 +9299,37 @@
         <v>242.0</v>
       </c>
       <c r="B243" t="n">
-        <v>1.00798537680046</v>
+        <v>1.0182709418698526</v>
       </c>
       <c r="C243" t="n">
-        <v>0.973791574453932</v>
+        <v>0.9771720545784631</v>
       </c>
       <c r="D243" t="n">
-        <v>0.9445091195603191</v>
+        <v>0.9477683963311584</v>
       </c>
       <c r="E243" t="n">
-        <v>0.8839855848799664</v>
+        <v>0.8878520031075692</v>
       </c>
       <c r="F243" t="n">
-        <v>1.00798537680046</v>
+        <v>0.9031768431610049</v>
       </c>
       <c r="G243" t="n">
-        <v>0.973791574453932</v>
+        <v>0.986682245214909</v>
       </c>
       <c r="H243" t="n">
-        <v>0.9445091195603191</v>
+        <v>0.983690485791899</v>
       </c>
       <c r="I243" t="n">
-        <v>0.8839855848799664</v>
+        <v>0.9452829892900588</v>
       </c>
       <c r="J243" t="n">
-        <v>1.00798537680046</v>
+        <v>0.8651229918824763</v>
       </c>
       <c r="K243" t="n">
-        <v>0.973791574453932</v>
+        <v>1.0019182271381466</v>
       </c>
       <c r="L243" t="n">
-        <v>0.9445091195603191</v>
+        <v>0.9813101086978395</v>
       </c>
     </row>
     <row r="244">
@@ -9375,37 +9375,37 @@
         <v>244.0</v>
       </c>
       <c r="B245" t="n">
-        <v>0.46492471664344714</v>
+        <v>0.4698186610291677</v>
       </c>
       <c r="C245" t="n">
-        <v>0.4491531149587249</v>
+        <v>0.4508561006701614</v>
       </c>
       <c r="D245" t="n">
-        <v>0.4356468306837968</v>
+        <v>0.43728958631815545</v>
       </c>
       <c r="E245" t="n">
-        <v>0.4077308629930341</v>
+        <v>0.4096448421930681</v>
       </c>
       <c r="F245" t="n">
-        <v>0.46492471664344714</v>
+        <v>0.4167155495444633</v>
       </c>
       <c r="G245" t="n">
-        <v>0.4491531149587249</v>
+        <v>0.45524399474356236</v>
       </c>
       <c r="H245" t="n">
-        <v>0.4356468306837968</v>
+        <v>0.4538636308851389</v>
       </c>
       <c r="I245" t="n">
-        <v>0.4077308629930341</v>
+        <v>0.43614284770454287</v>
       </c>
       <c r="J245" t="n">
-        <v>0.46492471664344714</v>
+        <v>0.39915793425805324</v>
       </c>
       <c r="K245" t="n">
-        <v>0.4491531149587249</v>
+        <v>0.4622737039617156</v>
       </c>
       <c r="L245" t="n">
-        <v>0.4356468306837968</v>
+        <v>0.45276535189760153</v>
       </c>
     </row>
     <row r="246">
@@ -9565,37 +9565,37 @@
         <v>249.0</v>
       </c>
       <c r="B250" t="n">
-        <v>0.6492640933172318</v>
+        <v>0.6558892371265913</v>
       </c>
       <c r="C250" t="n">
-        <v>0.6272391626103432</v>
+        <v>0.6294165993207819</v>
       </c>
       <c r="D250" t="n">
-        <v>0.6083777317164226</v>
+        <v>0.6104770988562574</v>
       </c>
       <c r="E250" t="n">
-        <v>0.5693932793890233</v>
+        <v>0.5718837188167242</v>
       </c>
       <c r="F250" t="n">
-        <v>0.6492640933172318</v>
+        <v>0.5817547631905109</v>
       </c>
       <c r="G250" t="n">
-        <v>0.6272391626103432</v>
+        <v>0.6355423085254585</v>
       </c>
       <c r="H250" t="n">
-        <v>0.6083777317164226</v>
+        <v>0.6336152548063168</v>
       </c>
       <c r="I250" t="n">
-        <v>0.5693932793890233</v>
+        <v>0.6088761971108513</v>
       </c>
       <c r="J250" t="n">
-        <v>0.6492640933172318</v>
+        <v>0.5572434956500955</v>
       </c>
       <c r="K250" t="n">
-        <v>0.6272391626103432</v>
+        <v>0.6453561175517245</v>
       </c>
       <c r="L250" t="n">
-        <v>0.6083777317164226</v>
+        <v>0.6320820050079582</v>
       </c>
     </row>
     <row r="251">
@@ -9679,37 +9679,37 @@
         <v>252.0</v>
       </c>
       <c r="B253" t="n">
-        <v>2.6268477361765954</v>
+        <v>2.5743107814530632</v>
       </c>
       <c r="C253" t="n">
-        <v>2.641575291604576</v>
+        <v>2.5799469294367356</v>
       </c>
       <c r="D253" t="n">
-        <v>2.58432335082406</v>
+        <v>2.5139002882014094</v>
       </c>
       <c r="E253" t="n">
-        <v>2.669229747959761</v>
+        <v>2.6244783084296155</v>
       </c>
       <c r="F253" t="n">
-        <v>2.6268477361765954</v>
+        <v>2.8829131765467215</v>
       </c>
       <c r="G253" t="n">
-        <v>2.641575291604576</v>
+        <v>2.754053778527658</v>
       </c>
       <c r="H253" t="n">
-        <v>2.58432335082406</v>
+        <v>2.8811510040534714</v>
       </c>
       <c r="I253" t="n">
-        <v>2.669229747959761</v>
+        <v>2.6259404138554205</v>
       </c>
       <c r="J253" t="n">
-        <v>2.6268477361765954</v>
+        <v>2.839495808892881</v>
       </c>
       <c r="K253" t="n">
-        <v>2.641575291604576</v>
+        <v>2.6436135953723903</v>
       </c>
       <c r="L253" t="n">
-        <v>2.58432335082406</v>
+        <v>2.523320686463976</v>
       </c>
     </row>
     <row r="254">
@@ -9717,37 +9717,37 @@
         <v>253.0</v>
       </c>
       <c r="B254" t="n">
-        <v>2.3968490815554895</v>
+        <v>2.4210596783388785</v>
       </c>
       <c r="C254" t="n">
-        <v>2.410287137829163</v>
+        <v>2.4263603012173323</v>
       </c>
       <c r="D254" t="n">
-        <v>2.3580479997218355</v>
+        <v>2.3642454776550017</v>
       </c>
       <c r="E254" t="n">
-        <v>2.435520255608695</v>
+        <v>2.4682406860089587</v>
       </c>
       <c r="F254" t="n">
-        <v>2.3968490815554895</v>
+        <v>2.7112906872687077</v>
       </c>
       <c r="G254" t="n">
-        <v>2.410287137829163</v>
+        <v>2.590102408461562</v>
       </c>
       <c r="H254" t="n">
-        <v>2.3580479997218355</v>
+        <v>2.7096334185347137</v>
       </c>
       <c r="I254" t="n">
-        <v>2.435520255608695</v>
+        <v>2.469615750945718</v>
       </c>
       <c r="J254" t="n">
-        <v>2.3968490815554895</v>
+        <v>2.6704579956901893</v>
       </c>
       <c r="K254" t="n">
-        <v>2.410287137829163</v>
+        <v>2.4862368316120347</v>
       </c>
       <c r="L254" t="n">
-        <v>2.3580479997218355</v>
+        <v>2.373105070891262</v>
       </c>
     </row>
     <row r="255">
@@ -9948,34 +9948,34 @@
         <v>2.859326833374687</v>
       </c>
       <c r="C260" t="n">
-        <v>2.8753577946844318</v>
+        <v>2.8655869901835276</v>
       </c>
       <c r="D260" t="n">
-        <v>2.8130389901789306</v>
+        <v>2.7922279634106046</v>
       </c>
       <c r="E260" t="n">
-        <v>2.905459702773654</v>
+        <v>2.91504868214352</v>
       </c>
       <c r="F260" t="n">
-        <v>2.859326833374687</v>
+        <v>3.202096290540588</v>
       </c>
       <c r="G260" t="n">
-        <v>2.8753577946844318</v>
+        <v>3.058970162513247</v>
       </c>
       <c r="H260" t="n">
-        <v>2.8130389901789306</v>
+        <v>3.200139018275217</v>
       </c>
       <c r="I260" t="n">
-        <v>2.905459702773654</v>
+        <v>2.916672665272265</v>
       </c>
       <c r="J260" t="n">
-        <v>2.859326833374687</v>
+        <v>3.1538719482189332</v>
       </c>
       <c r="K260" t="n">
-        <v>2.8753577946844318</v>
+        <v>2.936302541550859</v>
       </c>
       <c r="L260" t="n">
-        <v>2.8130389901789306</v>
+        <v>2.8026913455815903</v>
       </c>
     </row>
     <row r="261">
@@ -10135,37 +10135,37 @@
         <v>264.0</v>
       </c>
       <c r="B265" t="n">
-        <v>0.15919427949983223</v>
+        <v>0.1608700087577252</v>
       </c>
       <c r="C265" t="n">
-        <v>0.16423660165088516</v>
+        <v>0.16424837831143496</v>
       </c>
       <c r="D265" t="n">
-        <v>0.15500667360457165</v>
+        <v>0.15496394199730432</v>
       </c>
       <c r="E265" t="n">
-        <v>0.15795549630493178</v>
+        <v>0.16175068413331614</v>
       </c>
       <c r="F265" t="n">
-        <v>0.15919427949983223</v>
+        <v>0.14523108930604883</v>
       </c>
       <c r="G265" t="n">
-        <v>0.16423660165088516</v>
+        <v>0.1491408438042206</v>
       </c>
       <c r="H265" t="n">
-        <v>0.15500667360457165</v>
+        <v>0.14235445642534275</v>
       </c>
       <c r="I265" t="n">
-        <v>0.15795549630493178</v>
+        <v>0.14554905554270375</v>
       </c>
       <c r="J265" t="n">
-        <v>0.15919427949983223</v>
+        <v>0.16264105484898528</v>
       </c>
       <c r="K265" t="n">
-        <v>0.16423660165088516</v>
+        <v>0.15537138450597138</v>
       </c>
       <c r="L265" t="n">
-        <v>0.15500667360457165</v>
+        <v>0.16019164134203906</v>
       </c>
     </row>
     <row r="266">
@@ -10173,37 +10173,37 @@
         <v>265.0</v>
       </c>
       <c r="B266" t="n">
-        <v>0.4583279364795899</v>
+        <v>0.4399948190204063</v>
       </c>
       <c r="C266" t="n">
-        <v>0.4728450228586885</v>
+        <v>0.44923498200570977</v>
       </c>
       <c r="D266" t="n">
-        <v>0.4462716190365592</v>
+        <v>0.42384116306277253</v>
       </c>
       <c r="E266" t="n">
-        <v>0.45476142047632545</v>
+        <v>0.4424035501785083</v>
       </c>
       <c r="F266" t="n">
-        <v>0.4583279364795899</v>
+        <v>0.39722088255485855</v>
       </c>
       <c r="G266" t="n">
-        <v>0.4728450228586885</v>
+        <v>0.4079144340510115</v>
       </c>
       <c r="H266" t="n">
-        <v>0.4462716190365592</v>
+        <v>0.38935301722987675</v>
       </c>
       <c r="I266" t="n">
-        <v>0.45476142047632545</v>
+        <v>0.3980905505422724</v>
       </c>
       <c r="J266" t="n">
-        <v>0.4583279364795899</v>
+        <v>0.44483879901654316</v>
       </c>
       <c r="K266" t="n">
-        <v>0.4728450228586885</v>
+        <v>0.4249555571891021</v>
       </c>
       <c r="L266" t="n">
-        <v>0.4462716190365592</v>
+        <v>0.43813941943039525</v>
       </c>
     </row>
     <row r="267">
@@ -10249,37 +10249,37 @@
         <v>267.0</v>
       </c>
       <c r="B268" t="n">
-        <v>6.458401002587541</v>
+        <v>6.3956980802323224</v>
       </c>
       <c r="C268" t="n">
-        <v>5.649011454506873</v>
+        <v>5.5770487220861575</v>
       </c>
       <c r="D268" t="n">
-        <v>5.805027492880938</v>
+        <v>5.825607999689061</v>
       </c>
       <c r="E268" t="n">
-        <v>6.141804557877849</v>
+        <v>6.109825508267595</v>
       </c>
       <c r="F268" t="n">
-        <v>6.458401002587541</v>
+        <v>5.723572169268342</v>
       </c>
       <c r="G268" t="n">
-        <v>5.649011454506873</v>
+        <v>6.093803235951994</v>
       </c>
       <c r="H268" t="n">
-        <v>5.805027492880938</v>
+        <v>6.326053450243957</v>
       </c>
       <c r="I268" t="n">
-        <v>6.141804557877849</v>
+        <v>6.564322886316485</v>
       </c>
       <c r="J268" t="n">
-        <v>6.458401002587541</v>
+        <v>6.360685135424584</v>
       </c>
       <c r="K268" t="n">
-        <v>5.649011454506873</v>
+        <v>6.439018690426885</v>
       </c>
       <c r="L268" t="n">
-        <v>5.805027492880938</v>
+        <v>5.71106846255517</v>
       </c>
     </row>
     <row r="269">
@@ -10287,37 +10287,37 @@
         <v>268.0</v>
       </c>
       <c r="B269" t="n">
-        <v>0.4798644626046656</v>
+        <v>0.48486305075679753</v>
       </c>
       <c r="C269" t="n">
-        <v>0.49506369725616683</v>
+        <v>0.4950454743237816</v>
       </c>
       <c r="D269" t="n">
-        <v>0.4672416267914512</v>
+        <v>0.467062134541621</v>
       </c>
       <c r="E269" t="n">
-        <v>0.47613035837697426</v>
+        <v>0.48751741096124374</v>
       </c>
       <c r="F269" t="n">
-        <v>0.4798644626046656</v>
+        <v>0.4377272654451958</v>
       </c>
       <c r="G269" t="n">
-        <v>0.49506369725616683</v>
+        <v>0.4495112860238772</v>
       </c>
       <c r="H269" t="n">
-        <v>0.4672416267914512</v>
+        <v>0.42905707884411826</v>
       </c>
       <c r="I269" t="n">
-        <v>0.47613035837697426</v>
+        <v>0.4386856173513883</v>
       </c>
       <c r="J269" t="n">
-        <v>0.4798644626046656</v>
+        <v>0.49020099297157366</v>
       </c>
       <c r="K269" t="n">
-        <v>0.49506369725616683</v>
+        <v>0.4682901684012936</v>
       </c>
       <c r="L269" t="n">
-        <v>0.4672416267914512</v>
+        <v>0.4828184478053615</v>
       </c>
     </row>
     <row r="270">
@@ -10401,37 +10401,37 @@
         <v>271.0</v>
       </c>
       <c r="B272" t="n">
-        <v>1.1994747526509126</v>
+        <v>1.1400948144008676</v>
       </c>
       <c r="C272" t="n">
-        <v>1.2374669351208036</v>
+        <v>1.1640375097426388</v>
       </c>
       <c r="D272" t="n">
-        <v>1.1679225664718706</v>
+        <v>1.0982381865616662</v>
       </c>
       <c r="E272" t="n">
-        <v>1.1901409425984422</v>
+        <v>1.1463362103990111</v>
       </c>
       <c r="F272" t="n">
-        <v>1.1994747526509126</v>
+        <v>1.0292609112552455</v>
       </c>
       <c r="G272" t="n">
-        <v>1.2374669351208036</v>
+        <v>1.0569695616330748</v>
       </c>
       <c r="H272" t="n">
-        <v>1.1679225664718706</v>
+        <v>1.0088740519795227</v>
       </c>
       <c r="I272" t="n">
-        <v>1.1901409425984422</v>
+        <v>1.0315143558864992</v>
       </c>
       <c r="J272" t="n">
-        <v>1.1994747526509126</v>
+        <v>1.152646317818459</v>
       </c>
       <c r="K272" t="n">
-        <v>1.2374669351208036</v>
+        <v>1.1011257545731616</v>
       </c>
       <c r="L272" t="n">
-        <v>1.1679225664718706</v>
+        <v>1.13528718631124</v>
       </c>
     </row>
     <row r="273">
@@ -10477,37 +10477,37 @@
         <v>273.0</v>
       </c>
       <c r="B274" t="n">
-        <v>1.2080358744964657</v>
+        <v>1.2206195815224705</v>
       </c>
       <c r="C274" t="n">
-        <v>1.1636521868235885</v>
+        <v>1.1793824341656864</v>
       </c>
       <c r="D274" t="n">
-        <v>1.247818959741854</v>
+        <v>1.270214192700877</v>
       </c>
       <c r="E274" t="n">
-        <v>1.2996431734767098</v>
+        <v>1.3148670451323254</v>
       </c>
       <c r="F274" t="n">
-        <v>1.2080358744964657</v>
+        <v>1.2671404730578322</v>
       </c>
       <c r="G274" t="n">
-        <v>1.1636521868235885</v>
+        <v>1.281090644374515</v>
       </c>
       <c r="H274" t="n">
-        <v>1.247818959741854</v>
+        <v>1.1668987204480255</v>
       </c>
       <c r="I274" t="n">
-        <v>1.2996431734767098</v>
+        <v>1.1662489993265825</v>
       </c>
       <c r="J274" t="n">
-        <v>1.2080358744964657</v>
+        <v>1.2803075813557458</v>
       </c>
       <c r="K274" t="n">
-        <v>1.1636521868235885</v>
+        <v>1.1212972178571923</v>
       </c>
       <c r="L274" t="n">
-        <v>1.247818959741854</v>
+        <v>1.2238289236314388</v>
       </c>
     </row>
     <row r="275">
@@ -10518,34 +10518,34 @@
         <v>5.404815748811728</v>
       </c>
       <c r="C275" t="n">
-        <v>5.676818146804048</v>
+        <v>5.632136937798212</v>
       </c>
       <c r="D275" t="n">
-        <v>5.5815350150529985</v>
+        <v>5.54168878211914</v>
       </c>
       <c r="E275" t="n">
-        <v>4.964863605569603</v>
+        <v>4.9000514141833795</v>
       </c>
       <c r="F275" t="n">
-        <v>5.404815748811728</v>
+        <v>5.03196530499986</v>
       </c>
       <c r="G275" t="n">
-        <v>5.676818146804048</v>
+        <v>5.524626932219109</v>
       </c>
       <c r="H275" t="n">
-        <v>5.5815350150529985</v>
+        <v>5.424422095094875</v>
       </c>
       <c r="I275" t="n">
-        <v>4.964863605569603</v>
+        <v>5.457417363732284</v>
       </c>
       <c r="J275" t="n">
-        <v>5.404815748811728</v>
+        <v>5.228434812130108</v>
       </c>
       <c r="K275" t="n">
-        <v>5.676818146804048</v>
+        <v>4.785063540527272</v>
       </c>
       <c r="L275" t="n">
-        <v>5.5815350150529985</v>
+        <v>5.4408697062646185</v>
       </c>
     </row>
     <row r="276">
@@ -10708,34 +10708,34 @@
         <v>0.27916469964232227</v>
       </c>
       <c r="C280" t="n">
-        <v>0.2838350894166437</v>
+        <v>0.28414145211608305</v>
       </c>
       <c r="D280" t="n">
-        <v>0.31050283091397857</v>
+        <v>0.3119473435065067</v>
       </c>
       <c r="E280" t="n">
-        <v>0.3065731494162355</v>
+        <v>0.30724934128713904</v>
       </c>
       <c r="F280" t="n">
-        <v>0.27916469964232227</v>
+        <v>0.27303742317357144</v>
       </c>
       <c r="G280" t="n">
-        <v>0.2838350894166437</v>
+        <v>0.30836390971287475</v>
       </c>
       <c r="H280" t="n">
-        <v>0.31050283091397857</v>
+        <v>0.29722255607749504</v>
       </c>
       <c r="I280" t="n">
-        <v>0.3065731494162355</v>
+        <v>0.27855483688078664</v>
       </c>
       <c r="J280" t="n">
-        <v>0.27916469964232227</v>
+        <v>0.3085504574994088</v>
       </c>
       <c r="K280" t="n">
-        <v>0.2838350894166437</v>
+        <v>0.30929891248309155</v>
       </c>
       <c r="L280" t="n">
-        <v>0.31050283091397857</v>
+        <v>0.31503020769926804</v>
       </c>
     </row>
     <row r="281">
@@ -10781,37 +10781,37 @@
         <v>281.0</v>
       </c>
       <c r="B282" t="n">
-        <v>6.232927449111251</v>
+        <v>6.295256723602364</v>
       </c>
       <c r="C282" t="n">
-        <v>6.546605341469219</v>
+        <v>6.560028976698885</v>
       </c>
       <c r="D282" t="n">
-        <v>6.436723178056162</v>
+        <v>6.454679527866833</v>
       </c>
       <c r="E282" t="n">
-        <v>5.725566991816837</v>
+        <v>5.707332690835401</v>
       </c>
       <c r="F282" t="n">
-        <v>6.232927449111251</v>
+        <v>5.860979336103848</v>
       </c>
       <c r="G282" t="n">
-        <v>6.546605341469219</v>
+        <v>6.4348067458346465</v>
       </c>
       <c r="H282" t="n">
-        <v>6.436723178056162</v>
+        <v>6.318093206657571</v>
       </c>
       <c r="I282" t="n">
-        <v>5.725566991816837</v>
+        <v>6.356524431030461</v>
       </c>
       <c r="J282" t="n">
-        <v>6.232927449111251</v>
+        <v>6.089817106571132</v>
       </c>
       <c r="K282" t="n">
-        <v>6.546605341469219</v>
+        <v>5.573400616476437</v>
       </c>
       <c r="L282" t="n">
-        <v>6.436723178056162</v>
+        <v>6.33725055440366</v>
       </c>
     </row>
     <row r="283">
@@ -10857,37 +10857,37 @@
         <v>283.0</v>
       </c>
       <c r="B284" t="n">
-        <v>2.0004002735150754</v>
+        <v>2.0206063368839144</v>
       </c>
       <c r="C284" t="n">
-        <v>1.8879055859398148</v>
+        <v>1.8887317011265843</v>
       </c>
       <c r="D284" t="n">
-        <v>2.1731087078623816</v>
+        <v>2.1709150946283082</v>
       </c>
       <c r="E284" t="n">
-        <v>2.147758317055773</v>
+        <v>2.136051725961397</v>
       </c>
       <c r="F284" t="n">
-        <v>2.0004002735150754</v>
+        <v>2.1035691893607718</v>
       </c>
       <c r="G284" t="n">
-        <v>1.8879055859398148</v>
+        <v>1.8513210630858328</v>
       </c>
       <c r="H284" t="n">
-        <v>2.1731087078623816</v>
+        <v>1.8928668550659211</v>
       </c>
       <c r="I284" t="n">
-        <v>2.147758317055773</v>
+        <v>2.1151484690072615</v>
       </c>
       <c r="J284" t="n">
-        <v>2.0004002735150754</v>
+        <v>1.9255388338358115</v>
       </c>
       <c r="K284" t="n">
-        <v>1.8879055859398148</v>
+        <v>1.9472228299798162</v>
       </c>
       <c r="L284" t="n">
-        <v>2.1731087078623816</v>
+        <v>1.9266115578006113</v>
       </c>
     </row>
     <row r="285">
@@ -11427,37 +11427,37 @@
         <v>298.0</v>
       </c>
       <c r="B299" t="n">
-        <v>4.949755169773743</v>
+        <v>4.999252721471481</v>
       </c>
       <c r="C299" t="n">
-        <v>4.671400298116338</v>
+        <v>4.672977078527791</v>
       </c>
       <c r="D299" t="n">
-        <v>5.377101874876894</v>
+        <v>5.371136869560158</v>
       </c>
       <c r="E299" t="n">
-        <v>5.314375314791843</v>
+        <v>5.28488019130164</v>
       </c>
       <c r="F299" t="n">
-        <v>4.949755169773743</v>
+        <v>5.204514012825034</v>
       </c>
       <c r="G299" t="n">
-        <v>4.671400298116338</v>
+        <v>4.580418112130787</v>
       </c>
       <c r="H299" t="n">
-        <v>5.377101874876894</v>
+        <v>4.683208007337414</v>
       </c>
       <c r="I299" t="n">
-        <v>5.314375314791843</v>
+        <v>5.233162713083327</v>
       </c>
       <c r="J299" t="n">
-        <v>4.949755169773743</v>
+        <v>4.764042891302552</v>
       </c>
       <c r="K299" t="n">
-        <v>4.671400298116338</v>
+        <v>4.817692023623134</v>
       </c>
       <c r="L299" t="n">
-        <v>5.377101874876894</v>
+        <v>4.766696955136026</v>
       </c>
     </row>
     <row r="300">
@@ -11544,34 +11544,34 @@
         <v>1.1797376014527805</v>
       </c>
       <c r="C302" t="n">
-        <v>1.1133937728434122</v>
+        <v>1.1027421651617433</v>
       </c>
       <c r="D302" t="n">
-        <v>1.2815925335807035</v>
+        <v>1.2674958600021329</v>
       </c>
       <c r="E302" t="n">
-        <v>1.2666421210847447</v>
+        <v>1.2471407684739662</v>
       </c>
       <c r="F302" t="n">
-        <v>1.1797376014527805</v>
+        <v>1.2281757335144992</v>
       </c>
       <c r="G302" t="n">
-        <v>1.1133937728434122</v>
+        <v>1.0808998420999059</v>
       </c>
       <c r="H302" t="n">
-        <v>1.2815925335807035</v>
+        <v>1.1051564882790084</v>
       </c>
       <c r="I302" t="n">
-        <v>1.2666421210847447</v>
+        <v>1.234936333710264</v>
       </c>
       <c r="J302" t="n">
-        <v>1.1797376014527805</v>
+        <v>1.1242321296670028</v>
       </c>
       <c r="K302" t="n">
-        <v>1.1133937728434122</v>
+        <v>1.1368924015536532</v>
       </c>
       <c r="L302" t="n">
-        <v>1.2815925335807035</v>
+        <v>1.124858443053313</v>
       </c>
     </row>
     <row r="303">
@@ -11658,34 +11658,34 @@
         <v>2.4646400582442176</v>
       </c>
       <c r="C305" t="n">
-        <v>2.3260383408736938</v>
+        <v>2.303785613704012</v>
       </c>
       <c r="D305" t="n">
-        <v>2.6774295340929894</v>
+        <v>2.6479795730618636</v>
       </c>
       <c r="E305" t="n">
-        <v>2.646195990736026</v>
+        <v>2.6054548845991343</v>
       </c>
       <c r="F305" t="n">
-        <v>2.4646400582442176</v>
+        <v>2.565834222504831</v>
       </c>
       <c r="G305" t="n">
-        <v>2.3260383408736938</v>
+        <v>2.258153886515675</v>
       </c>
       <c r="H305" t="n">
-        <v>2.6774295340929894</v>
+        <v>2.3088294789338977</v>
       </c>
       <c r="I305" t="n">
-        <v>2.646195990736026</v>
+        <v>2.5799580802506017</v>
       </c>
       <c r="J305" t="n">
-        <v>2.4646400582442176</v>
+        <v>2.34868121362783</v>
       </c>
       <c r="K305" t="n">
-        <v>2.3260383408736938</v>
+        <v>2.375130326720163</v>
       </c>
       <c r="L305" t="n">
-        <v>2.6774295340929894</v>
+        <v>2.3499896715925623</v>
       </c>
     </row>
     <row r="306">
@@ -11848,34 +11848,34 @@
         <v>2.723967274183179</v>
       </c>
       <c r="C310" t="n">
-        <v>2.5707820084483304</v>
+        <v>2.5461878692884232</v>
       </c>
       <c r="D310" t="n">
-        <v>2.959146267790696</v>
+        <v>2.9265976082789678</v>
       </c>
       <c r="E310" t="n">
-        <v>2.9246263590208295</v>
+        <v>2.879598510244413</v>
       </c>
       <c r="F310" t="n">
-        <v>2.723967274183179</v>
+        <v>2.8358089976276153</v>
       </c>
       <c r="G310" t="n">
-        <v>2.5707820084483304</v>
+        <v>2.495754812700828</v>
       </c>
       <c r="H310" t="n">
-        <v>2.959146267790696</v>
+        <v>2.551762445493026</v>
       </c>
       <c r="I310" t="n">
-        <v>2.9246263590208295</v>
+        <v>2.851418955015107</v>
       </c>
       <c r="J310" t="n">
-        <v>2.723967274183179</v>
+        <v>2.5958073439610954</v>
       </c>
       <c r="K310" t="n">
-        <v>2.5707820084483304</v>
+        <v>2.6250394090059235</v>
       </c>
       <c r="L310" t="n">
-        <v>2.959146267790696</v>
+        <v>2.5972534766990796</v>
       </c>
     </row>
     <row r="311">
@@ -11921,37 +11921,37 @@
         <v>311.0</v>
       </c>
       <c r="B312" t="n">
-        <v>0.5777736031090343</v>
+        <v>0.583855430510182</v>
       </c>
       <c r="C312" t="n">
-        <v>0.5943955344573447</v>
+        <v>0.6042699557104314</v>
       </c>
       <c r="D312" t="n">
-        <v>0.5781826320809111</v>
+        <v>0.5815632328310316</v>
       </c>
       <c r="E312" t="n">
-        <v>0.6322174857159378</v>
+        <v>0.627300208127503</v>
       </c>
       <c r="F312" t="n">
-        <v>0.5777736031090343</v>
+        <v>0.6288218586570252</v>
       </c>
       <c r="G312" t="n">
-        <v>0.5943955344573447</v>
+        <v>0.5530278635200208</v>
       </c>
       <c r="H312" t="n">
-        <v>0.5781826320809111</v>
+        <v>0.6307343339205399</v>
       </c>
       <c r="I312" t="n">
-        <v>0.6322174857159378</v>
+        <v>0.6385019975583514</v>
       </c>
       <c r="J312" t="n">
-        <v>0.5777736031090343</v>
+        <v>0.6269209461219728</v>
       </c>
       <c r="K312" t="n">
-        <v>0.5943955344573447</v>
+        <v>0.5663174463145139</v>
       </c>
       <c r="L312" t="n">
-        <v>0.5781826320809111</v>
+        <v>0.6509273349000337</v>
       </c>
     </row>
     <row r="313">
@@ -11997,37 +11997,37 @@
         <v>313.0</v>
       </c>
       <c r="B314" t="n">
-        <v>1.3037840350655354</v>
+        <v>1.3169535707732682</v>
       </c>
       <c r="C314" t="n">
-        <v>1.4787512960969489</v>
+        <v>1.5037098229644208</v>
       </c>
       <c r="D314" t="n">
-        <v>1.4600919007102922</v>
+        <v>1.4963925007581778</v>
       </c>
       <c r="E314" t="n">
-        <v>1.36895140681658</v>
+        <v>1.3797359895024703</v>
       </c>
       <c r="F314" t="n">
-        <v>1.3037840350655354</v>
+        <v>1.433606800089751</v>
       </c>
       <c r="G314" t="n">
-        <v>1.4787512960969489</v>
+        <v>1.4882451718321958</v>
       </c>
       <c r="H314" t="n">
-        <v>1.4600919007102922</v>
+        <v>1.3435659581841002</v>
       </c>
       <c r="I314" t="n">
-        <v>1.36895140681658</v>
+        <v>1.5194992397333522</v>
       </c>
       <c r="J314" t="n">
-        <v>1.3037840350655354</v>
+        <v>1.491855228108978</v>
       </c>
       <c r="K314" t="n">
-        <v>1.4787512960969489</v>
+        <v>1.5442996046028272</v>
       </c>
       <c r="L314" t="n">
-        <v>1.4600919007102922</v>
+        <v>1.4873453875801315</v>
       </c>
     </row>
     <row r="315">
@@ -12035,37 +12035,37 @@
         <v>314.0</v>
       </c>
       <c r="B315" t="n">
-        <v>3.368560903538097</v>
+        <v>3.4022465125734778</v>
       </c>
       <c r="C315" t="n">
-        <v>3.465470813890381</v>
+        <v>3.521206178851996</v>
       </c>
       <c r="D315" t="n">
-        <v>3.3709456421202413</v>
+        <v>3.3888894019729925</v>
       </c>
       <c r="E315" t="n">
-        <v>3.6859820065437723</v>
+        <v>3.655408229351383</v>
       </c>
       <c r="F315" t="n">
-        <v>3.368560903538097</v>
+        <v>3.66427520212733</v>
       </c>
       <c r="G315" t="n">
-        <v>3.465470813890381</v>
+        <v>3.2226078951990487</v>
       </c>
       <c r="H315" t="n">
-        <v>3.3709456421202413</v>
+        <v>3.6754195915697476</v>
       </c>
       <c r="I315" t="n">
-        <v>3.6859820065437723</v>
+        <v>3.7206833763040863</v>
       </c>
       <c r="J315" t="n">
-        <v>3.368560903538097</v>
+        <v>3.653198191098353</v>
       </c>
       <c r="K315" t="n">
-        <v>3.465470813890381</v>
+        <v>3.300049046472766</v>
       </c>
       <c r="L315" t="n">
-        <v>3.3709456421202413</v>
+        <v>3.7930883903352965</v>
       </c>
     </row>
     <row r="316">
@@ -12076,34 +12076,34 @@
         <v>1.3427558156892156</v>
       </c>
       <c r="C316" t="n">
-        <v>1.3813854707406577</v>
+        <v>1.3897053189476098</v>
       </c>
       <c r="D316" t="n">
-        <v>1.3437064060723998</v>
+        <v>1.33748419945761</v>
       </c>
       <c r="E316" t="n">
-        <v>1.4692843375976918</v>
+        <v>1.4426704944925075</v>
       </c>
       <c r="F316" t="n">
-        <v>1.3427558156892156</v>
+        <v>1.4461699996631232</v>
       </c>
       <c r="G316" t="n">
-        <v>1.3813854707406577</v>
+        <v>1.2718583080246604</v>
       </c>
       <c r="H316" t="n">
-        <v>1.3437064060723998</v>
+        <v>1.4505683269685696</v>
       </c>
       <c r="I316" t="n">
-        <v>1.4692843375976918</v>
+        <v>1.468432467608445</v>
       </c>
       <c r="J316" t="n">
-        <v>1.3427558156892156</v>
+        <v>1.441798264421528</v>
       </c>
       <c r="K316" t="n">
-        <v>1.3813854707406577</v>
+        <v>1.3024218065431137</v>
       </c>
       <c r="L316" t="n">
-        <v>1.3437064060723998</v>
+        <v>1.4970083668903367</v>
       </c>
     </row>
     <row r="317">
@@ -12190,34 +12190,34 @@
         <v>2.0889150450925213</v>
       </c>
       <c r="C319" t="n">
-        <v>2.149010906663802</v>
+        <v>2.1619540314593317</v>
       </c>
       <c r="D319" t="n">
-        <v>2.090393871346671</v>
+        <v>2.080714031677061</v>
       </c>
       <c r="E319" t="n">
-        <v>2.285754507606612</v>
+        <v>2.244351553606658</v>
       </c>
       <c r="F319" t="n">
-        <v>2.0889150450925213</v>
+        <v>2.249795707276196</v>
       </c>
       <c r="G319" t="n">
-        <v>2.149010906663802</v>
+        <v>1.9786203297841871</v>
       </c>
       <c r="H319" t="n">
-        <v>2.090393871346671</v>
+        <v>2.2566381517282967</v>
       </c>
       <c r="I319" t="n">
-        <v>2.285754507606612</v>
+        <v>2.2844292599210623</v>
       </c>
       <c r="J319" t="n">
-        <v>2.0889150450925213</v>
+        <v>2.242994631896275</v>
       </c>
       <c r="K319" t="n">
-        <v>2.149010906663802</v>
+        <v>2.026167732774276</v>
       </c>
       <c r="L319" t="n">
-        <v>2.090393871346671</v>
+        <v>2.3288845698437775</v>
       </c>
     </row>
     <row r="320">
@@ -12339,37 +12339,37 @@
         <v>322.0</v>
       </c>
       <c r="B323" t="n">
-        <v>2.3966575914101798</v>
+        <v>2.3726910154960783</v>
       </c>
       <c r="C323" t="n">
-        <v>2.279558209684557</v>
+        <v>2.2444561819873967</v>
       </c>
       <c r="D323" t="n">
-        <v>2.3716209487254645</v>
+        <v>2.314088407309192</v>
       </c>
       <c r="E323" t="n">
-        <v>2.377284129388621</v>
+        <v>2.322482924486488</v>
       </c>
       <c r="F323" t="n">
-        <v>2.3966575914101798</v>
+        <v>2.3653859322340645</v>
       </c>
       <c r="G323" t="n">
-        <v>2.279558209684557</v>
+        <v>2.348035914441773</v>
       </c>
       <c r="H323" t="n">
-        <v>2.3716209487254645</v>
+        <v>2.349472022544323</v>
       </c>
       <c r="I323" t="n">
-        <v>2.377284129388621</v>
+        <v>2.0564168928097333</v>
       </c>
       <c r="J323" t="n">
-        <v>2.3966575914101798</v>
+        <v>2.1629429932379143</v>
       </c>
       <c r="K323" t="n">
-        <v>2.279558209684557</v>
+        <v>2.138856768075097</v>
       </c>
       <c r="L323" t="n">
-        <v>2.3716209487254645</v>
+        <v>2.1025652730969466</v>
       </c>
     </row>
     <row r="324">
@@ -12494,34 +12494,34 @@
         <v>1.1914620229660526</v>
       </c>
       <c r="C327" t="n">
-        <v>1.374584857332259</v>
+        <v>1.366355531874082</v>
       </c>
       <c r="D327" t="n">
-        <v>1.3362219526478556</v>
+        <v>1.3506597912660798</v>
       </c>
       <c r="E327" t="n">
-        <v>1.2228512920494936</v>
+        <v>1.2445633951213524</v>
       </c>
       <c r="F327" t="n">
-        <v>1.1914620229660526</v>
+        <v>1.345777888067169</v>
       </c>
       <c r="G327" t="n">
-        <v>1.374584857332259</v>
+        <v>1.2578779809169476</v>
       </c>
       <c r="H327" t="n">
-        <v>1.3362219526478556</v>
+        <v>1.252939592340185</v>
       </c>
       <c r="I327" t="n">
-        <v>1.2228512920494936</v>
+        <v>1.3655203509349352</v>
       </c>
       <c r="J327" t="n">
-        <v>1.1914620229660526</v>
+        <v>1.1959268169054709</v>
       </c>
       <c r="K327" t="n">
-        <v>1.374584857332259</v>
+        <v>1.222764801817578</v>
       </c>
       <c r="L327" t="n">
-        <v>1.3362219526478556</v>
+        <v>1.2438704308472341</v>
       </c>
     </row>
     <row r="328">
@@ -12570,34 +12570,34 @@
         <v>2.176790879596224</v>
       </c>
       <c r="C329" t="n">
-        <v>2.364932342947465</v>
+        <v>2.3637868279266754</v>
       </c>
       <c r="D329" t="n">
-        <v>2.135047525233363</v>
+        <v>2.1339921502962893</v>
       </c>
       <c r="E329" t="n">
-        <v>2.3773409004806743</v>
+        <v>2.3695206973432485</v>
       </c>
       <c r="F329" t="n">
-        <v>2.176790879596224</v>
+        <v>2.388349406281847</v>
       </c>
       <c r="G329" t="n">
-        <v>2.364932342947465</v>
+        <v>2.45281834795976</v>
       </c>
       <c r="H329" t="n">
-        <v>2.135047525233363</v>
+        <v>2.4134278114300365</v>
       </c>
       <c r="I329" t="n">
-        <v>2.3773409004806743</v>
+        <v>2.0839144676313435</v>
       </c>
       <c r="J329" t="n">
-        <v>2.176790879596224</v>
+        <v>2.405997306996795</v>
       </c>
       <c r="K329" t="n">
-        <v>2.364932342947465</v>
+        <v>2.3767272688987178</v>
       </c>
       <c r="L329" t="n">
-        <v>2.135047525233363</v>
+        <v>2.277004444305602</v>
       </c>
     </row>
     <row r="330">
@@ -12646,34 +12646,34 @@
         <v>3.7552256437919542</v>
       </c>
       <c r="C331" t="n">
-        <v>3.786688128053125</v>
+        <v>3.7826053024456474</v>
       </c>
       <c r="D331" t="n">
-        <v>3.8483400357772792</v>
+        <v>3.797514221383319</v>
       </c>
       <c r="E331" t="n">
-        <v>4.000078030546561</v>
+        <v>3.930294436689347</v>
       </c>
       <c r="F331" t="n">
-        <v>3.7552256437919542</v>
+        <v>4.233763500683775</v>
       </c>
       <c r="G331" t="n">
-        <v>3.786688128053125</v>
+        <v>3.6834436126039356</v>
       </c>
       <c r="H331" t="n">
-        <v>3.8483400357772792</v>
+        <v>3.597005468808237</v>
       </c>
       <c r="I331" t="n">
-        <v>4.000078030546561</v>
+        <v>4.089984996594291</v>
       </c>
       <c r="J331" t="n">
-        <v>3.7552256437919542</v>
+        <v>4.1657722383179285</v>
       </c>
       <c r="K331" t="n">
-        <v>3.786688128053125</v>
+        <v>4.080087872710752</v>
       </c>
       <c r="L331" t="n">
-        <v>3.8483400357772792</v>
+        <v>4.152946584723444</v>
       </c>
     </row>
     <row r="332">
@@ -12722,34 +12722,34 @@
         <v>2.8548236742113904</v>
       </c>
       <c r="C333" t="n">
-        <v>2.8787423021284053</v>
+        <v>2.8756384281385237</v>
       </c>
       <c r="D333" t="n">
-        <v>2.9256117428562027</v>
+        <v>2.88697258985808</v>
       </c>
       <c r="E333" t="n">
-        <v>3.040967053251689</v>
+        <v>2.9879156857141687</v>
       </c>
       <c r="F333" t="n">
-        <v>2.8548236742113904</v>
+        <v>3.2186210415199628</v>
       </c>
       <c r="G333" t="n">
-        <v>2.8787423021284053</v>
+        <v>2.800253040790916</v>
       </c>
       <c r="H333" t="n">
-        <v>2.9256117428562027</v>
+        <v>2.734540435831798</v>
       </c>
       <c r="I333" t="n">
-        <v>3.040967053251689</v>
+        <v>3.109316750312875</v>
       </c>
       <c r="J333" t="n">
-        <v>2.8548236742113904</v>
+        <v>3.1669322526551915</v>
       </c>
       <c r="K333" t="n">
-        <v>2.8787423021284053</v>
+        <v>3.1017926901765587</v>
       </c>
       <c r="L333" t="n">
-        <v>2.9256117428562027</v>
+        <v>3.1571818453582825</v>
       </c>
     </row>
     <row r="334">
@@ -12909,37 +12909,37 @@
         <v>337.0</v>
       </c>
       <c r="B338" t="n">
-        <v>5.220245308633893</v>
+        <v>5.168559711518706</v>
       </c>
       <c r="C338" t="n">
-        <v>5.263982197290335</v>
+        <v>5.206244104962961</v>
       </c>
       <c r="D338" t="n">
-        <v>5.349686256804681</v>
+        <v>5.226764213492508</v>
       </c>
       <c r="E338" t="n">
-        <v>5.560621532197614</v>
+        <v>5.409518203909052</v>
       </c>
       <c r="F338" t="n">
-        <v>5.220245308633893</v>
+        <v>5.827202286474608</v>
       </c>
       <c r="G338" t="n">
-        <v>5.263982197290335</v>
+        <v>5.0697614635298756</v>
       </c>
       <c r="H338" t="n">
-        <v>5.349686256804681</v>
+        <v>4.950791060699494</v>
       </c>
       <c r="I338" t="n">
-        <v>5.560621532197614</v>
+        <v>5.629310640509776</v>
       </c>
       <c r="J338" t="n">
-        <v>5.220245308633893</v>
+        <v>5.733621518570456</v>
       </c>
       <c r="K338" t="n">
-        <v>5.263982197290335</v>
+        <v>5.615688589369139</v>
       </c>
       <c r="L338" t="n">
-        <v>5.349686256804681</v>
+        <v>5.71596874275073</v>
       </c>
     </row>
     <row r="339">
@@ -13023,37 +13023,37 @@
         <v>340.0</v>
       </c>
       <c r="B341" t="n">
-        <v>1.9663184184300149</v>
+        <v>1.9861802206363786</v>
       </c>
       <c r="C341" t="n">
-        <v>1.8099751298137932</v>
+        <v>1.8291436990712406</v>
       </c>
       <c r="D341" t="n">
-        <v>1.76493868697942</v>
+        <v>1.7981073247052743</v>
       </c>
       <c r="E341" t="n">
-        <v>1.9531378487459812</v>
+        <v>2.0092612139001456</v>
       </c>
       <c r="F341" t="n">
-        <v>1.9663184184300149</v>
+        <v>1.7520757773031155</v>
       </c>
       <c r="G341" t="n">
-        <v>1.8099751298137932</v>
+        <v>1.9790012554850958</v>
       </c>
       <c r="H341" t="n">
-        <v>1.76493868697942</v>
+        <v>1.8497421644049565</v>
       </c>
       <c r="I341" t="n">
-        <v>1.9531378487459812</v>
+        <v>1.9194519915508412</v>
       </c>
       <c r="J341" t="n">
-        <v>1.9663184184300149</v>
+        <v>1.8424801360419238</v>
       </c>
       <c r="K341" t="n">
-        <v>1.8099751298137932</v>
+        <v>1.830162720992054</v>
       </c>
       <c r="L341" t="n">
-        <v>1.76493868697942</v>
+        <v>2.008033058688365</v>
       </c>
     </row>
     <row r="342">
@@ -13175,37 +13175,37 @@
         <v>344.0</v>
       </c>
       <c r="B345" t="n">
-        <v>6.466462438752784</v>
+        <v>6.59579168752784</v>
       </c>
       <c r="C345" t="n">
-        <v>5.952309698325781</v>
+        <v>6.074298132806126</v>
       </c>
       <c r="D345" t="n">
-        <v>5.80420221825852</v>
+        <v>5.971231221794167</v>
       </c>
       <c r="E345" t="n">
-        <v>6.423116631693102</v>
+        <v>6.672440030879212</v>
       </c>
       <c r="F345" t="n">
-        <v>6.466462438752784</v>
+        <v>5.8183677028825125</v>
       </c>
       <c r="G345" t="n">
-        <v>5.952309698325781</v>
+        <v>6.571951474954022</v>
       </c>
       <c r="H345" t="n">
-        <v>5.80420221825852</v>
+        <v>6.1427023919022234</v>
       </c>
       <c r="I345" t="n">
-        <v>6.423116631693102</v>
+        <v>6.3741977484920245</v>
       </c>
       <c r="J345" t="n">
-        <v>6.466462438752784</v>
+        <v>6.118586339484716</v>
       </c>
       <c r="K345" t="n">
-        <v>5.952309698325781</v>
+        <v>6.077682144108261</v>
       </c>
       <c r="L345" t="n">
-        <v>5.80420221825852</v>
+        <v>6.66836152085646</v>
       </c>
     </row>
     <row r="346">
@@ -13289,37 +13289,37 @@
         <v>347.0</v>
       </c>
       <c r="B348" t="n">
-        <v>3.4316857245337924</v>
+        <v>3.466702925804545</v>
       </c>
       <c r="C348" t="n">
-        <v>3.158830104283165</v>
+        <v>3.192609485988895</v>
       </c>
       <c r="D348" t="n">
-        <v>3.0802309737914206</v>
+        <v>3.1384382236316517</v>
       </c>
       <c r="E348" t="n">
-        <v>3.4086825464106703</v>
+        <v>3.5069887699825424</v>
       </c>
       <c r="F348" t="n">
-        <v>3.4316857245337924</v>
+        <v>3.0580942052991937</v>
       </c>
       <c r="G348" t="n">
-        <v>3.158830104283165</v>
+        <v>3.4541726733956137</v>
       </c>
       <c r="H348" t="n">
-        <v>3.0802309737914206</v>
+        <v>3.22856229595928</v>
       </c>
       <c r="I348" t="n">
-        <v>3.4086825464106703</v>
+        <v>3.350234669499752</v>
       </c>
       <c r="J348" t="n">
-        <v>3.4316857245337924</v>
+        <v>3.2158870640181747</v>
       </c>
       <c r="K348" t="n">
-        <v>3.158830104283165</v>
+        <v>3.194388099146774</v>
       </c>
       <c r="L348" t="n">
-        <v>3.0802309737914206</v>
+        <v>3.5048451330548422</v>
       </c>
     </row>
     <row r="349">
@@ -13403,37 +13403,37 @@
         <v>350.0</v>
       </c>
       <c r="B351" t="n">
-        <v>5.205142005296358</v>
+        <v>5.257719197269049</v>
       </c>
       <c r="C351" t="n">
-        <v>4.791277693598445</v>
+        <v>4.8420197931934</v>
       </c>
       <c r="D351" t="n">
-        <v>4.672059423470306</v>
+        <v>4.759861820003392</v>
       </c>
       <c r="E351" t="n">
-        <v>5.170251045483818</v>
+        <v>5.318818074457577</v>
       </c>
       <c r="F351" t="n">
-        <v>5.205142005296358</v>
+        <v>4.638009357703275</v>
       </c>
       <c r="G351" t="n">
-        <v>4.791277693598445</v>
+        <v>5.238715391622282</v>
       </c>
       <c r="H351" t="n">
-        <v>4.672059423470306</v>
+        <v>4.896547043789351</v>
       </c>
       <c r="I351" t="n">
-        <v>5.170251045483818</v>
+        <v>5.081079490852887</v>
       </c>
       <c r="J351" t="n">
-        <v>5.205142005296358</v>
+        <v>4.8773233572685</v>
       </c>
       <c r="K351" t="n">
-        <v>4.791277693598445</v>
+        <v>4.844717298213253</v>
       </c>
       <c r="L351" t="n">
-        <v>4.672059423470306</v>
+        <v>5.315566962012133</v>
       </c>
     </row>
     <row r="352">
@@ -13479,37 +13479,37 @@
         <v>352.0</v>
       </c>
       <c r="B353" t="n">
-        <v>3.482584165792905</v>
+        <v>3.4477583241349756</v>
       </c>
       <c r="C353" t="n">
-        <v>3.2056815765380184</v>
+        <v>3.175162731452086</v>
       </c>
       <c r="D353" t="n">
-        <v>3.1259166711043123</v>
+        <v>3.121287500514108</v>
       </c>
       <c r="E353" t="n">
-        <v>3.459239806686308</v>
+        <v>3.4878240169797867</v>
       </c>
       <c r="F353" t="n">
-        <v>3.482584165792905</v>
+        <v>3.041382540692407</v>
       </c>
       <c r="G353" t="n">
-        <v>3.2056815765380184</v>
+        <v>3.435296546194664</v>
       </c>
       <c r="H353" t="n">
-        <v>3.1259166711043123</v>
+        <v>3.2109190689590474</v>
       </c>
       <c r="I353" t="n">
-        <v>3.459239806686308</v>
+        <v>3.3319265356124146</v>
       </c>
       <c r="J353" t="n">
-        <v>3.482584165792905</v>
+        <v>3.1983131037608197</v>
       </c>
       <c r="K353" t="n">
-        <v>3.2056815765380184</v>
+        <v>3.176931624966107</v>
       </c>
       <c r="L353" t="n">
-        <v>3.1259166711043123</v>
+        <v>3.4856920944529426</v>
       </c>
     </row>
     <row r="354">
@@ -13593,37 +13593,37 @@
         <v>355.0</v>
       </c>
       <c r="B356" t="n">
-        <v>2.195360528582549</v>
+        <v>2.2175358874571196</v>
       </c>
       <c r="C356" t="n">
-        <v>2.5327784526964288</v>
+        <v>2.5430457442642864</v>
       </c>
       <c r="D356" t="n">
-        <v>2.4620918465918935</v>
+        <v>2.513833006126132</v>
       </c>
       <c r="E356" t="n">
-        <v>2.2531976740714956</v>
+        <v>2.31636757168861</v>
       </c>
       <c r="F356" t="n">
-        <v>2.195360528582549</v>
+        <v>2.504746862099714</v>
       </c>
       <c r="G356" t="n">
-        <v>2.5327784526964288</v>
+        <v>2.3411485309296416</v>
       </c>
       <c r="H356" t="n">
-        <v>2.4620918465918935</v>
+        <v>2.3319572569451656</v>
       </c>
       <c r="I356" t="n">
-        <v>2.2531976740714956</v>
+        <v>2.54149131477398</v>
       </c>
       <c r="J356" t="n">
-        <v>2.195360528582549</v>
+        <v>2.225845712361244</v>
       </c>
       <c r="K356" t="n">
-        <v>2.5327784526964288</v>
+        <v>2.2757962718775886</v>
       </c>
       <c r="L356" t="n">
-        <v>2.4620918465918935</v>
+        <v>2.3150778342761176</v>
       </c>
     </row>
     <row r="357">
@@ -13631,37 +13631,37 @@
         <v>356.0</v>
       </c>
       <c r="B357" t="n">
-        <v>0.25678223812333095</v>
+        <v>0.259485209050945</v>
       </c>
       <c r="C357" t="n">
-        <v>0.29624861670162855</v>
+        <v>0.2975747812285606</v>
       </c>
       <c r="D357" t="n">
-        <v>0.2879806968385598</v>
+        <v>0.2941564494190935</v>
       </c>
       <c r="E357" t="n">
-        <v>0.2635472097405011</v>
+        <v>0.2710500095976785</v>
       </c>
       <c r="F357" t="n">
-        <v>0.25678223812333095</v>
+        <v>0.29309323326304487</v>
       </c>
       <c r="G357" t="n">
-        <v>0.29624861670162855</v>
+        <v>0.27394975630550555</v>
       </c>
       <c r="H357" t="n">
-        <v>0.2879806968385598</v>
+        <v>0.2728742383556963</v>
       </c>
       <c r="I357" t="n">
-        <v>0.2635472097405011</v>
+        <v>0.2973928894884862</v>
       </c>
       <c r="J357" t="n">
-        <v>0.25678223812333095</v>
+        <v>0.2604575841383651</v>
       </c>
       <c r="K357" t="n">
-        <v>0.29624861670162855</v>
+        <v>0.26630255442796597</v>
       </c>
       <c r="L357" t="n">
-        <v>0.2879806968385598</v>
+        <v>0.2708990908305937</v>
       </c>
     </row>
     <row r="358">
@@ -13821,37 +13821,37 @@
         <v>361.0</v>
       </c>
       <c r="B362" t="n">
-        <v>1.6994216046483819</v>
+        <v>1.7167626414305082</v>
       </c>
       <c r="C362" t="n">
-        <v>1.9606157468264624</v>
+        <v>1.96876449842176</v>
       </c>
       <c r="D362" t="n">
-        <v>1.9058974698011952</v>
+        <v>1.9461487032172076</v>
       </c>
       <c r="E362" t="n">
-        <v>1.7441931550681984</v>
+        <v>1.7932757406042235</v>
       </c>
       <c r="F362" t="n">
-        <v>1.6994216046483819</v>
+        <v>1.939114430307605</v>
       </c>
       <c r="G362" t="n">
-        <v>1.9606157468264624</v>
+        <v>1.8124605597922456</v>
       </c>
       <c r="H362" t="n">
-        <v>1.9058974698011952</v>
+        <v>1.8053448978122293</v>
       </c>
       <c r="I362" t="n">
-        <v>1.7441931550681984</v>
+        <v>1.9675610967123267</v>
       </c>
       <c r="J362" t="n">
-        <v>1.6994216046483819</v>
+        <v>1.7231959068549465</v>
       </c>
       <c r="K362" t="n">
-        <v>1.9606157468264624</v>
+        <v>1.761866421718427</v>
       </c>
       <c r="L362" t="n">
-        <v>1.9058974698011952</v>
+        <v>1.792277257098479</v>
       </c>
     </row>
     <row r="363">
@@ -13897,37 +13897,37 @@
         <v>363.0</v>
       </c>
       <c r="B364" t="n">
-        <v>2.660183335139287</v>
+        <v>2.68678516849068</v>
       </c>
       <c r="C364" t="n">
-        <v>3.0171788033092404</v>
+        <v>3.067796268385014</v>
       </c>
       <c r="D364" t="n">
-        <v>2.979106997460763</v>
+        <v>3.0528678204783373</v>
       </c>
       <c r="E364" t="n">
-        <v>2.7931479609242937</v>
+        <v>2.814870831665994</v>
       </c>
       <c r="F364" t="n">
-        <v>2.660183335139287</v>
+        <v>2.92477546164888</v>
       </c>
       <c r="G364" t="n">
-        <v>3.0171788033092404</v>
+        <v>3.0362460328869263</v>
       </c>
       <c r="H364" t="n">
-        <v>2.979106997460763</v>
+        <v>2.7410784779743</v>
       </c>
       <c r="I364" t="n">
-        <v>2.7931479609242937</v>
+        <v>3.1000090750741474</v>
       </c>
       <c r="J364" t="n">
-        <v>2.660183335139287</v>
+        <v>3.0436110956174063</v>
       </c>
       <c r="K364" t="n">
-        <v>3.0171788033092404</v>
+        <v>3.1506055835488826</v>
       </c>
       <c r="L364" t="n">
-        <v>2.979106997460763</v>
+        <v>3.034410336445579</v>
       </c>
     </row>
     <row r="365">
@@ -13973,37 +13973,37 @@
         <v>365.0</v>
       </c>
       <c r="B366" t="n">
-        <v>9.045164142076707</v>
+        <v>8.957347014483728</v>
       </c>
       <c r="C366" t="n">
-        <v>9.500370471250816</v>
+        <v>9.334084144504235</v>
       </c>
       <c r="D366" t="n">
-        <v>9.340910536497473</v>
+        <v>9.184185321881907</v>
       </c>
       <c r="E366" t="n">
-        <v>8.308887544459413</v>
+        <v>8.120806137619399</v>
       </c>
       <c r="F366" t="n">
-        <v>9.045164142076707</v>
+        <v>8.339425707830225</v>
       </c>
       <c r="G366" t="n">
-        <v>9.500370471250816</v>
+        <v>9.155908888906886</v>
       </c>
       <c r="H366" t="n">
-        <v>9.340910536497473</v>
+        <v>8.989840415832866</v>
       </c>
       <c r="I366" t="n">
-        <v>8.308887544459413</v>
+        <v>9.04452314411761</v>
       </c>
       <c r="J366" t="n">
-        <v>9.045164142076707</v>
+        <v>8.665032654471677</v>
       </c>
       <c r="K366" t="n">
-        <v>9.500370471250816</v>
+        <v>7.93023788614444</v>
       </c>
       <c r="L366" t="n">
-        <v>9.340910536497473</v>
+        <v>9.017098877111417</v>
       </c>
     </row>
     <row r="367">
@@ -14546,34 +14546,34 @@
         <v>1.8929786440409446</v>
       </c>
       <c r="C381" t="n">
-        <v>2.0565900297375688</v>
+        <v>2.055593868144322</v>
       </c>
       <c r="D381" t="n">
-        <v>1.856677831188317</v>
+        <v>1.8557600571218862</v>
       </c>
       <c r="E381" t="n">
-        <v>2.0673807467668848</v>
+        <v>2.06058014976422</v>
       </c>
       <c r="F381" t="n">
-        <v>1.8929786440409446</v>
+        <v>2.0769539522501264</v>
       </c>
       <c r="G381" t="n">
-        <v>2.0565900297375688</v>
+        <v>2.13301736695115</v>
       </c>
       <c r="H381" t="n">
-        <v>1.856677831188317</v>
+        <v>2.098762609120709</v>
       </c>
       <c r="I381" t="n">
-        <v>2.0673807467668848</v>
+        <v>1.8122115542701165</v>
       </c>
       <c r="J381" t="n">
-        <v>1.8929786440409446</v>
+        <v>2.0923009015040424</v>
       </c>
       <c r="K381" t="n">
-        <v>2.0565900297375688</v>
+        <v>2.0668471211022235</v>
       </c>
       <c r="L381" t="n">
-        <v>1.856677831188317</v>
+        <v>1.9801262610289647</v>
       </c>
     </row>
     <row r="382">
@@ -14581,37 +14581,37 @@
         <v>381.0</v>
       </c>
       <c r="B382" t="n">
-        <v>2.0476519939797724</v>
+        <v>2.06812851391957</v>
       </c>
       <c r="C382" t="n">
-        <v>2.224631898752665</v>
+        <v>2.245789885232084</v>
       </c>
       <c r="D382" t="n">
-        <v>2.0083850788168554</v>
+        <v>2.0274662375133325</v>
       </c>
       <c r="E382" t="n">
-        <v>2.2363043142398165</v>
+        <v>2.2512375278819396</v>
       </c>
       <c r="F382" t="n">
-        <v>2.0476519939797724</v>
+        <v>2.2691263339226153</v>
       </c>
       <c r="G382" t="n">
-        <v>2.224631898752665</v>
+        <v>2.3303770759190354</v>
       </c>
       <c r="H382" t="n">
-        <v>2.0083850788168554</v>
+        <v>2.2929528600518583</v>
       </c>
       <c r="I382" t="n">
-        <v>2.2363043142398165</v>
+        <v>1.9798883629452426</v>
       </c>
       <c r="J382" t="n">
-        <v>2.0476519939797724</v>
+        <v>2.2858932760397996</v>
       </c>
       <c r="K382" t="n">
-        <v>2.224631898752665</v>
+        <v>2.258084357433262</v>
       </c>
       <c r="L382" t="n">
-        <v>2.0083850788168554</v>
+        <v>2.163339557203357</v>
       </c>
     </row>
     <row r="383">
@@ -14771,37 +14771,37 @@
         <v>386.0</v>
       </c>
       <c r="B387" t="n">
-        <v>1.8657852075310366</v>
+        <v>1.8471273554557261</v>
       </c>
       <c r="C387" t="n">
-        <v>2.027046246675551</v>
+        <v>2.005803751410046</v>
       </c>
       <c r="D387" t="n">
-        <v>1.8300058711634573</v>
+        <v>1.8108102684954401</v>
       </c>
       <c r="E387" t="n">
-        <v>2.037681950504186</v>
+        <v>2.0106692564758917</v>
       </c>
       <c r="F387" t="n">
-        <v>1.8657852075310366</v>
+        <v>2.0266464565250075</v>
       </c>
       <c r="G387" t="n">
-        <v>2.027046246675551</v>
+        <v>2.0813519162302785</v>
       </c>
       <c r="H387" t="n">
-        <v>1.8300058711634573</v>
+        <v>2.0479268691795363</v>
       </c>
       <c r="I387" t="n">
-        <v>2.037681950504186</v>
+        <v>1.768316587354415</v>
       </c>
       <c r="J387" t="n">
-        <v>1.8657852075310366</v>
+        <v>2.041621675542368</v>
       </c>
       <c r="K387" t="n">
-        <v>2.027046246675551</v>
+        <v>2.016784430691261</v>
       </c>
       <c r="L387" t="n">
-        <v>1.8300058711634573</v>
+        <v>1.9321641031274914</v>
       </c>
     </row>
     <row r="388">
@@ -14850,34 +14850,34 @@
         <v>0.27880885206159983</v>
       </c>
       <c r="C389" t="n">
-        <v>0.3029064839994363</v>
+        <v>0.30275976355377504</v>
       </c>
       <c r="D389" t="n">
-        <v>0.2734622582200873</v>
+        <v>0.2733270831431159</v>
       </c>
       <c r="E389" t="n">
-        <v>0.30449580326478354</v>
+        <v>0.303494171973477</v>
       </c>
       <c r="F389" t="n">
-        <v>0.27880885206159983</v>
+        <v>0.3059058003821491</v>
       </c>
       <c r="G389" t="n">
-        <v>0.3029064839994363</v>
+        <v>0.3141631446182565</v>
       </c>
       <c r="H389" t="n">
-        <v>0.2734622582200873</v>
+        <v>0.3091179056038502</v>
       </c>
       <c r="I389" t="n">
-        <v>0.30449580326478354</v>
+        <v>0.26691300756581077</v>
       </c>
       <c r="J389" t="n">
-        <v>0.27880885206159983</v>
+        <v>0.3081661879029496</v>
       </c>
       <c r="K389" t="n">
-        <v>0.3029064839994363</v>
+        <v>0.30441720778803943</v>
       </c>
       <c r="L389" t="n">
-        <v>0.2734622582200873</v>
+        <v>0.29164445753914814</v>
       </c>
     </row>
     <row r="390">
@@ -15037,37 +15037,37 @@
         <v>393.0</v>
       </c>
       <c r="B394" t="n">
-        <v>1.2370680266661866</v>
+        <v>1.2498213052916114</v>
       </c>
       <c r="C394" t="n">
-        <v>1.2993246299198329</v>
+        <v>1.3023875496084487</v>
       </c>
       <c r="D394" t="n">
-        <v>1.277515983474159</v>
+        <v>1.2814721220997702</v>
       </c>
       <c r="E394" t="n">
-        <v>1.1363706569570062</v>
+        <v>1.1330985067931516</v>
       </c>
       <c r="F394" t="n">
-        <v>1.2370680266661866</v>
+        <v>1.163602560745887</v>
       </c>
       <c r="G394" t="n">
-        <v>1.2993246299198329</v>
+        <v>1.277526702958066</v>
       </c>
       <c r="H394" t="n">
-        <v>1.277515983474159</v>
+        <v>1.2543551192905418</v>
       </c>
       <c r="I394" t="n">
-        <v>1.1363706569570062</v>
+        <v>1.2619850167067341</v>
       </c>
       <c r="J394" t="n">
-        <v>1.2370680266661866</v>
+        <v>1.209034595298686</v>
       </c>
       <c r="K394" t="n">
-        <v>1.2993246299198329</v>
+        <v>1.1065084617250696</v>
       </c>
       <c r="L394" t="n">
-        <v>1.277515983474159</v>
+        <v>1.2581585005372784</v>
       </c>
     </row>
     <row r="395">
@@ -15075,37 +15075,37 @@
         <v>394.0</v>
       </c>
       <c r="B395" t="n">
-        <v>6.36025873215625</v>
+        <v>6.487463906799376</v>
       </c>
       <c r="C395" t="n">
-        <v>6.853732875885133</v>
+        <v>7.01464412044288</v>
       </c>
       <c r="D395" t="n">
-        <v>6.9194958689756945</v>
+        <v>6.997669778992541</v>
       </c>
       <c r="E395" t="n">
-        <v>6.891743476409304</v>
+        <v>7.070383955338502</v>
       </c>
       <c r="F395" t="n">
-        <v>6.36025873215625</v>
+        <v>6.513033868707641</v>
       </c>
       <c r="G395" t="n">
-        <v>6.853732875885133</v>
+        <v>7.144625166829109</v>
       </c>
       <c r="H395" t="n">
-        <v>6.9194958689756945</v>
+        <v>7.122628167903121</v>
       </c>
       <c r="I395" t="n">
-        <v>6.891743476409304</v>
+        <v>6.99343902912185</v>
       </c>
       <c r="J395" t="n">
-        <v>6.36025873215625</v>
+        <v>7.261235498943582</v>
       </c>
       <c r="K395" t="n">
-        <v>6.853732875885133</v>
+        <v>6.740762321839656</v>
       </c>
       <c r="L395" t="n">
-        <v>6.9194958689756945</v>
+        <v>7.035978196505944</v>
       </c>
     </row>
     <row r="396">
@@ -15151,37 +15151,37 @@
         <v>396.0</v>
       </c>
       <c r="B397" t="n">
-        <v>4.7379315459345674</v>
+        <v>4.691021332608482</v>
       </c>
       <c r="C397" t="n">
-        <v>5.105533999095066</v>
+        <v>5.07222015912355</v>
       </c>
       <c r="D397" t="n">
-        <v>5.154522660192068</v>
+        <v>5.059946179800587</v>
       </c>
       <c r="E397" t="n">
-        <v>5.133849140174607</v>
+        <v>5.112525085413372</v>
       </c>
       <c r="F397" t="n">
-        <v>4.7379315459345674</v>
+        <v>4.709510720527842</v>
       </c>
       <c r="G397" t="n">
-        <v>5.105533999095066</v>
+        <v>5.166208175117521</v>
       </c>
       <c r="H397" t="n">
-        <v>5.154522660192068</v>
+        <v>5.15030236158274</v>
       </c>
       <c r="I397" t="n">
-        <v>5.133849140174607</v>
+        <v>5.056886966187769</v>
       </c>
       <c r="J397" t="n">
-        <v>4.7379315459345674</v>
+        <v>5.250527959151808</v>
       </c>
       <c r="K397" t="n">
-        <v>5.105533999095066</v>
+        <v>4.874178924780135</v>
       </c>
       <c r="L397" t="n">
-        <v>5.154522660192068</v>
+        <v>5.087646619657447</v>
       </c>
     </row>
     <row r="398">
@@ -15189,37 +15189,37 @@
         <v>397.0</v>
       </c>
       <c r="B398" t="n">
-        <v>6.56093754863044</v>
+        <v>6.693481741532065</v>
       </c>
       <c r="C398" t="n">
-        <v>7.069981783340599</v>
+        <v>7.237403246948295</v>
       </c>
       <c r="D398" t="n">
-        <v>7.137819729695953</v>
+        <v>7.219889863258669</v>
       </c>
       <c r="E398" t="n">
-        <v>7.109191693931843</v>
+        <v>7.294913172631091</v>
       </c>
       <c r="F398" t="n">
-        <v>6.56093754863044</v>
+        <v>6.719863710761253</v>
       </c>
       <c r="G398" t="n">
-        <v>7.069981783340599</v>
+        <v>7.371512010130715</v>
       </c>
       <c r="H398" t="n">
-        <v>7.137819729695953</v>
+        <v>7.3488164679597165</v>
       </c>
       <c r="I398" t="n">
-        <v>7.109191693931843</v>
+        <v>7.215524760435858</v>
       </c>
       <c r="J398" t="n">
-        <v>6.56093754863044</v>
+        <v>7.491825454659348</v>
       </c>
       <c r="K398" t="n">
-        <v>7.069981783340599</v>
+        <v>6.954823976431309</v>
       </c>
       <c r="L398" t="n">
-        <v>7.137819729695953</v>
+        <v>7.259414814280625</v>
       </c>
     </row>
     <row r="399">
@@ -15265,37 +15265,37 @@
         <v>399.0</v>
       </c>
       <c r="B400" t="n">
-        <v>5.453750397544078</v>
+        <v>5.508287901519519</v>
       </c>
       <c r="C400" t="n">
-        <v>5.876891172294718</v>
+        <v>5.95589893018197</v>
       </c>
       <c r="D400" t="n">
-        <v>5.933281165975013</v>
+        <v>5.9414865864694795</v>
       </c>
       <c r="E400" t="n">
-        <v>5.909484237522004</v>
+        <v>6.0032257535137274</v>
       </c>
       <c r="F400" t="n">
-        <v>5.453750397544078</v>
+        <v>5.529998498117057</v>
       </c>
       <c r="G400" t="n">
-        <v>5.876891172294718</v>
+        <v>6.066261474856124</v>
       </c>
       <c r="H400" t="n">
-        <v>5.933281165975013</v>
+        <v>6.047584561227863</v>
       </c>
       <c r="I400" t="n">
-        <v>5.909484237522004</v>
+        <v>5.9378943987268</v>
       </c>
       <c r="J400" t="n">
-        <v>5.453750397544078</v>
+        <v>6.165271394727141</v>
       </c>
       <c r="K400" t="n">
-        <v>5.876891172294718</v>
+        <v>5.723355085720439</v>
       </c>
       <c r="L400" t="n">
-        <v>5.933281165975013</v>
+        <v>5.974012978253221</v>
       </c>
     </row>
     <row r="401">
@@ -15382,34 +15382,34 @@
         <v>3.2376680858063134</v>
       </c>
       <c r="C403" t="n">
-        <v>3.4888694210985256</v>
+        <v>3.5007654344317496</v>
       </c>
       <c r="D403" t="n">
-        <v>3.522345849168965</v>
+        <v>3.4922941297153187</v>
       </c>
       <c r="E403" t="n">
-        <v>3.508218588077731</v>
+        <v>3.528583251554481</v>
       </c>
       <c r="F403" t="n">
-        <v>3.2376680858063134</v>
+        <v>3.250429166378786</v>
       </c>
       <c r="G403" t="n">
-        <v>3.4888694210985256</v>
+        <v>3.5656344636379598</v>
       </c>
       <c r="H403" t="n">
-        <v>3.522345849168965</v>
+        <v>3.5546565248888062</v>
       </c>
       <c r="I403" t="n">
-        <v>3.508218588077731</v>
+        <v>3.4901827092847544</v>
       </c>
       <c r="J403" t="n">
-        <v>3.2376680858063134</v>
+        <v>3.6238306333872212</v>
       </c>
       <c r="K403" t="n">
-        <v>3.4888694210985256</v>
+        <v>3.364080533928254</v>
       </c>
       <c r="L403" t="n">
-        <v>3.522345849168965</v>
+        <v>3.511412531387025</v>
       </c>
     </row>
     <row r="404">
@@ -15496,34 +15496,34 @@
         <v>2.501696331219592</v>
       </c>
       <c r="C406" t="n">
-        <v>2.4097830768524444</v>
+        <v>2.4171795646412995</v>
       </c>
       <c r="D406" t="n">
-        <v>2.584082293842158</v>
+        <v>2.6033419698046534</v>
       </c>
       <c r="E406" t="n">
-        <v>2.691403978657908</v>
+        <v>2.694859326069668</v>
       </c>
       <c r="F406" t="n">
-        <v>2.501696331219592</v>
+        <v>2.5970422894860636</v>
       </c>
       <c r="G406" t="n">
-        <v>2.4097830768524444</v>
+        <v>2.6256335827367425</v>
       </c>
       <c r="H406" t="n">
-        <v>2.584082293842158</v>
+        <v>2.3915938200897373</v>
       </c>
       <c r="I406" t="n">
-        <v>2.691403978657908</v>
+        <v>2.3902621972234206</v>
       </c>
       <c r="J406" t="n">
-        <v>2.501696331219592</v>
+        <v>2.6240286716646746</v>
       </c>
       <c r="K406" t="n">
-        <v>2.4097830768524444</v>
+        <v>2.2981321769565874</v>
       </c>
       <c r="L406" t="n">
-        <v>2.584082293842158</v>
+        <v>2.508273973837467</v>
       </c>
     </row>
     <row r="407">
@@ -15531,37 +15531,37 @@
         <v>406.0</v>
       </c>
       <c r="B407" t="n">
-        <v>8.640866123723862</v>
+        <v>9.077273503709916</v>
       </c>
       <c r="C407" t="n">
-        <v>8.323397486115429</v>
+        <v>8.77060886327917</v>
       </c>
       <c r="D407" t="n">
-        <v>8.92542746900459</v>
+        <v>9.446089354931175</v>
       </c>
       <c r="E407" t="n">
-        <v>9.296116868470309</v>
+        <v>9.778155266683546</v>
       </c>
       <c r="F407" t="n">
-        <v>8.640866123723862</v>
+        <v>9.423231296371405</v>
       </c>
       <c r="G407" t="n">
-        <v>8.323397486115429</v>
+        <v>9.526973299516394</v>
       </c>
       <c r="H407" t="n">
-        <v>8.92542746900459</v>
+        <v>8.677772335443132</v>
       </c>
       <c r="I407" t="n">
-        <v>9.296116868470309</v>
+        <v>8.67294061193996</v>
       </c>
       <c r="J407" t="n">
-        <v>8.640866123723862</v>
+        <v>9.521149964138518</v>
       </c>
       <c r="K407" t="n">
-        <v>8.323397486115429</v>
+        <v>8.338651681094111</v>
       </c>
       <c r="L407" t="n">
-        <v>8.92542746900459</v>
+        <v>9.101140133846837</v>
       </c>
     </row>
     <row r="408">
@@ -15645,37 +15645,37 @@
         <v>409.0</v>
       </c>
       <c r="B410" t="n">
-        <v>3.2067425826136033</v>
+        <v>3.1746751567874676</v>
       </c>
       <c r="C410" t="n">
-        <v>3.0889256665444815</v>
+        <v>3.0674226194432137</v>
       </c>
       <c r="D410" t="n">
-        <v>3.312347156300051</v>
+        <v>3.303664386849006</v>
       </c>
       <c r="E410" t="n">
-        <v>3.4499150187307097</v>
+        <v>3.4198007355031894</v>
       </c>
       <c r="F410" t="n">
-        <v>3.2067425826136033</v>
+        <v>3.2956700358346365</v>
       </c>
       <c r="G410" t="n">
-        <v>3.0889256665444815</v>
+        <v>3.3319526442594194</v>
       </c>
       <c r="H410" t="n">
-        <v>3.312347156300051</v>
+        <v>3.0349540793641885</v>
       </c>
       <c r="I410" t="n">
-        <v>3.4499150187307097</v>
+        <v>3.0332642379637154</v>
       </c>
       <c r="J410" t="n">
-        <v>3.2067425826136033</v>
+        <v>3.3299159976665598</v>
       </c>
       <c r="K410" t="n">
-        <v>3.0889256665444815</v>
+        <v>2.916350413177933</v>
       </c>
       <c r="L410" t="n">
-        <v>3.312347156300051</v>
+        <v>3.1830222444609797</v>
       </c>
     </row>
     <row r="411">
@@ -15683,37 +15683,37 @@
         <v>410.0</v>
       </c>
       <c r="B411" t="n">
-        <v>0.9604675610233586</v>
+        <v>0.9705777458762361</v>
       </c>
       <c r="C411" t="n">
-        <v>0.9251796253350582</v>
+        <v>0.9377879576950633</v>
       </c>
       <c r="D411" t="n">
-        <v>0.9920977167681534</v>
+        <v>1.0100129856952689</v>
       </c>
       <c r="E411" t="n">
-        <v>1.0333013575032577</v>
+        <v>1.0455187776028534</v>
       </c>
       <c r="F411" t="n">
-        <v>0.9604675610233586</v>
+        <v>1.007568912269148</v>
       </c>
       <c r="G411" t="n">
-        <v>0.9251796253350582</v>
+        <v>1.0186614148277628</v>
       </c>
       <c r="H411" t="n">
-        <v>0.9920977167681534</v>
+        <v>0.9278615114019938</v>
       </c>
       <c r="I411" t="n">
-        <v>1.0333013575032577</v>
+        <v>0.9273448845421236</v>
       </c>
       <c r="J411" t="n">
-        <v>0.9604675610233586</v>
+        <v>1.0180387609303971</v>
       </c>
       <c r="K411" t="n">
-        <v>0.9251796253350582</v>
+        <v>0.8916013986992505</v>
       </c>
       <c r="L411" t="n">
-        <v>0.9920977167681534</v>
+        <v>0.9731296597378694</v>
       </c>
     </row>
     <row r="412">
@@ -15797,37 +15797,37 @@
         <v>413.0</v>
       </c>
       <c r="B414" t="n">
-        <v>2.409977844310691</v>
+        <v>2.434569454966923</v>
       </c>
       <c r="C414" t="n">
-        <v>2.3214343612911787</v>
+        <v>2.3523204882253155</v>
       </c>
       <c r="D414" t="n">
-        <v>2.4893433300912133</v>
+        <v>2.533487682507816</v>
       </c>
       <c r="E414" t="n">
-        <v>2.5927303316998227</v>
+        <v>2.6225493953071113</v>
       </c>
       <c r="F414" t="n">
-        <v>2.409977844310691</v>
+        <v>2.5273570386369757</v>
       </c>
       <c r="G414" t="n">
-        <v>2.3214343612911787</v>
+        <v>2.5551811547606826</v>
       </c>
       <c r="H414" t="n">
-        <v>2.4893433300912133</v>
+        <v>2.3274212742837688</v>
       </c>
       <c r="I414" t="n">
-        <v>2.5927303316998227</v>
+        <v>2.326125382246269</v>
       </c>
       <c r="J414" t="n">
-        <v>2.409977844310691</v>
+        <v>2.5536193075351683</v>
       </c>
       <c r="K414" t="n">
-        <v>2.3214343612911787</v>
+        <v>2.236467444778787</v>
       </c>
       <c r="L414" t="n">
-        <v>2.4893433300912133</v>
+        <v>2.4409706027014924</v>
       </c>
     </row>
     <row r="415">
@@ -15873,37 +15873,37 @@
         <v>415.0</v>
       </c>
       <c r="B416" t="n">
-        <v>8.134635660043582</v>
+        <v>8.381139770953993</v>
       </c>
       <c r="C416" t="n">
-        <v>7.835766118095155</v>
+        <v>8.097993161654518</v>
       </c>
       <c r="D416" t="n">
-        <v>8.402525803652589</v>
+        <v>8.721671230930978</v>
       </c>
       <c r="E416" t="n">
-        <v>8.751498136346761</v>
+        <v>9.02827109469276</v>
       </c>
       <c r="F416" t="n">
-        <v>8.134635660043582</v>
+        <v>8.70056615090846</v>
       </c>
       <c r="G416" t="n">
-        <v>7.835766118095155</v>
+        <v>8.796352206944068</v>
       </c>
       <c r="H416" t="n">
-        <v>8.402525803652589</v>
+        <v>8.012276242876439</v>
       </c>
       <c r="I416" t="n">
-        <v>8.751498136346761</v>
+        <v>8.00781506298601</v>
       </c>
       <c r="J416" t="n">
-        <v>8.134635660043582</v>
+        <v>8.790975461634458</v>
       </c>
       <c r="K416" t="n">
-        <v>7.835766118095155</v>
+        <v>7.699162662884067</v>
       </c>
       <c r="L416" t="n">
-        <v>8.402525803652589</v>
+        <v>8.403176075462989</v>
       </c>
     </row>
     <row r="417">
@@ -16025,37 +16025,37 @@
         <v>419.0</v>
       </c>
       <c r="B420" t="n">
-        <v>0.5462505614114919</v>
+        <v>0.551940671426195</v>
       </c>
       <c r="C420" t="n">
-        <v>0.5553892635450436</v>
+        <v>0.5617802826141743</v>
       </c>
       <c r="D420" t="n">
-        <v>0.6075708924657485</v>
+        <v>0.6167557232171509</v>
       </c>
       <c r="E420" t="n">
-        <v>0.599881558079772</v>
+        <v>0.6074672332947437</v>
       </c>
       <c r="F420" t="n">
-        <v>0.5462505614114919</v>
+        <v>0.5398263421699915</v>
       </c>
       <c r="G420" t="n">
-        <v>0.5553892635450436</v>
+        <v>0.609670863073291</v>
       </c>
       <c r="H420" t="n">
-        <v>0.6075708924657485</v>
+        <v>0.5876431274248118</v>
       </c>
       <c r="I420" t="n">
-        <v>0.599881558079772</v>
+        <v>0.5507349027079039</v>
       </c>
       <c r="J420" t="n">
-        <v>0.5462505614114919</v>
+        <v>0.6100396894710575</v>
       </c>
       <c r="K420" t="n">
-        <v>0.5553892635450436</v>
+        <v>0.6115194709289403</v>
       </c>
       <c r="L420" t="n">
-        <v>0.6075708924657485</v>
+        <v>0.6228508997729568</v>
       </c>
     </row>
     <row r="421">
@@ -16139,37 +16139,37 @@
         <v>422.0</v>
       </c>
       <c r="B423" t="n">
-        <v>1.5412607847721422</v>
+        <v>1.4802207536920573</v>
       </c>
       <c r="C423" t="n">
-        <v>1.567045880874856</v>
+        <v>1.506609091139763</v>
       </c>
       <c r="D423" t="n">
-        <v>1.7142777631326933</v>
+        <v>1.654044843452813</v>
       </c>
       <c r="E423" t="n">
-        <v>1.692582097466955</v>
+        <v>1.6291345292371933</v>
       </c>
       <c r="F423" t="n">
-        <v>1.5412607847721422</v>
+        <v>1.4477319690990396</v>
       </c>
       <c r="G423" t="n">
-        <v>1.567045880874856</v>
+        <v>1.6350443284249045</v>
       </c>
       <c r="H423" t="n">
-        <v>1.7142777631326933</v>
+        <v>1.5759692988941605</v>
       </c>
       <c r="I423" t="n">
-        <v>1.692582097466955</v>
+        <v>1.4769870657734716</v>
       </c>
       <c r="J423" t="n">
-        <v>1.5412607847721422</v>
+        <v>1.6360334646070105</v>
       </c>
       <c r="K423" t="n">
-        <v>1.567045880874856</v>
+        <v>1.640002012928023</v>
       </c>
       <c r="L423" t="n">
-        <v>1.7142777631326933</v>
+        <v>1.6703911779456273</v>
       </c>
     </row>
     <row r="424">
@@ -16215,37 +16215,37 @@
         <v>424.0</v>
       </c>
       <c r="B425" t="n">
-        <v>4.7988304862372475</v>
+        <v>4.751317313106185</v>
       </c>
       <c r="C425" t="n">
-        <v>4.839036626418162</v>
+        <v>4.785959557947927</v>
       </c>
       <c r="D425" t="n">
-        <v>4.917822053017083</v>
+        <v>4.804823139364229</v>
       </c>
       <c r="E425" t="n">
-        <v>5.111729153226394</v>
+        <v>4.972823945617897</v>
       </c>
       <c r="F425" t="n">
-        <v>4.7988304862372475</v>
+        <v>5.35678963889988</v>
       </c>
       <c r="G425" t="n">
-        <v>4.839036626418162</v>
+        <v>4.660494752784839</v>
       </c>
       <c r="H425" t="n">
-        <v>4.917822053017083</v>
+        <v>4.551128475472524</v>
       </c>
       <c r="I425" t="n">
-        <v>5.111729153226394</v>
+        <v>5.1748731948475175</v>
       </c>
       <c r="J425" t="n">
-        <v>4.7988304862372475</v>
+        <v>5.270763367069091</v>
       </c>
       <c r="K425" t="n">
-        <v>4.839036626418162</v>
+        <v>5.162350811236414</v>
       </c>
       <c r="L425" t="n">
-        <v>4.917822053017083</v>
+        <v>5.25453564715135</v>
       </c>
     </row>
     <row r="426">
@@ -16329,37 +16329,37 @@
         <v>427.0</v>
       </c>
       <c r="B428" t="n">
-        <v>2.343133698672552</v>
+        <v>2.3665650356592773</v>
       </c>
       <c r="C428" t="n">
-        <v>2.382334026221735</v>
+        <v>2.4087544973305537</v>
       </c>
       <c r="D428" t="n">
-        <v>2.6061663511895894</v>
+        <v>2.6444735923100673</v>
       </c>
       <c r="E428" t="n">
-        <v>2.5731830651430037</v>
+        <v>2.604647182294581</v>
       </c>
       <c r="F428" t="n">
-        <v>2.343133698672552</v>
+        <v>2.314622228157676</v>
       </c>
       <c r="G428" t="n">
-        <v>2.382334026221735</v>
+        <v>2.6140957217036664</v>
       </c>
       <c r="H428" t="n">
-        <v>2.6061663511895894</v>
+        <v>2.5196470396275044</v>
       </c>
       <c r="I428" t="n">
-        <v>2.5731830651430037</v>
+        <v>2.3613950414234375</v>
       </c>
       <c r="J428" t="n">
-        <v>2.343133698672552</v>
+        <v>2.615677144676043</v>
       </c>
       <c r="K428" t="n">
-        <v>2.382334026221735</v>
+        <v>2.6220220278128368</v>
       </c>
       <c r="L428" t="n">
-        <v>2.6061663511895894</v>
+        <v>2.6706079804244047</v>
       </c>
     </row>
     <row r="429">
@@ -16367,37 +16367,37 @@
         <v>428.0</v>
       </c>
       <c r="B429" t="n">
-        <v>9.8648282766994</v>
+        <v>10.062124842233388</v>
       </c>
       <c r="C429" t="n">
-        <v>10.36128496861061</v>
+        <v>10.48532783178392</v>
       </c>
       <c r="D429" t="n">
-        <v>10.1873749268859</v>
+        <v>10.316940845716417</v>
       </c>
       <c r="E429" t="n">
-        <v>9.061830997096742</v>
+        <v>9.12240700780879</v>
       </c>
       <c r="F429" t="n">
-        <v>9.8648282766994</v>
+        <v>9.367990594652058</v>
       </c>
       <c r="G429" t="n">
-        <v>10.36128496861061</v>
+        <v>10.285176864905173</v>
       </c>
       <c r="H429" t="n">
-        <v>10.1873749268859</v>
+        <v>10.09862590224537</v>
       </c>
       <c r="I429" t="n">
-        <v>9.061830997096742</v>
+        <v>10.160053067881059</v>
       </c>
       <c r="J429" t="n">
-        <v>9.8648282766994</v>
+        <v>9.733757125892508</v>
       </c>
       <c r="K429" t="n">
-        <v>10.36128496861061</v>
+        <v>8.908334522483996</v>
       </c>
       <c r="L429" t="n">
-        <v>10.1873749268859</v>
+        <v>10.129246357157797</v>
       </c>
     </row>
     <row r="430">
@@ -17016,34 +17016,34 @@
         <v>3.1674558918023363</v>
       </c>
       <c r="C446" t="n">
-        <v>2.7704991695727625</v>
+        <v>2.762021535731845</v>
       </c>
       <c r="D446" t="n">
-        <v>2.8470156199705627</v>
+        <v>2.88511999010367</v>
       </c>
       <c r="E446" t="n">
-        <v>3.012184444006262</v>
+        <v>3.0258781076394117</v>
       </c>
       <c r="F446" t="n">
-        <v>3.1674558918023363</v>
+        <v>2.834586961779527</v>
       </c>
       <c r="G446" t="n">
-        <v>2.7704991695727625</v>
+        <v>3.017943111301331</v>
       </c>
       <c r="H446" t="n">
-        <v>2.8470156199705627</v>
+        <v>3.132964536703687</v>
       </c>
       <c r="I446" t="n">
-        <v>3.012184444006262</v>
+        <v>3.2509669689099514</v>
       </c>
       <c r="J446" t="n">
-        <v>3.1674558918023363</v>
+        <v>3.150115805242685</v>
       </c>
       <c r="K446" t="n">
-        <v>2.7704991695727625</v>
+        <v>3.1889103320019676</v>
       </c>
       <c r="L446" t="n">
-        <v>2.8470156199705627</v>
+        <v>2.8283945275837326</v>
       </c>
     </row>
     <row r="447">
@@ -17054,34 +17054,34 @@
         <v>2.34048423199187</v>
       </c>
       <c r="C447" t="n">
-        <v>2.0471665092207294</v>
+        <v>2.040902248878345</v>
       </c>
       <c r="D447" t="n">
-        <v>2.1037057482066706</v>
+        <v>2.1318616817106957</v>
       </c>
       <c r="E447" t="n">
-        <v>2.2257516555459596</v>
+        <v>2.2358701244075263</v>
       </c>
       <c r="F447" t="n">
-        <v>2.34048423199187</v>
+        <v>2.0945220122638206</v>
       </c>
       <c r="G447" t="n">
-        <v>2.0471665092207294</v>
+        <v>2.230006827665729</v>
       </c>
       <c r="H447" t="n">
-        <v>2.1037057482066706</v>
+        <v>2.3149980135547485</v>
       </c>
       <c r="I447" t="n">
-        <v>2.2257516555459596</v>
+        <v>2.4021919134383234</v>
       </c>
       <c r="J447" t="n">
-        <v>2.34048423199187</v>
+        <v>2.3276713624332843</v>
       </c>
       <c r="K447" t="n">
-        <v>2.0471665092207294</v>
+        <v>2.356337263796798</v>
       </c>
       <c r="L447" t="n">
-        <v>2.1037057482066706</v>
+        <v>2.0899463227868456</v>
       </c>
     </row>
     <row r="448">
@@ -17130,34 +17130,34 @@
         <v>3.1632958665286517</v>
       </c>
       <c r="C449" t="n">
-        <v>2.766860493310222</v>
+        <v>2.758393993695713</v>
       </c>
       <c r="D449" t="n">
-        <v>2.843276449690621</v>
+        <v>2.8813307748828656</v>
       </c>
       <c r="E449" t="n">
-        <v>3.0082283467963538</v>
+        <v>3.021904025652841</v>
       </c>
       <c r="F449" t="n">
-        <v>3.1632958665286517</v>
+        <v>2.830864114862549</v>
       </c>
       <c r="G449" t="n">
-        <v>2.766860493310222</v>
+        <v>3.0139794508601394</v>
       </c>
       <c r="H449" t="n">
-        <v>2.843276449690621</v>
+        <v>3.128849811163869</v>
       </c>
       <c r="I449" t="n">
-        <v>3.0082283467963538</v>
+        <v>3.2466972631219146</v>
       </c>
       <c r="J449" t="n">
-        <v>3.1632958665286517</v>
+        <v>3.1459785538294107</v>
       </c>
       <c r="K449" t="n">
-        <v>2.766860493310222</v>
+        <v>3.184722129220367</v>
       </c>
       <c r="L449" t="n">
-        <v>2.843276449690621</v>
+        <v>2.8246798135922444</v>
       </c>
     </row>
     <row r="450">
@@ -17168,34 +17168,34 @@
         <v>2.8862427317216133</v>
       </c>
       <c r="C450" t="n">
-        <v>2.5245286326213376</v>
+        <v>2.516803660311897</v>
       </c>
       <c r="D450" t="n">
-        <v>2.5942517973193384</v>
+        <v>2.6289731841674224</v>
       </c>
       <c r="E450" t="n">
-        <v>2.744756598069313</v>
+        <v>2.7572345104639604</v>
       </c>
       <c r="F450" t="n">
-        <v>2.8862427317216133</v>
+        <v>2.5829265806172623</v>
       </c>
       <c r="G450" t="n">
-        <v>2.5245286326213376</v>
+        <v>2.750003999198974</v>
       </c>
       <c r="H450" t="n">
-        <v>2.5942517973193384</v>
+        <v>2.8548135891032893</v>
       </c>
       <c r="I450" t="n">
-        <v>2.744756598069313</v>
+        <v>2.962339525979716</v>
       </c>
       <c r="J450" t="n">
-        <v>2.8862427317216133</v>
+        <v>2.8704421332255947</v>
       </c>
       <c r="K450" t="n">
-        <v>2.5245286326213376</v>
+        <v>2.9057924031944196</v>
       </c>
       <c r="L450" t="n">
-        <v>2.5942517973193384</v>
+        <v>2.577283923292331</v>
       </c>
     </row>
     <row r="451">
@@ -17241,37 +17241,37 @@
         <v>451.0</v>
       </c>
       <c r="B452" t="n">
-        <v>5.714748724746102</v>
+        <v>5.829043699241025</v>
       </c>
       <c r="C452" t="n">
-        <v>4.998556297880127</v>
+        <v>5.082926102205194</v>
       </c>
       <c r="D452" t="n">
-        <v>5.136607876898046</v>
+        <v>5.309463201490293</v>
       </c>
       <c r="E452" t="n">
-        <v>5.434606762681656</v>
+        <v>5.568499237402342</v>
       </c>
       <c r="F452" t="n">
-        <v>5.714748724746102</v>
+        <v>5.2164676743485385</v>
       </c>
       <c r="G452" t="n">
-        <v>4.998556297880127</v>
+        <v>5.553896527218533</v>
       </c>
       <c r="H452" t="n">
-        <v>5.136607876898046</v>
+        <v>5.765569534806278</v>
       </c>
       <c r="I452" t="n">
-        <v>5.434606762681656</v>
+        <v>5.982728465330689</v>
       </c>
       <c r="J452" t="n">
-        <v>5.714748724746102</v>
+        <v>5.797132876878376</v>
       </c>
       <c r="K452" t="n">
-        <v>4.998556297880127</v>
+        <v>5.868526133642105</v>
       </c>
       <c r="L452" t="n">
-        <v>5.136607876898046</v>
+        <v>5.205071787313338</v>
       </c>
     </row>
     <row r="453">
@@ -17279,37 +17279,37 @@
         <v>452.0</v>
       </c>
       <c r="B453" t="n">
-        <v>3.0533994309902566</v>
+        <v>3.115084267979958</v>
       </c>
       <c r="C453" t="n">
-        <v>2.6707366659236684</v>
+        <v>2.7163534797904734</v>
       </c>
       <c r="D453" t="n">
-        <v>2.7444978465325938</v>
+        <v>2.837416589025477</v>
       </c>
       <c r="E453" t="n">
-        <v>2.9037191302869076</v>
+        <v>2.975847371490632</v>
       </c>
       <c r="F453" t="n">
-        <v>3.0533994309902566</v>
+        <v>2.787719088279428</v>
       </c>
       <c r="G453" t="n">
-        <v>2.6707366659236684</v>
+        <v>2.9680435746569627</v>
       </c>
       <c r="H453" t="n">
-        <v>2.7444978465325938</v>
+        <v>3.0811632028351563</v>
       </c>
       <c r="I453" t="n">
-        <v>2.9037191302869076</v>
+        <v>3.19721454899611</v>
       </c>
       <c r="J453" t="n">
-        <v>3.0533994309902566</v>
+        <v>3.0980308873828744</v>
       </c>
       <c r="K453" t="n">
-        <v>2.6707366659236684</v>
+        <v>3.136183974314356</v>
       </c>
       <c r="L453" t="n">
-        <v>2.7444978465325938</v>
+        <v>2.7816290415659934</v>
       </c>
     </row>
     <row r="454">
@@ -17393,37 +17393,37 @@
         <v>455.0</v>
       </c>
       <c r="B456" t="n">
-        <v>6.662671775605934</v>
+        <v>6.597351464080385</v>
       </c>
       <c r="C456" t="n">
-        <v>6.337137269400085</v>
+        <v>6.240789964471166</v>
       </c>
       <c r="D456" t="n">
-        <v>6.593070288447631</v>
+        <v>6.434404834959422</v>
       </c>
       <c r="E456" t="n">
-        <v>6.608813844848764</v>
+        <v>6.457746087498495</v>
       </c>
       <c r="F456" t="n">
-        <v>6.662671775605934</v>
+        <v>6.577039421155656</v>
       </c>
       <c r="G456" t="n">
-        <v>6.337137269400085</v>
+        <v>6.528797081746004</v>
       </c>
       <c r="H456" t="n">
-        <v>6.593070288447631</v>
+        <v>6.532790231225248</v>
       </c>
       <c r="I456" t="n">
-        <v>6.608813844848764</v>
+        <v>5.71794005621983</v>
       </c>
       <c r="J456" t="n">
-        <v>6.662671775605934</v>
+        <v>6.014139654074208</v>
       </c>
       <c r="K456" t="n">
-        <v>6.337137269400085</v>
+        <v>5.947167051318826</v>
       </c>
       <c r="L456" t="n">
-        <v>6.593070288447631</v>
+        <v>5.846257263249473</v>
       </c>
     </row>
     <row r="457">
@@ -17469,37 +17469,37 @@
         <v>457.0</v>
       </c>
       <c r="B458" t="n">
-        <v>1.0051026670322576</v>
+        <v>1.015358816695852</v>
       </c>
       <c r="C458" t="n">
-        <v>0.9559938993459234</v>
+        <v>0.960482573662015</v>
       </c>
       <c r="D458" t="n">
-        <v>0.9946028791501119</v>
+        <v>0.9902806777745535</v>
       </c>
       <c r="E458" t="n">
-        <v>0.9969778859132077</v>
+        <v>0.9938729900361188</v>
       </c>
       <c r="F458" t="n">
-        <v>1.0051026670322576</v>
+        <v>1.0122327119277468</v>
       </c>
       <c r="G458" t="n">
-        <v>0.9559938993459234</v>
+        <v>1.0048080226529192</v>
       </c>
       <c r="H458" t="n">
-        <v>0.9946028791501119</v>
+        <v>1.0054225843527484</v>
       </c>
       <c r="I458" t="n">
-        <v>0.9969778859132077</v>
+        <v>0.8800138784527306</v>
       </c>
       <c r="J458" t="n">
-        <v>1.0051026670322576</v>
+        <v>0.9256001830206546</v>
       </c>
       <c r="K458" t="n">
-        <v>0.9559938993459234</v>
+        <v>0.9152928311909118</v>
       </c>
       <c r="L458" t="n">
-        <v>0.9946028791501119</v>
+        <v>0.8997624106024417</v>
       </c>
     </row>
     <row r="459">
@@ -17548,34 +17548,34 @@
         <v>2.6534268096283347</v>
       </c>
       <c r="C460" t="n">
-        <v>2.6683033819833697</v>
+        <v>2.6592361727676477</v>
       </c>
       <c r="D460" t="n">
-        <v>2.610472152377581</v>
+        <v>2.5911597269079136</v>
       </c>
       <c r="E460" t="n">
-        <v>2.696237652739903</v>
+        <v>2.7051361300458168</v>
       </c>
       <c r="F460" t="n">
-        <v>2.6534268096283347</v>
+        <v>2.9715134503542955</v>
       </c>
       <c r="G460" t="n">
-        <v>2.6683033819833697</v>
+        <v>2.8386938297242814</v>
       </c>
       <c r="H460" t="n">
-        <v>2.610472152377581</v>
+        <v>2.9696971211952574</v>
       </c>
       <c r="I460" t="n">
-        <v>2.696237652739903</v>
+        <v>2.706643170207123</v>
       </c>
       <c r="J460" t="n">
-        <v>2.6534268096283347</v>
+        <v>2.9267617412109406</v>
       </c>
       <c r="K460" t="n">
-        <v>2.6683033819833697</v>
+        <v>2.7248594997918856</v>
       </c>
       <c r="L460" t="n">
-        <v>2.610472152377581</v>
+        <v>2.6008696413002856</v>
       </c>
     </row>
     <row r="461">
@@ -17583,37 +17583,37 @@
         <v>460.0</v>
       </c>
       <c r="B461" t="n">
-        <v>1.0273900376967438</v>
+        <v>1.0379816875699062</v>
       </c>
       <c r="C461" t="n">
-        <v>0.9771923212450727</v>
+        <v>0.9818827652823964</v>
       </c>
       <c r="D461" t="n">
-        <v>1.016657425176774</v>
+        <v>1.0123447910062362</v>
       </c>
       <c r="E461" t="n">
-        <v>1.0190850958694322</v>
+        <v>1.016017142378209</v>
       </c>
       <c r="F461" t="n">
-        <v>1.0273900376967438</v>
+        <v>1.0347859311049379</v>
       </c>
       <c r="G461" t="n">
-        <v>0.9771923212450727</v>
+        <v>1.0271958148066953</v>
       </c>
       <c r="H461" t="n">
-        <v>1.016657425176774</v>
+        <v>1.027824069350621</v>
       </c>
       <c r="I461" t="n">
-        <v>1.0190850958694322</v>
+        <v>0.8996211739351268</v>
       </c>
       <c r="J461" t="n">
-        <v>1.0273900376967438</v>
+        <v>0.9462231717386909</v>
       </c>
       <c r="K461" t="n">
-        <v>0.9771923212450727</v>
+        <v>0.9356861652433622</v>
       </c>
       <c r="L461" t="n">
-        <v>1.016657425176774</v>
+        <v>0.9198097165377227</v>
       </c>
     </row>
     <row r="462">
@@ -17773,37 +17773,37 @@
         <v>465.0</v>
       </c>
       <c r="B466" t="n">
-        <v>2.0843241884506947</v>
+        <v>2.0634809465661874</v>
       </c>
       <c r="C466" t="n">
-        <v>1.9824852463097251</v>
+        <v>1.9519577292980819</v>
       </c>
       <c r="D466" t="n">
-        <v>2.062550331337195</v>
+        <v>2.012515454379064</v>
       </c>
       <c r="E466" t="n">
-        <v>2.067475483967295</v>
+        <v>2.0198159946254948</v>
       </c>
       <c r="F466" t="n">
-        <v>2.0843241884506947</v>
+        <v>2.0571278647591607</v>
       </c>
       <c r="G466" t="n">
-        <v>1.9824852463097251</v>
+        <v>2.0420389084209107</v>
       </c>
       <c r="H466" t="n">
-        <v>2.062550331337195</v>
+        <v>2.043287862324924</v>
       </c>
       <c r="I466" t="n">
-        <v>2.067475483967295</v>
+        <v>1.7884237976188944</v>
       </c>
       <c r="J466" t="n">
-        <v>2.0843241884506947</v>
+        <v>1.8810673728294613</v>
       </c>
       <c r="K466" t="n">
-        <v>1.9824852463097251</v>
+        <v>1.8601200744355384</v>
       </c>
       <c r="L466" t="n">
-        <v>2.062550331337195</v>
+        <v>1.828558102008143</v>
       </c>
     </row>
     <row r="467">
@@ -17849,37 +17849,37 @@
         <v>467.0</v>
       </c>
       <c r="B468" t="n">
-        <v>1.4236232262781356</v>
+        <v>1.4381499938932187</v>
       </c>
       <c r="C468" t="n">
-        <v>1.6146728556211343</v>
+        <v>1.6420930249224173</v>
       </c>
       <c r="D468" t="n">
-        <v>1.5942983549781529</v>
+        <v>1.6341023051888097</v>
       </c>
       <c r="E468" t="n">
-        <v>1.49478055105365</v>
+        <v>1.5067101444678426</v>
       </c>
       <c r="F468" t="n">
-        <v>1.4236232262781356</v>
+        <v>1.5655385706451073</v>
       </c>
       <c r="G468" t="n">
-        <v>1.6146728556211343</v>
+        <v>1.625205194990561</v>
       </c>
       <c r="H468" t="n">
-        <v>1.5942983549781529</v>
+        <v>1.467211462453496</v>
       </c>
       <c r="I468" t="n">
-        <v>1.49478055105365</v>
+        <v>1.6593355079785839</v>
       </c>
       <c r="J468" t="n">
-        <v>1.4236232262781356</v>
+        <v>1.6291474770327137</v>
       </c>
       <c r="K468" t="n">
-        <v>1.6146728556211343</v>
+        <v>1.686418197434859</v>
       </c>
       <c r="L468" t="n">
-        <v>1.5942983549781529</v>
+        <v>1.6242226055163915</v>
       </c>
     </row>
     <row r="469">
@@ -17966,34 +17966,34 @@
         <v>1.664363878962821</v>
       </c>
       <c r="C471" t="n">
-        <v>1.6351505469527292</v>
+        <v>1.644116144684551</v>
       </c>
       <c r="D471" t="n">
-        <v>1.641110998843288</v>
+        <v>1.6521558318448697</v>
       </c>
       <c r="E471" t="n">
-        <v>1.5288371012683388</v>
+        <v>1.5219183225634754</v>
       </c>
       <c r="F471" t="n">
-        <v>1.664363878962821</v>
+        <v>1.6695039774763132</v>
       </c>
       <c r="G471" t="n">
-        <v>1.6351505469527292</v>
+        <v>1.6391309531578588</v>
       </c>
       <c r="H471" t="n">
-        <v>1.641110998843288</v>
+        <v>1.696752630657422</v>
       </c>
       <c r="I471" t="n">
-        <v>1.5288371012683388</v>
+        <v>1.6351645126652277</v>
       </c>
       <c r="J471" t="n">
-        <v>1.664363878962821</v>
+        <v>1.4762025886789887</v>
       </c>
       <c r="K471" t="n">
-        <v>1.6351505469527292</v>
+        <v>1.6341759018463398</v>
       </c>
       <c r="L471" t="n">
-        <v>1.641110998843288</v>
+        <v>1.4415610344564136</v>
       </c>
     </row>
     <row r="472">
@@ -18039,37 +18039,37 @@
         <v>472.0</v>
       </c>
       <c r="B473" t="n">
-        <v>3.5462233305094433</v>
+        <v>3.5111122084251916</v>
       </c>
       <c r="C473" t="n">
-        <v>4.022124987883048</v>
+        <v>4.009020541429728</v>
       </c>
       <c r="D473" t="n">
-        <v>3.9713724234446928</v>
+        <v>3.9895119270780204</v>
       </c>
       <c r="E473" t="n">
-        <v>3.7234751205882506</v>
+        <v>3.6784955708812666</v>
       </c>
       <c r="F473" t="n">
-        <v>3.5462233305094433</v>
+        <v>3.8221198146879045</v>
       </c>
       <c r="G473" t="n">
-        <v>4.022124987883048</v>
+        <v>3.967790442970365</v>
       </c>
       <c r="H473" t="n">
-        <v>3.9713724234446928</v>
+        <v>3.582063136694173</v>
       </c>
       <c r="I473" t="n">
-        <v>3.7234751205882506</v>
+        <v>4.051116493186598</v>
       </c>
       <c r="J473" t="n">
-        <v>3.5462233305094433</v>
+        <v>3.9774151654722143</v>
       </c>
       <c r="K473" t="n">
-        <v>4.022124987883048</v>
+        <v>4.117236412520948</v>
       </c>
       <c r="L473" t="n">
-        <v>3.9713724234446928</v>
+        <v>3.9653915402736537</v>
       </c>
     </row>
     <row r="474">
@@ -18115,37 +18115,37 @@
         <v>474.0</v>
       </c>
       <c r="B475" t="n">
-        <v>0.9992309110218505</v>
+        <v>1.0094271448077876</v>
       </c>
       <c r="C475" t="n">
-        <v>1.133327272794396</v>
+        <v>1.1525732925596994</v>
       </c>
       <c r="D475" t="n">
-        <v>1.1190265572235163</v>
+        <v>1.1469646638075488</v>
       </c>
       <c r="E475" t="n">
-        <v>1.049175725877957</v>
+        <v>1.057549021758039</v>
       </c>
       <c r="F475" t="n">
-        <v>0.9992309110218505</v>
+        <v>1.0988402712951588</v>
       </c>
       <c r="G475" t="n">
-        <v>1.133327272794396</v>
+        <v>1.1407198461024457</v>
       </c>
       <c r="H475" t="n">
-        <v>1.1190265572235163</v>
+        <v>1.0298251807270506</v>
       </c>
       <c r="I475" t="n">
-        <v>1.049175725877957</v>
+        <v>1.164675667496034</v>
       </c>
       <c r="J475" t="n">
-        <v>0.9992309110218505</v>
+        <v>1.1434869055348658</v>
       </c>
       <c r="K475" t="n">
-        <v>1.133327272794396</v>
+        <v>1.183684812583576</v>
       </c>
       <c r="L475" t="n">
-        <v>1.1190265572235163</v>
+        <v>1.1400301736123433</v>
       </c>
     </row>
     <row r="476">
@@ -18381,37 +18381,37 @@
         <v>481.0</v>
       </c>
       <c r="B482" t="n">
-        <v>4.5409020648106555</v>
+        <v>4.495942638426391</v>
       </c>
       <c r="C482" t="n">
-        <v>4.56669449212033</v>
+        <v>4.565153574136086</v>
       </c>
       <c r="D482" t="n">
-        <v>4.1671749083992635</v>
+        <v>4.127956240156153</v>
       </c>
       <c r="E482" t="n">
-        <v>3.9562090660722102</v>
+        <v>3.9688487194381485</v>
       </c>
       <c r="F482" t="n">
-        <v>4.5409020648106555</v>
+        <v>4.482351517824264</v>
       </c>
       <c r="G482" t="n">
-        <v>4.56669449212033</v>
+        <v>4.130255938041569</v>
       </c>
       <c r="H482" t="n">
-        <v>4.1671749083992635</v>
+        <v>4.466150246153182</v>
       </c>
       <c r="I482" t="n">
-        <v>3.9562090660722102</v>
+        <v>4.158053508207064</v>
       </c>
       <c r="J482" t="n">
-        <v>4.5409020648106555</v>
+        <v>4.331761266337693</v>
       </c>
       <c r="K482" t="n">
-        <v>4.56669449212033</v>
+        <v>4.534440006126494</v>
       </c>
       <c r="L482" t="n">
-        <v>4.1671749083992635</v>
+        <v>4.174442234425016</v>
       </c>
     </row>
     <row r="483">
@@ -18457,37 +18457,37 @@
         <v>483.0</v>
       </c>
       <c r="B484" t="n">
-        <v>1.4075023357365963</v>
+        <v>1.4218646044686025</v>
       </c>
       <c r="C484" t="n">
-        <v>1.4154969811098166</v>
+        <v>1.4437529130263402</v>
       </c>
       <c r="D484" t="n">
-        <v>1.2916615098237028</v>
+        <v>1.305487044364884</v>
       </c>
       <c r="E484" t="n">
-        <v>1.2262703360881937</v>
+        <v>1.2551684860095962</v>
       </c>
       <c r="F484" t="n">
-        <v>1.4075023357365963</v>
+        <v>1.4175663438204211</v>
       </c>
       <c r="G484" t="n">
-        <v>1.4154969811098166</v>
+        <v>1.3062143354553657</v>
       </c>
       <c r="H484" t="n">
-        <v>1.2916615098237028</v>
+        <v>1.412442609691875</v>
       </c>
       <c r="I484" t="n">
-        <v>1.2262703360881937</v>
+        <v>1.3150054576486825</v>
       </c>
       <c r="J484" t="n">
-        <v>1.4075023357365963</v>
+        <v>1.3699414149486144</v>
       </c>
       <c r="K484" t="n">
-        <v>1.4154969811098166</v>
+        <v>1.4340395917627347</v>
       </c>
       <c r="L484" t="n">
-        <v>1.2916615098237028</v>
+        <v>1.320188475226013</v>
       </c>
     </row>
     <row r="485">
@@ -18498,34 +18498,34 @@
         <v>2.5605340214044223</v>
       </c>
       <c r="C485" t="n">
-        <v>2.575077913053796</v>
+        <v>2.599951106939111</v>
       </c>
       <c r="D485" t="n">
-        <v>2.3497959158350823</v>
+        <v>2.350958017446593</v>
       </c>
       <c r="E485" t="n">
-        <v>2.2308360244032057</v>
+        <v>2.26034293344224</v>
       </c>
       <c r="F485" t="n">
-        <v>2.5605340214044223</v>
+        <v>2.552793591979607</v>
       </c>
       <c r="G485" t="n">
-        <v>2.575077913053796</v>
+        <v>2.3522677438261583</v>
       </c>
       <c r="H485" t="n">
-        <v>2.3497959158350823</v>
+        <v>2.543566626548762</v>
       </c>
       <c r="I485" t="n">
-        <v>2.2308360244032057</v>
+        <v>2.3680990454786275</v>
       </c>
       <c r="J485" t="n">
-        <v>2.5605340214044223</v>
+        <v>2.467029272184332</v>
       </c>
       <c r="K485" t="n">
-        <v>2.575077913053796</v>
+        <v>2.582459083100745</v>
       </c>
       <c r="L485" t="n">
-        <v>2.3497959158350823</v>
+        <v>2.3774327702218856</v>
       </c>
     </row>
     <row r="486">
@@ -18533,37 +18533,37 @@
         <v>485.0</v>
       </c>
       <c r="B486" t="n">
-        <v>1.4122883712032999</v>
+        <v>1.4269997084033343</v>
       </c>
       <c r="C486" t="n">
-        <v>1.4203102013671443</v>
+        <v>1.448967067201894</v>
       </c>
       <c r="D486" t="n">
-        <v>1.2960536430657104</v>
+        <v>1.3102018474742594</v>
       </c>
       <c r="E486" t="n">
-        <v>1.2304401148311988</v>
+        <v>1.2597015622328898</v>
       </c>
       <c r="F486" t="n">
-        <v>1.4122883712032999</v>
+        <v>1.4226859244661578</v>
       </c>
       <c r="G486" t="n">
-        <v>1.4203102013671443</v>
+        <v>1.3109317651969314</v>
       </c>
       <c r="H486" t="n">
-        <v>1.2960536430657104</v>
+        <v>1.4175436858279689</v>
       </c>
       <c r="I486" t="n">
-        <v>1.2304401148311988</v>
+        <v>1.3197546367748407</v>
       </c>
       <c r="J486" t="n">
-        <v>1.4122883712032999</v>
+        <v>1.3748889968267664</v>
       </c>
       <c r="K486" t="n">
-        <v>1.4203102013671443</v>
+        <v>1.439218666005865</v>
       </c>
       <c r="L486" t="n">
-        <v>1.2960536430657104</v>
+        <v>1.3249563729656533</v>
       </c>
     </row>
     <row r="487">
@@ -18726,34 +18726,34 @@
         <v>1.7530691789525</v>
       </c>
       <c r="C491" t="n">
-        <v>1.7630266518778381</v>
+        <v>1.7800560798088674</v>
       </c>
       <c r="D491" t="n">
-        <v>1.608787371088914</v>
+        <v>1.6095830037580838</v>
       </c>
       <c r="E491" t="n">
-        <v>1.5273415018063905</v>
+        <v>1.5475434020233283</v>
       </c>
       <c r="F491" t="n">
-        <v>1.7530691789525</v>
+        <v>1.7477696952732875</v>
       </c>
       <c r="G491" t="n">
-        <v>1.7630266518778381</v>
+        <v>1.6104797076994037</v>
       </c>
       <c r="H491" t="n">
-        <v>1.608787371088914</v>
+        <v>1.7414524549722967</v>
       </c>
       <c r="I491" t="n">
-        <v>1.5273415018063905</v>
+        <v>1.621318605662736</v>
       </c>
       <c r="J491" t="n">
-        <v>1.7530691789525</v>
+        <v>1.6890511684229956</v>
       </c>
       <c r="K491" t="n">
-        <v>1.7630266518778381</v>
+        <v>1.7680801686855612</v>
       </c>
       <c r="L491" t="n">
-        <v>1.608787371088914</v>
+        <v>1.6277089387086752</v>
       </c>
     </row>
     <row r="492">
@@ -18837,37 +18837,37 @@
         <v>493.0</v>
       </c>
       <c r="B494" t="n">
-        <v>1.2981087843462213</v>
+        <v>1.3112209942891124</v>
       </c>
       <c r="C494" t="n">
-        <v>1.2540731502806555</v>
+        <v>1.2582982193747718</v>
       </c>
       <c r="D494" t="n">
-        <v>1.2163624723288804</v>
+        <v>1.2204353162735893</v>
       </c>
       <c r="E494" t="n">
-        <v>1.1384187502903393</v>
+        <v>1.1432813590443025</v>
       </c>
       <c r="F494" t="n">
-        <v>1.2981087843462213</v>
+        <v>1.1630150577937615</v>
       </c>
       <c r="G494" t="n">
-        <v>1.2540731502806555</v>
+        <v>1.2705444311730787</v>
       </c>
       <c r="H494" t="n">
-        <v>1.2163624723288804</v>
+        <v>1.2666919616543968</v>
       </c>
       <c r="I494" t="n">
-        <v>1.1384187502903393</v>
+        <v>1.2172348734860738</v>
       </c>
       <c r="J494" t="n">
-        <v>1.2981087843462213</v>
+        <v>1.1140133563228973</v>
       </c>
       <c r="K494" t="n">
-        <v>1.2540731502806555</v>
+        <v>1.2901637078752826</v>
       </c>
       <c r="L494" t="n">
-        <v>1.2163624723288804</v>
+        <v>1.2636267652594921</v>
       </c>
     </row>
     <row r="495">
@@ -18916,34 +18916,34 @@
         <v>4.3300354287501035</v>
       </c>
       <c r="C496" t="n">
-        <v>4.183148004575244</v>
+        <v>4.1552689390699244</v>
       </c>
       <c r="D496" t="n">
-        <v>4.057358414717711</v>
+        <v>4.030234553121629</v>
       </c>
       <c r="E496" t="n">
-        <v>3.797365506615243</v>
+        <v>3.775449608611032</v>
       </c>
       <c r="F496" t="n">
-        <v>4.3300354287501035</v>
+        <v>3.840616056599279</v>
       </c>
       <c r="G496" t="n">
-        <v>4.183148004575244</v>
+        <v>4.195709514064985</v>
       </c>
       <c r="H496" t="n">
-        <v>4.057358414717711</v>
+        <v>4.182987532357305</v>
       </c>
       <c r="I496" t="n">
-        <v>3.797365506615243</v>
+        <v>4.019665754484339</v>
       </c>
       <c r="J496" t="n">
-        <v>4.3300354287501035</v>
+        <v>3.678798098862176</v>
       </c>
       <c r="K496" t="n">
-        <v>4.183148004575244</v>
+        <v>4.260498106969609</v>
       </c>
       <c r="L496" t="n">
-        <v>4.057358414717711</v>
+        <v>4.172865356885877</v>
       </c>
     </row>
     <row r="497">
@@ -19255,37 +19255,37 @@
         <v>504.0</v>
       </c>
       <c r="B505" t="n">
-        <v>2.9840076747850444</v>
+        <v>3.014456732691014</v>
       </c>
       <c r="C505" t="n">
-        <v>2.882781435813205</v>
+        <v>2.8927889010683843</v>
       </c>
       <c r="D505" t="n">
-        <v>2.7960945927793848</v>
+        <v>2.8057432515022964</v>
       </c>
       <c r="E505" t="n">
-        <v>2.616922656213639</v>
+        <v>2.6283686770891777</v>
       </c>
       <c r="F505" t="n">
-        <v>2.9840076747850444</v>
+        <v>2.673735843505281</v>
       </c>
       <c r="G505" t="n">
-        <v>2.882781435813205</v>
+        <v>2.9209425652990126</v>
       </c>
       <c r="H505" t="n">
-        <v>2.7960945927793848</v>
+        <v>2.9120858563775895</v>
       </c>
       <c r="I505" t="n">
-        <v>2.616922656213639</v>
+        <v>2.798385531979472</v>
       </c>
       <c r="J505" t="n">
-        <v>2.9840076747850444</v>
+        <v>2.561082439116919</v>
       </c>
       <c r="K505" t="n">
-        <v>2.882781435813205</v>
+        <v>2.966046678948101</v>
       </c>
       <c r="L505" t="n">
-        <v>2.7960945927793848</v>
+        <v>2.905039064151196</v>
       </c>
     </row>
     <row r="506">
@@ -19369,37 +19369,37 @@
         <v>507.0</v>
       </c>
       <c r="B508" t="n">
-        <v>1.4538790696883221</v>
+        <v>1.367510016043471</v>
       </c>
       <c r="C508" t="n">
-        <v>1.4045592534599585</v>
+        <v>1.312315334836119</v>
       </c>
       <c r="D508" t="n">
-        <v>1.3623233745883307</v>
+        <v>1.2728270262650512</v>
       </c>
       <c r="E508" t="n">
-        <v>1.2750265721539247</v>
+        <v>1.1923609494191405</v>
       </c>
       <c r="F508" t="n">
-        <v>1.4538790696883221</v>
+        <v>1.2129417903384094</v>
       </c>
       <c r="G508" t="n">
-        <v>1.4045592534599585</v>
+        <v>1.3250872606714383</v>
       </c>
       <c r="H508" t="n">
-        <v>1.3623233745883307</v>
+        <v>1.3210694096179203</v>
       </c>
       <c r="I508" t="n">
-        <v>1.2750265721539247</v>
+        <v>1.2694891926071377</v>
       </c>
       <c r="J508" t="n">
-        <v>1.4538790696883221</v>
+        <v>1.16183650918715</v>
       </c>
       <c r="K508" t="n">
-        <v>1.4045592534599585</v>
+        <v>1.3455487675529216</v>
       </c>
       <c r="L508" t="n">
-        <v>1.3623233745883307</v>
+        <v>1.3178726283053657</v>
       </c>
     </row>
     <row r="509">
@@ -19445,37 +19445,37 @@
         <v>509.0</v>
       </c>
       <c r="B510" t="n">
-        <v>1.6784479024373742</v>
+        <v>1.6955749218500005</v>
       </c>
       <c r="C510" t="n">
-        <v>1.9364184724646016</v>
+        <v>1.9444666548492433</v>
       </c>
       <c r="D510" t="n">
-        <v>1.882375510408079</v>
+        <v>1.9221299763468604</v>
       </c>
       <c r="E510" t="n">
-        <v>1.7226668971150123</v>
+        <v>1.7711437215320998</v>
       </c>
       <c r="F510" t="n">
-        <v>1.6784479024373742</v>
+        <v>1.9151825181187199</v>
       </c>
       <c r="G510" t="n">
-        <v>1.9364184724646016</v>
+        <v>1.790091767994907</v>
       </c>
       <c r="H510" t="n">
-        <v>1.882375510408079</v>
+        <v>1.7830639251734766</v>
       </c>
       <c r="I510" t="n">
-        <v>1.7226668971150123</v>
+        <v>1.9432781051277008</v>
       </c>
       <c r="J510" t="n">
-        <v>1.6784479024373742</v>
+        <v>1.7019287900295834</v>
       </c>
       <c r="K510" t="n">
-        <v>1.9364184724646016</v>
+        <v>1.7401220461240368</v>
       </c>
       <c r="L510" t="n">
-        <v>1.882375510408079</v>
+        <v>1.7701575609812095</v>
       </c>
     </row>
     <row r="511">
@@ -19597,37 +19597,37 @@
         <v>513.0</v>
       </c>
       <c r="B514" t="n">
-        <v>0.8379128205576545</v>
+        <v>0.8466410791051301</v>
       </c>
       <c r="C514" t="n">
-        <v>0.8426106214003254</v>
+        <v>0.8484946992838869</v>
       </c>
       <c r="D514" t="n">
-        <v>0.8243483770680269</v>
+        <v>0.8267732350342661</v>
       </c>
       <c r="E514" t="n">
-        <v>0.8514318496757367</v>
+        <v>0.8631402094671174</v>
       </c>
       <c r="F514" t="n">
-        <v>0.8379128205576545</v>
+        <v>0.9481344445056533</v>
       </c>
       <c r="G514" t="n">
-        <v>0.8426106214003254</v>
+        <v>0.9057550781223462</v>
       </c>
       <c r="H514" t="n">
-        <v>0.8243483770680269</v>
+        <v>0.9475549000186383</v>
       </c>
       <c r="I514" t="n">
-        <v>0.8514318496757367</v>
+        <v>0.863621067693089</v>
       </c>
       <c r="J514" t="n">
-        <v>0.8379128205576545</v>
+        <v>0.9338553111286013</v>
       </c>
       <c r="K514" t="n">
-        <v>0.8426106214003254</v>
+        <v>0.869433435639706</v>
       </c>
       <c r="L514" t="n">
-        <v>0.8243483770680269</v>
+        <v>0.829871422016227</v>
       </c>
     </row>
     <row r="515">
@@ -19711,37 +19711,37 @@
         <v>516.0</v>
       </c>
       <c r="B517" t="n">
-        <v>1.3136151359596315</v>
+        <v>1.3268839757167994</v>
       </c>
       <c r="C517" t="n">
-        <v>1.3209799860266698</v>
+        <v>1.329789030731207</v>
       </c>
       <c r="D517" t="n">
-        <v>1.2923498469681285</v>
+        <v>1.2957464316260574</v>
       </c>
       <c r="E517" t="n">
-        <v>1.3348092277998456</v>
+        <v>1.3527419599687838</v>
       </c>
       <c r="F517" t="n">
-        <v>1.3136151359596315</v>
+        <v>1.4859477437232675</v>
       </c>
       <c r="G517" t="n">
-        <v>1.3209799860266698</v>
+        <v>1.419529395331199</v>
       </c>
       <c r="H517" t="n">
-        <v>1.2923498469681285</v>
+        <v>1.4850394623842047</v>
       </c>
       <c r="I517" t="n">
-        <v>1.3348092277998456</v>
+        <v>1.3534955769268786</v>
       </c>
       <c r="J517" t="n">
-        <v>1.3136151359596315</v>
+        <v>1.4635690123662215</v>
       </c>
       <c r="K517" t="n">
-        <v>1.3209799860266698</v>
+        <v>1.3626049127241537</v>
       </c>
       <c r="L517" t="n">
-        <v>1.2923498469681285</v>
+        <v>1.3006020130071114</v>
       </c>
     </row>
     <row r="518">
@@ -19749,37 +19749,37 @@
         <v>517.0</v>
       </c>
       <c r="B518" t="n">
-        <v>0.7986788104203235</v>
+        <v>0.806746273151842</v>
       </c>
       <c r="C518" t="n">
-        <v>0.7846601997347961</v>
+        <v>0.7969318423202003</v>
       </c>
       <c r="D518" t="n">
-        <v>0.7875204436307917</v>
+        <v>0.8008288192588826</v>
       </c>
       <c r="E518" t="n">
-        <v>0.733643533605387</v>
+        <v>0.7377004213373785</v>
       </c>
       <c r="F518" t="n">
-        <v>0.7986788104203235</v>
+        <v>0.8092377687747686</v>
       </c>
       <c r="G518" t="n">
-        <v>0.7846601997347961</v>
+        <v>0.7945154328222886</v>
       </c>
       <c r="H518" t="n">
-        <v>0.7875204436307917</v>
+        <v>0.8224456674080685</v>
       </c>
       <c r="I518" t="n">
-        <v>0.733643533605387</v>
+        <v>0.7925928297632131</v>
       </c>
       <c r="J518" t="n">
-        <v>0.7986788104203235</v>
+        <v>0.7155412057945044</v>
       </c>
       <c r="K518" t="n">
-        <v>0.7846601997347961</v>
+        <v>0.792113632813666</v>
       </c>
       <c r="L518" t="n">
-        <v>0.7875204436307917</v>
+        <v>0.6987498387632363</v>
       </c>
     </row>
     <row r="519">
@@ -19863,37 +19863,37 @@
         <v>520.0</v>
       </c>
       <c r="B521" t="n">
-        <v>3.81969523414063</v>
+        <v>3.7818764694461686</v>
       </c>
       <c r="C521" t="n">
-        <v>3.841110549731278</v>
+        <v>3.790156439211799</v>
       </c>
       <c r="D521" t="n">
-        <v>3.757860591108652</v>
+        <v>3.693128434600465</v>
       </c>
       <c r="E521" t="n">
-        <v>3.8813228519853844</v>
+        <v>3.8555767356183193</v>
       </c>
       <c r="F521" t="n">
-        <v>3.81969523414063</v>
+        <v>4.2352390334489</v>
       </c>
       <c r="G521" t="n">
-        <v>3.841110549731278</v>
+        <v>4.0459338692292866</v>
       </c>
       <c r="H521" t="n">
-        <v>3.757860591108652</v>
+        <v>4.232650255615493</v>
       </c>
       <c r="I521" t="n">
-        <v>3.8813228519853844</v>
+        <v>3.857724689993346</v>
       </c>
       <c r="J521" t="n">
-        <v>3.81969523414063</v>
+        <v>4.171455312276482</v>
       </c>
       <c r="K521" t="n">
-        <v>3.841110549731278</v>
+        <v>3.8836880623261747</v>
       </c>
       <c r="L521" t="n">
-        <v>3.757860591108652</v>
+        <v>3.7069677825061995</v>
       </c>
     </row>
     <row r="522">
@@ -19901,37 +19901,37 @@
         <v>521.0</v>
       </c>
       <c r="B522" t="n">
-        <v>1.5247582174205405</v>
+        <v>1.5403169747411583</v>
       </c>
       <c r="C522" t="n">
-        <v>1.5333068519120148</v>
+        <v>1.5436893159805885</v>
       </c>
       <c r="D522" t="n">
-        <v>1.5000748659212981</v>
+        <v>1.5041708695861753</v>
       </c>
       <c r="E522" t="n">
-        <v>1.5493589279403113</v>
+        <v>1.5703342880894522</v>
       </c>
       <c r="F522" t="n">
-        <v>1.5247582174205405</v>
+        <v>1.7249665947610968</v>
       </c>
       <c r="G522" t="n">
-        <v>1.5333068519120148</v>
+        <v>1.6478646692462386</v>
       </c>
       <c r="H522" t="n">
-        <v>1.5000748659212981</v>
+        <v>1.7239122138280212</v>
       </c>
       <c r="I522" t="n">
-        <v>1.5493589279403113</v>
+        <v>1.571209126443257</v>
       </c>
       <c r="J522" t="n">
-        <v>1.5247582174205405</v>
+        <v>1.6989881818679808</v>
       </c>
       <c r="K522" t="n">
-        <v>1.5333068519120148</v>
+        <v>1.5817837243839552</v>
       </c>
       <c r="L522" t="n">
-        <v>1.5000748659212981</v>
+        <v>1.509807484814296</v>
       </c>
     </row>
     <row r="523">
@@ -19942,34 +19942,34 @@
         <v>4.554677070628858</v>
       </c>
       <c r="C523" t="n">
-        <v>4.698941984897647</v>
+        <v>4.650328102547221</v>
       </c>
       <c r="D523" t="n">
-        <v>4.434866279613635</v>
+        <v>4.387459905297534</v>
       </c>
       <c r="E523" t="n">
-        <v>4.519234481667618</v>
+        <v>4.579611438264236</v>
       </c>
       <c r="F523" t="n">
-        <v>4.554677070628858</v>
+        <v>4.1118957940813035</v>
       </c>
       <c r="G523" t="n">
-        <v>4.698941984897647</v>
+        <v>4.222591810710667</v>
       </c>
       <c r="H523" t="n">
-        <v>4.434866279613635</v>
+        <v>4.03045032190444</v>
       </c>
       <c r="I523" t="n">
-        <v>4.519234481667618</v>
+        <v>4.1208983019975385</v>
       </c>
       <c r="J523" t="n">
-        <v>4.554677070628858</v>
+        <v>4.604820307924491</v>
       </c>
       <c r="K523" t="n">
-        <v>4.698941984897647</v>
+        <v>4.398995735165115</v>
       </c>
       <c r="L523" t="n">
-        <v>4.434866279613635</v>
+        <v>4.535470603633878</v>
       </c>
     </row>
     <row r="524">
@@ -19980,34 +19980,34 @@
         <v>3.3291416739801285</v>
       </c>
       <c r="C524" t="n">
-        <v>3.166481628966899</v>
+        <v>3.1492143570638143</v>
       </c>
       <c r="D524" t="n">
-        <v>3.2943638522182837</v>
+        <v>3.2469158873755033</v>
       </c>
       <c r="E524" t="n">
-        <v>3.3022304456025724</v>
+        <v>3.2586943013305274</v>
       </c>
       <c r="F524" t="n">
-        <v>3.3291416739801285</v>
+        <v>3.3188918534343297</v>
       </c>
       <c r="G524" t="n">
-        <v>3.166481628966899</v>
+        <v>3.2945479051918576</v>
       </c>
       <c r="H524" t="n">
-        <v>3.2943638522182837</v>
+        <v>3.2965629199162003</v>
       </c>
       <c r="I524" t="n">
-        <v>3.3022304456025724</v>
+        <v>2.885374931762128</v>
       </c>
       <c r="J524" t="n">
-        <v>3.3291416739801285</v>
+        <v>3.0348425522765092</v>
       </c>
       <c r="K524" t="n">
-        <v>3.166481628966899</v>
+        <v>3.0010469777854754</v>
       </c>
       <c r="L524" t="n">
-        <v>3.2943638522182837</v>
+        <v>2.950126091941627</v>
       </c>
     </row>
     <row r="525">
@@ -20246,34 +20246,34 @@
         <v>1.5324924156526005</v>
       </c>
       <c r="C531" t="n">
-        <v>1.5810326048983698</v>
+        <v>1.5646757030056153</v>
       </c>
       <c r="D531" t="n">
-        <v>1.4921801990679857</v>
+        <v>1.4762295821600382</v>
       </c>
       <c r="E531" t="n">
-        <v>1.520567201651272</v>
+        <v>1.5408819740554829</v>
       </c>
       <c r="F531" t="n">
-        <v>1.5324924156526005</v>
+        <v>1.3835117222730768</v>
       </c>
       <c r="G531" t="n">
-        <v>1.5810326048983698</v>
+        <v>1.4207571303002222</v>
       </c>
       <c r="H531" t="n">
-        <v>1.4921801990679857</v>
+        <v>1.3561081179198369</v>
       </c>
       <c r="I531" t="n">
-        <v>1.520567201651272</v>
+        <v>1.3865407570190196</v>
       </c>
       <c r="J531" t="n">
-        <v>1.5324924156526005</v>
+        <v>1.5493638929626738</v>
       </c>
       <c r="K531" t="n">
-        <v>1.5810326048983698</v>
+        <v>1.480110992742213</v>
       </c>
       <c r="L531" t="n">
-        <v>1.4921801990679857</v>
+        <v>1.5260300991052662</v>
       </c>
     </row>
     <row r="532">
@@ -20281,37 +20281,37 @@
         <v>531.0</v>
       </c>
       <c r="B532" t="n">
-        <v>1.76325605115459</v>
+        <v>1.7812484598398408</v>
       </c>
       <c r="C532" t="n">
-        <v>1.8191054514763165</v>
+        <v>1.8186557777780041</v>
       </c>
       <c r="D532" t="n">
-        <v>1.7168735965973796</v>
+        <v>1.7158529743671282</v>
       </c>
       <c r="E532" t="n">
-        <v>1.7495351312111123</v>
+        <v>1.7909998216288041</v>
       </c>
       <c r="F532" t="n">
-        <v>1.76325605115459</v>
+        <v>1.6080850380064338</v>
       </c>
       <c r="G532" t="n">
-        <v>1.8191054514763165</v>
+        <v>1.6513761662409623</v>
       </c>
       <c r="H532" t="n">
-        <v>1.7168735965973796</v>
+        <v>1.5762332470613658</v>
       </c>
       <c r="I532" t="n">
-        <v>1.7495351312111123</v>
+        <v>1.6116057493789038</v>
       </c>
       <c r="J532" t="n">
-        <v>1.76325605115459</v>
+        <v>1.8008585359921547</v>
       </c>
       <c r="K532" t="n">
-        <v>1.8191054514763165</v>
+        <v>1.7203644202646013</v>
       </c>
       <c r="L532" t="n">
-        <v>1.7168735965973796</v>
+        <v>1.7737371721627435</v>
       </c>
     </row>
     <row r="533">
@@ -20357,37 +20357,37 @@
         <v>533.0</v>
       </c>
       <c r="B534" t="n">
-        <v>1.0570012185165931</v>
+        <v>1.0358611941462612</v>
       </c>
       <c r="C534" t="n">
-        <v>1.0904806919911523</v>
+        <v>1.0576149190773239</v>
       </c>
       <c r="D534" t="n">
-        <v>1.0291967989867925</v>
+        <v>0.9978313250960843</v>
       </c>
       <c r="E534" t="n">
-        <v>1.048776077823086</v>
+        <v>1.0415319680416537</v>
       </c>
       <c r="F534" t="n">
-        <v>1.0570012185165931</v>
+        <v>0.9351603245219676</v>
       </c>
       <c r="G534" t="n">
-        <v>1.0904806919911523</v>
+        <v>0.9603357005573746</v>
       </c>
       <c r="H534" t="n">
-        <v>1.0291967989867925</v>
+        <v>0.9166373419353486</v>
       </c>
       <c r="I534" t="n">
-        <v>1.048776077823086</v>
+        <v>0.9372077470847127</v>
       </c>
       <c r="J534" t="n">
-        <v>1.0570012185165931</v>
+        <v>1.0472651713894257</v>
       </c>
       <c r="K534" t="n">
-        <v>1.0904806919911523</v>
+        <v>1.0004548960577135</v>
       </c>
       <c r="L534" t="n">
-        <v>1.0291967989867925</v>
+        <v>1.0314931053601109</v>
       </c>
     </row>
     <row r="535">
@@ -20474,34 +20474,34 @@
         <v>3.2975498366246785</v>
       </c>
       <c r="C537" t="n">
-        <v>3.2396704152945475</v>
+        <v>3.2574336614869814</v>
       </c>
       <c r="D537" t="n">
-        <v>3.2514796641050716</v>
+        <v>3.2733624312813268</v>
       </c>
       <c r="E537" t="n">
-        <v>3.0290350549152807</v>
+        <v>3.0153271044627132</v>
       </c>
       <c r="F537" t="n">
-        <v>3.2975498366246785</v>
+        <v>3.307733746061576</v>
       </c>
       <c r="G537" t="n">
-        <v>3.2396704152945475</v>
+        <v>3.247556664207618</v>
       </c>
       <c r="H537" t="n">
-        <v>3.2514796641050716</v>
+        <v>3.3617206133454314</v>
       </c>
       <c r="I537" t="n">
-        <v>3.0290350549152807</v>
+        <v>3.2396980851049473</v>
       </c>
       <c r="J537" t="n">
-        <v>3.2975498366246785</v>
+        <v>2.924752012857199</v>
       </c>
       <c r="K537" t="n">
-        <v>3.2396704152945475</v>
+        <v>3.237739382752947</v>
       </c>
       <c r="L537" t="n">
-        <v>3.2514796641050716</v>
+        <v>2.8561178320083194</v>
       </c>
     </row>
     <row r="538">
@@ -20854,34 +20854,34 @@
         <v>0.4216027555913771</v>
       </c>
       <c r="C547" t="n">
-        <v>0.4580421582613252</v>
+        <v>0.4578202939132782</v>
       </c>
       <c r="D547" t="n">
-        <v>0.41351786632067505</v>
+        <v>0.413313460382639</v>
       </c>
       <c r="E547" t="n">
-        <v>0.46044545850387564</v>
+        <v>0.45893083474147056</v>
       </c>
       <c r="F547" t="n">
-        <v>0.4216027555913771</v>
+        <v>0.46257759550620403</v>
       </c>
       <c r="G547" t="n">
-        <v>0.4580421582613252</v>
+        <v>0.47506399634343527</v>
       </c>
       <c r="H547" t="n">
-        <v>0.41351786632067505</v>
+        <v>0.46743480288217154</v>
       </c>
       <c r="I547" t="n">
-        <v>0.46044545850387564</v>
+        <v>0.40361437113935433</v>
       </c>
       <c r="J547" t="n">
-        <v>0.4216027555913771</v>
+        <v>0.4659956563045867</v>
       </c>
       <c r="K547" t="n">
-        <v>0.4580421582613252</v>
+        <v>0.4603266098040323</v>
       </c>
       <c r="L547" t="n">
-        <v>0.41351786632067505</v>
+        <v>0.4410122061845115</v>
       </c>
     </row>
     <row r="548">
@@ -20927,37 +20927,37 @@
         <v>548.0</v>
       </c>
       <c r="B549" t="n">
-        <v>3.906443262944727</v>
+        <v>3.9455076955741744</v>
       </c>
       <c r="C549" t="n">
-        <v>3.8617645755165686</v>
+        <v>3.9216533561220412</v>
       </c>
       <c r="D549" t="n">
-        <v>3.443268628016801</v>
+        <v>3.4723847156191523</v>
       </c>
       <c r="E549" t="n">
-        <v>3.940456513231925</v>
+        <v>3.994097688240528</v>
       </c>
       <c r="F549" t="n">
-        <v>3.906443262944727</v>
+        <v>3.7899004664182394</v>
       </c>
       <c r="G549" t="n">
-        <v>3.8617645755165686</v>
+        <v>3.5503090562138033</v>
       </c>
       <c r="H549" t="n">
-        <v>3.443268628016801</v>
+        <v>3.6115894478064425</v>
       </c>
       <c r="I549" t="n">
-        <v>3.940456513231925</v>
+        <v>3.9074787044532266</v>
       </c>
       <c r="J549" t="n">
-        <v>3.906443262944727</v>
+        <v>3.6136014760676236</v>
       </c>
       <c r="K549" t="n">
-        <v>3.8617645755165686</v>
+        <v>3.964801130325484</v>
       </c>
       <c r="L549" t="n">
-        <v>3.443268628016801</v>
+        <v>3.6379218431557585</v>
       </c>
     </row>
     <row r="550">
@@ -20965,37 +20965,37 @@
         <v>549.0</v>
       </c>
       <c r="B550" t="n">
-        <v>4.400435664968324</v>
+        <v>4.3132983250679615</v>
       </c>
       <c r="C550" t="n">
-        <v>4.152972373806205</v>
+        <v>4.03179141541022</v>
       </c>
       <c r="D550" t="n">
-        <v>4.780355806054528</v>
+        <v>4.6341557336524355</v>
       </c>
       <c r="E550" t="n">
-        <v>4.724590584811947</v>
+        <v>4.559734453795856</v>
       </c>
       <c r="F550" t="n">
-        <v>4.400435664968324</v>
+        <v>4.490395430080083</v>
       </c>
       <c r="G550" t="n">
-        <v>4.152972373806205</v>
+        <v>3.951932593107532</v>
       </c>
       <c r="H550" t="n">
-        <v>4.780355806054528</v>
+        <v>4.040618544294684</v>
       </c>
       <c r="I550" t="n">
-        <v>4.724590584811947</v>
+        <v>4.51511320246009</v>
       </c>
       <c r="J550" t="n">
-        <v>4.400435664968324</v>
+        <v>4.110361961769139</v>
       </c>
       <c r="K550" t="n">
-        <v>4.152972373806205</v>
+        <v>4.156649822269939</v>
       </c>
       <c r="L550" t="n">
-        <v>4.780355806054528</v>
+        <v>4.11265185782468</v>
       </c>
     </row>
     <row r="551">
@@ -21041,37 +21041,37 @@
         <v>551.0</v>
       </c>
       <c r="B552" t="n">
-        <v>4.642479940503785</v>
+        <v>4.596514792578004</v>
       </c>
       <c r="C552" t="n">
-        <v>4.381405025949965</v>
+        <v>4.296523793361798</v>
       </c>
       <c r="D552" t="n">
-        <v>5.043297443195025</v>
+        <v>4.938440092828026</v>
       </c>
       <c r="E552" t="n">
-        <v>4.984464877352184</v>
+        <v>4.859132220299186</v>
       </c>
       <c r="F552" t="n">
-        <v>4.642479940503785</v>
+        <v>4.785240311093613</v>
       </c>
       <c r="G552" t="n">
-        <v>4.381405025949965</v>
+        <v>4.211421342669061</v>
       </c>
       <c r="H552" t="n">
-        <v>5.043297443195025</v>
+        <v>4.30593052237417</v>
       </c>
       <c r="I552" t="n">
-        <v>4.984464877352184</v>
+        <v>4.811581082777308</v>
       </c>
       <c r="J552" t="n">
-        <v>4.642479940503785</v>
+        <v>4.380253378329473</v>
       </c>
       <c r="K552" t="n">
-        <v>4.381405025949965</v>
+        <v>4.429580556621821</v>
       </c>
       <c r="L552" t="n">
-        <v>5.043297443195025</v>
+        <v>4.382693631773476</v>
       </c>
     </row>
     <row r="553">
@@ -21120,34 +21120,34 @@
         <v>1.3546955860950824</v>
       </c>
       <c r="C554" t="n">
-        <v>1.3936687356276378</v>
+        <v>1.4020625638361972</v>
       </c>
       <c r="D554" t="n">
-        <v>1.3556546291178253</v>
+        <v>1.3493770947081154</v>
       </c>
       <c r="E554" t="n">
-        <v>1.4823491982721908</v>
+        <v>1.455498705157689</v>
       </c>
       <c r="F554" t="n">
-        <v>1.3546955860950824</v>
+        <v>1.4590293278909943</v>
       </c>
       <c r="G554" t="n">
-        <v>1.3936687356276378</v>
+        <v>1.2831676585477965</v>
       </c>
       <c r="H554" t="n">
-        <v>1.3556546291178253</v>
+        <v>1.463466765075976</v>
       </c>
       <c r="I554" t="n">
-        <v>1.4823491982721908</v>
+        <v>1.4814897534640763</v>
       </c>
       <c r="J554" t="n">
-        <v>1.3546955860950824</v>
+        <v>1.454618719226212</v>
       </c>
       <c r="K554" t="n">
-        <v>1.3936687356276378</v>
+        <v>1.3140029273694178</v>
       </c>
       <c r="L554" t="n">
-        <v>1.3556546291178253</v>
+        <v>1.5103197493379026</v>
       </c>
     </row>
     <row r="555">
@@ -21231,37 +21231,37 @@
         <v>556.0</v>
       </c>
       <c r="B557" t="n">
-        <v>0.6749190095486259</v>
+        <v>0.6820234201754535</v>
       </c>
       <c r="C557" t="n">
-        <v>0.6805736973702734</v>
+        <v>0.6869961089589088</v>
       </c>
       <c r="D557" t="n">
-        <v>0.6916542684051347</v>
+        <v>0.6897038641910876</v>
       </c>
       <c r="E557" t="n">
-        <v>0.7189258272553682</v>
+        <v>0.7138193835139705</v>
       </c>
       <c r="F557" t="n">
-        <v>0.6749190095486259</v>
+        <v>0.7689353814793887</v>
       </c>
       <c r="G557" t="n">
-        <v>0.6805736973702734</v>
+        <v>0.6689863803110374</v>
       </c>
       <c r="H557" t="n">
-        <v>0.6916542684051347</v>
+        <v>0.6532874998555793</v>
       </c>
       <c r="I557" t="n">
-        <v>0.7189258272553682</v>
+        <v>0.7428223548843207</v>
       </c>
       <c r="J557" t="n">
-        <v>0.6749190095486259</v>
+        <v>0.7565868203809466</v>
       </c>
       <c r="K557" t="n">
-        <v>0.6805736973702734</v>
+        <v>0.7410248409873568</v>
       </c>
       <c r="L557" t="n">
-        <v>0.6916542684051347</v>
+        <v>0.7542574274335596</v>
       </c>
     </row>
     <row r="558">
@@ -21269,37 +21269,37 @@
         <v>557.0</v>
       </c>
       <c r="B558" t="n">
-        <v>7.862563879141664</v>
+        <v>7.7068695449012345</v>
       </c>
       <c r="C558" t="n">
-        <v>7.928438959833259</v>
+        <v>7.763060963858116</v>
       </c>
       <c r="D558" t="n">
-        <v>8.05752362976607</v>
+        <v>7.793658617423381</v>
       </c>
       <c r="E558" t="n">
-        <v>8.37522748831813</v>
+        <v>8.066164158921048</v>
       </c>
       <c r="F558" t="n">
-        <v>7.862563879141664</v>
+        <v>8.688975331662368</v>
       </c>
       <c r="G558" t="n">
-        <v>7.928438959833259</v>
+        <v>7.559550900827569</v>
       </c>
       <c r="H558" t="n">
-        <v>8.05752362976607</v>
+        <v>7.382153438963151</v>
       </c>
       <c r="I558" t="n">
-        <v>8.37522748831813</v>
+        <v>8.393897943646934</v>
       </c>
       <c r="J558" t="n">
-        <v>7.862563879141664</v>
+        <v>8.549436502587476</v>
       </c>
       <c r="K558" t="n">
-        <v>7.928438959833259</v>
+        <v>8.373586023705117</v>
       </c>
       <c r="L558" t="n">
-        <v>8.05752362976607</v>
+        <v>8.523114345556994</v>
       </c>
     </row>
     <row r="559">
@@ -21421,37 +21421,37 @@
         <v>561.0</v>
       </c>
       <c r="B562" t="n">
-        <v>5.5964121773629225</v>
+        <v>5.541545391310344</v>
       </c>
       <c r="C562" t="n">
-        <v>5.151437713379926</v>
+        <v>5.103405386035357</v>
       </c>
       <c r="D562" t="n">
-        <v>5.023257813959243</v>
+        <v>5.016812298689237</v>
       </c>
       <c r="E562" t="n">
-        <v>5.558898466463951</v>
+        <v>5.605942554527846</v>
       </c>
       <c r="F562" t="n">
-        <v>5.5964121773629225</v>
+        <v>4.888381904150524</v>
       </c>
       <c r="G562" t="n">
-        <v>5.151437713379926</v>
+        <v>5.521515707782572</v>
       </c>
       <c r="H562" t="n">
-        <v>5.023257813959243</v>
+        <v>5.1608761681185396</v>
       </c>
       <c r="I562" t="n">
-        <v>5.558898466463951</v>
+        <v>5.355370186000535</v>
       </c>
       <c r="J562" t="n">
-        <v>5.5964121773629225</v>
+        <v>5.1406147339402075</v>
       </c>
       <c r="K562" t="n">
-        <v>5.151437713379926</v>
+        <v>5.106248509821536</v>
       </c>
       <c r="L562" t="n">
-        <v>5.023257813959243</v>
+        <v>5.602515938059237</v>
       </c>
     </row>
     <row r="563">
@@ -21649,37 +21649,37 @@
         <v>567.0</v>
       </c>
       <c r="B568" t="n">
-        <v>1.0919213365809386</v>
+        <v>1.1032955171703234</v>
       </c>
       <c r="C568" t="n">
-        <v>1.110189041098254</v>
+        <v>1.1229642958568897</v>
       </c>
       <c r="D568" t="n">
-        <v>1.2144969137507542</v>
+        <v>1.232856826543203</v>
       </c>
       <c r="E568" t="n">
-        <v>1.1991264063805505</v>
+        <v>1.2142897054318103</v>
       </c>
       <c r="F568" t="n">
-        <v>1.0919213365809386</v>
+        <v>1.0790797167159771</v>
       </c>
       <c r="G568" t="n">
-        <v>1.110189041098254</v>
+        <v>1.218694626072813</v>
       </c>
       <c r="H568" t="n">
-        <v>1.2144969137507542</v>
+        <v>1.1746625348489834</v>
       </c>
       <c r="I568" t="n">
-        <v>1.1991264063805505</v>
+        <v>1.1008852595276004</v>
       </c>
       <c r="J568" t="n">
-        <v>1.0919213365809386</v>
+        <v>1.2194318873987784</v>
       </c>
       <c r="K568" t="n">
-        <v>1.110189041098254</v>
+        <v>1.2223898796856218</v>
       </c>
       <c r="L568" t="n">
-        <v>1.2144969137507542</v>
+        <v>1.2450407102802097</v>
       </c>
     </row>
     <row r="569">
@@ -21953,37 +21953,37 @@
         <v>575.0</v>
       </c>
       <c r="B576" t="n">
-        <v>0.5622705524009782</v>
+        <v>0.5681275373218219</v>
       </c>
       <c r="C576" t="n">
-        <v>0.6108679650048262</v>
+        <v>0.6169322013848412</v>
       </c>
       <c r="D576" t="n">
-        <v>0.5514881391077779</v>
+        <v>0.5569573615802801</v>
       </c>
       <c r="E576" t="n">
-        <v>0.6140731265865355</v>
+        <v>0.6184287021013302</v>
       </c>
       <c r="F576" t="n">
-        <v>0.5622705524009782</v>
+        <v>0.6233428664064561</v>
       </c>
       <c r="G576" t="n">
-        <v>0.6108679650048262</v>
+        <v>0.6401688194240517</v>
       </c>
       <c r="H576" t="n">
-        <v>0.5514881391077779</v>
+        <v>0.6298881586944515</v>
       </c>
       <c r="I576" t="n">
-        <v>0.6140731265865355</v>
+        <v>0.5438874287751146</v>
       </c>
       <c r="J576" t="n">
-        <v>0.5622705524009782</v>
+        <v>0.6279488478381419</v>
       </c>
       <c r="K576" t="n">
-        <v>0.6108679650048262</v>
+        <v>0.6203095680075222</v>
       </c>
       <c r="L576" t="n">
-        <v>0.5514881391077779</v>
+        <v>0.5942825925723016</v>
       </c>
     </row>
     <row r="577">
@@ -21991,37 +21991,37 @@
         <v>576.0</v>
       </c>
       <c r="B577" t="n">
-        <v>3.039717216211457</v>
+        <v>3.0093200440493426</v>
       </c>
       <c r="C577" t="n">
-        <v>3.302441968778441</v>
+        <v>3.2678339236973613</v>
       </c>
       <c r="D577" t="n">
-        <v>2.9814259057743513</v>
+        <v>2.950152636123587</v>
       </c>
       <c r="E577" t="n">
-        <v>3.319769543198012</v>
+        <v>3.2757607522811227</v>
       </c>
       <c r="F577" t="n">
-        <v>3.039717216211457</v>
+        <v>3.301790634960072</v>
       </c>
       <c r="G577" t="n">
-        <v>3.302441968778441</v>
+        <v>3.3909161822179588</v>
       </c>
       <c r="H577" t="n">
-        <v>2.9814259057743513</v>
+        <v>3.336460454644007</v>
       </c>
       <c r="I577" t="n">
-        <v>3.319769543198012</v>
+        <v>2.8809223873129532</v>
       </c>
       <c r="J577" t="n">
-        <v>3.039717216211457</v>
+        <v>3.3261881009062426</v>
       </c>
       <c r="K577" t="n">
-        <v>3.302441968778441</v>
+        <v>3.2857235284182464</v>
       </c>
       <c r="L577" t="n">
-        <v>2.9814259057743513</v>
+        <v>3.1478609998169937</v>
       </c>
     </row>
     <row r="578">
@@ -22029,37 +22029,37 @@
         <v>577.0</v>
       </c>
       <c r="B578" t="n">
-        <v>6.906512349708963</v>
+        <v>6.8381310393158055</v>
       </c>
       <c r="C578" t="n">
-        <v>7.442368737232076</v>
+        <v>7.3938069450346084</v>
       </c>
       <c r="D578" t="n">
-        <v>7.513779813897476</v>
+        <v>7.375915088862298</v>
       </c>
       <c r="E578" t="n">
-        <v>7.483643894893947</v>
+        <v>7.452559687339132</v>
       </c>
       <c r="F578" t="n">
-        <v>6.906512349708963</v>
+        <v>6.865083135344544</v>
       </c>
       <c r="G578" t="n">
-        <v>7.442368737232076</v>
+        <v>7.5308138618491824</v>
       </c>
       <c r="H578" t="n">
-        <v>7.513779813897476</v>
+        <v>7.507627858306266</v>
       </c>
       <c r="I578" t="n">
-        <v>7.483643894893947</v>
+        <v>7.371455654108444</v>
       </c>
       <c r="J578" t="n">
-        <v>6.906512349708963</v>
+        <v>7.653727336666541</v>
       </c>
       <c r="K578" t="n">
-        <v>7.442368737232076</v>
+        <v>7.105121003187677</v>
       </c>
       <c r="L578" t="n">
-        <v>7.513779813897476</v>
+        <v>7.416294192719957</v>
       </c>
     </row>
     <row r="579">
@@ -22257,37 +22257,37 @@
         <v>583.0</v>
       </c>
       <c r="B584" t="n">
-        <v>2.136235895382549</v>
+        <v>2.157814035739949</v>
       </c>
       <c r="C584" t="n">
-        <v>2.17197484910455</v>
+        <v>2.1962820309916538</v>
       </c>
       <c r="D584" t="n">
-        <v>2.3760428659719404</v>
+        <v>2.41120871332431</v>
       </c>
       <c r="E584" t="n">
-        <v>2.3459719913819397</v>
+        <v>2.374895328638218</v>
       </c>
       <c r="F584" t="n">
-        <v>2.136235895382549</v>
+        <v>2.110453022037036</v>
       </c>
       <c r="G584" t="n">
-        <v>2.17197484910455</v>
+        <v>2.383510427165813</v>
       </c>
       <c r="H584" t="n">
-        <v>2.3760428659719404</v>
+        <v>2.2973929155951636</v>
       </c>
       <c r="I584" t="n">
-        <v>2.3459719913819397</v>
+        <v>2.1531000786085395</v>
       </c>
       <c r="J584" t="n">
-        <v>2.136235895382549</v>
+        <v>2.384952355291522</v>
       </c>
       <c r="K584" t="n">
-        <v>2.17197484910455</v>
+        <v>2.3907375662117403</v>
       </c>
       <c r="L584" t="n">
-        <v>2.3760428659719404</v>
+        <v>2.4350378279435425</v>
       </c>
     </row>
     <row r="585">
@@ -22295,37 +22295,37 @@
         <v>584.0</v>
       </c>
       <c r="B585" t="n">
-        <v>5.074633783244458</v>
+        <v>5.0243898844004535</v>
       </c>
       <c r="C585" t="n">
-        <v>5.854584217119687</v>
+        <v>5.761915009051314</v>
       </c>
       <c r="D585" t="n">
-        <v>5.691190262144751</v>
+        <v>5.695726142919685</v>
       </c>
       <c r="E585" t="n">
-        <v>5.208325870991948</v>
+        <v>5.248318127149383</v>
       </c>
       <c r="F585" t="n">
-        <v>5.074633783244458</v>
+        <v>5.67513917952813</v>
       </c>
       <c r="G585" t="n">
-        <v>5.854584217119687</v>
+        <v>5.304465674361868</v>
       </c>
       <c r="H585" t="n">
-        <v>5.691190262144751</v>
+        <v>5.283640512391069</v>
       </c>
       <c r="I585" t="n">
-        <v>5.208325870991948</v>
+        <v>5.758393054862755</v>
       </c>
       <c r="J585" t="n">
-        <v>5.074633783244458</v>
+        <v>5.0432178999584325</v>
       </c>
       <c r="K585" t="n">
-        <v>5.854584217119687</v>
+        <v>5.156393559199672</v>
       </c>
       <c r="L585" t="n">
-        <v>5.691190262144751</v>
+        <v>5.245395899984757</v>
       </c>
     </row>
     <row r="586">
@@ -22333,37 +22333,37 @@
         <v>585.0</v>
       </c>
       <c r="B586" t="n">
-        <v>2.701003558865679</v>
+        <v>2.755023630042993</v>
       </c>
       <c r="C586" t="n">
-        <v>2.7461910034741654</v>
+        <v>2.80413825909048</v>
       </c>
       <c r="D586" t="n">
-        <v>3.00420953082916</v>
+        <v>3.0785493430605415</v>
       </c>
       <c r="E586" t="n">
-        <v>2.966188664565582</v>
+        <v>3.0321856475613056</v>
       </c>
       <c r="F586" t="n">
-        <v>2.701003558865679</v>
+        <v>2.6945546972558487</v>
       </c>
       <c r="G586" t="n">
-        <v>2.7461910034741654</v>
+        <v>3.0431851125872775</v>
       </c>
       <c r="H586" t="n">
-        <v>3.00420953082916</v>
+        <v>2.9332332004169213</v>
       </c>
       <c r="I586" t="n">
-        <v>2.966188664565582</v>
+        <v>2.749005009775937</v>
       </c>
       <c r="J586" t="n">
-        <v>2.701003558865679</v>
+        <v>3.045026117415939</v>
       </c>
       <c r="K586" t="n">
-        <v>2.7461910034741654</v>
+        <v>3.0524124781152375</v>
       </c>
       <c r="L586" t="n">
-        <v>3.00420953082916</v>
+        <v>3.1089735468017485</v>
       </c>
     </row>
     <row r="587">
@@ -22713,37 +22713,37 @@
         <v>595.0</v>
       </c>
       <c r="B596" t="n">
-        <v>1.0060899077874637</v>
+        <v>1.016680327869437</v>
       </c>
       <c r="C596" t="n">
-        <v>0.880003178972334</v>
+        <v>0.8865452452859399</v>
       </c>
       <c r="D596" t="n">
-        <v>0.9043073622521026</v>
+        <v>0.9260570115823145</v>
       </c>
       <c r="E596" t="n">
-        <v>0.9567705038458074</v>
+        <v>0.9712371226793289</v>
       </c>
       <c r="F596" t="n">
-        <v>1.0060899077874637</v>
+        <v>0.9098370743330567</v>
       </c>
       <c r="G596" t="n">
-        <v>0.880003178972334</v>
+        <v>0.9686901717653409</v>
       </c>
       <c r="H596" t="n">
-        <v>0.9043073622521026</v>
+        <v>1.0056093979470624</v>
       </c>
       <c r="I596" t="n">
-        <v>0.9567705038458074</v>
+        <v>1.0434854585972995</v>
       </c>
       <c r="J596" t="n">
-        <v>1.0060899077874637</v>
+        <v>1.0111145597921682</v>
       </c>
       <c r="K596" t="n">
-        <v>0.880003178972334</v>
+        <v>1.0235667086246887</v>
       </c>
       <c r="L596" t="n">
-        <v>0.9043073622521026</v>
+        <v>0.9078494456987374</v>
       </c>
     </row>
     <row r="597">
@@ -22789,37 +22789,37 @@
         <v>597.0</v>
       </c>
       <c r="B598" t="n">
-        <v>0.6357995962591115</v>
+        <v>0.6423542312720921</v>
       </c>
       <c r="C598" t="n">
-        <v>0.6393642390307641</v>
+        <v>0.6437605896385611</v>
       </c>
       <c r="D598" t="n">
-        <v>0.6255070366006437</v>
+        <v>0.6272803185833022</v>
       </c>
       <c r="E598" t="n">
-        <v>0.646057695961383</v>
+        <v>0.6548722704529153</v>
       </c>
       <c r="F598" t="n">
-        <v>0.6357995962591115</v>
+        <v>0.719358164012964</v>
       </c>
       <c r="G598" t="n">
-        <v>0.6393642390307641</v>
+        <v>0.6872045560830006</v>
       </c>
       <c r="H598" t="n">
-        <v>0.6255070366006437</v>
+        <v>0.7189184583777992</v>
       </c>
       <c r="I598" t="n">
-        <v>0.646057695961383</v>
+        <v>0.655237101930761</v>
       </c>
       <c r="J598" t="n">
-        <v>0.6357995962591115</v>
+        <v>0.7085244565895743</v>
       </c>
       <c r="K598" t="n">
-        <v>0.6393642390307641</v>
+        <v>0.6596469979733273</v>
       </c>
       <c r="L598" t="n">
-        <v>0.6255070366006437</v>
+        <v>0.6296309410208978</v>
       </c>
     </row>
     <row r="599">
@@ -23093,37 +23093,37 @@
         <v>605.0</v>
       </c>
       <c r="B606" t="n">
-        <v>1.547617191516284</v>
+        <v>1.5788821852842896</v>
       </c>
       <c r="C606" t="n">
-        <v>1.556407692466463</v>
+        <v>1.6031876362668984</v>
       </c>
       <c r="D606" t="n">
-        <v>1.420244576132014</v>
+        <v>1.4496529634321254</v>
       </c>
       <c r="E606" t="n">
-        <v>1.34834380405014</v>
+        <v>1.3937776887212512</v>
       </c>
       <c r="F606" t="n">
-        <v>1.547617191516284</v>
+        <v>1.5741092644704557</v>
       </c>
       <c r="G606" t="n">
-        <v>1.556407692466463</v>
+        <v>1.4504605698263409</v>
       </c>
       <c r="H606" t="n">
-        <v>1.420244576132014</v>
+        <v>1.568419712517147</v>
       </c>
       <c r="I606" t="n">
-        <v>1.34834380405014</v>
+        <v>1.4602225022748054</v>
       </c>
       <c r="J606" t="n">
-        <v>1.547617191516284</v>
+        <v>1.5212250787787882</v>
       </c>
       <c r="K606" t="n">
-        <v>1.556407692466463</v>
+        <v>1.5924016656091777</v>
       </c>
       <c r="L606" t="n">
-        <v>1.420244576132014</v>
+        <v>1.4659778843928664</v>
       </c>
     </row>
     <row r="607">
@@ -23131,37 +23131,37 @@
         <v>606.0</v>
       </c>
       <c r="B607" t="n">
-        <v>2.5923607962952544</v>
+        <v>2.6188134574819406</v>
       </c>
       <c r="C607" t="n">
-        <v>2.607085464752002</v>
+        <v>2.659127701772411</v>
       </c>
       <c r="D607" t="n">
-        <v>2.3790032706397883</v>
+        <v>2.4044673660251985</v>
       </c>
       <c r="E607" t="n">
-        <v>2.2585647385595196</v>
+        <v>2.3117898231932164</v>
       </c>
       <c r="F607" t="n">
-        <v>2.5923607962952544</v>
+        <v>2.6108968507995276</v>
       </c>
       <c r="G607" t="n">
-        <v>2.607085464752002</v>
+        <v>2.4058069026373867</v>
       </c>
       <c r="H607" t="n">
-        <v>2.3790032706397883</v>
+        <v>2.6014598735752363</v>
       </c>
       <c r="I607" t="n">
-        <v>2.2585647385595196</v>
+        <v>2.421998535113413</v>
       </c>
       <c r="J607" t="n">
-        <v>2.5923607962952544</v>
+        <v>2.5231804787559886</v>
       </c>
       <c r="K607" t="n">
-        <v>2.607085464752002</v>
+        <v>2.6412375479827803</v>
       </c>
       <c r="L607" t="n">
-        <v>2.3790032706397883</v>
+        <v>2.4315447015621876</v>
       </c>
     </row>
     <row r="608">
@@ -23169,37 +23169,37 @@
         <v>607.0</v>
       </c>
       <c r="B608" t="n">
-        <v>1.9127432423508253</v>
+        <v>1.951384519974074</v>
       </c>
       <c r="C608" t="n">
-        <v>2.169432569087095</v>
+        <v>2.2281089752790604</v>
       </c>
       <c r="D608" t="n">
-        <v>2.142057918476048</v>
+        <v>2.217266596627442</v>
       </c>
       <c r="E608" t="n">
-        <v>2.00834837831363</v>
+        <v>2.044411823862062</v>
       </c>
       <c r="F608" t="n">
-        <v>1.9127432423508253</v>
+        <v>2.124234429754501</v>
       </c>
       <c r="G608" t="n">
-        <v>2.169432569087095</v>
+        <v>2.205194362724797</v>
       </c>
       <c r="H608" t="n">
-        <v>2.142057918476048</v>
+        <v>1.9908171939768171</v>
       </c>
       <c r="I608" t="n">
-        <v>2.00834837831363</v>
+        <v>2.2515048064959653</v>
       </c>
       <c r="J608" t="n">
-        <v>1.9127432423508253</v>
+        <v>2.210543532271155</v>
       </c>
       <c r="K608" t="n">
-        <v>2.169432569087095</v>
+        <v>2.2882525318296585</v>
       </c>
       <c r="L608" t="n">
-        <v>2.142057918476048</v>
+        <v>2.203861115221042</v>
       </c>
     </row>
     <row r="609">
@@ -23207,37 +23207,37 @@
         <v>608.0</v>
       </c>
       <c r="B609" t="n">
-        <v>3.9309022190411484</v>
+        <v>3.891982395090246</v>
       </c>
       <c r="C609" t="n">
-        <v>3.797554556847801</v>
+        <v>3.734896359126028</v>
       </c>
       <c r="D609" t="n">
-        <v>3.683359976678746</v>
+        <v>3.622511221198379</v>
       </c>
       <c r="E609" t="n">
-        <v>3.4473326470617316</v>
+        <v>3.3935018897769207</v>
       </c>
       <c r="F609" t="n">
-        <v>3.9309022190411484</v>
+        <v>3.4520756988124814</v>
       </c>
       <c r="G609" t="n">
-        <v>3.797554556847801</v>
+        <v>3.7712457166585445</v>
       </c>
       <c r="H609" t="n">
-        <v>3.683359976678746</v>
+        <v>3.759810768919273</v>
       </c>
       <c r="I609" t="n">
-        <v>3.4473326470617316</v>
+        <v>3.613011627278091</v>
       </c>
       <c r="J609" t="n">
-        <v>3.9309022190411484</v>
+        <v>3.306628241606789</v>
       </c>
       <c r="K609" t="n">
-        <v>3.797554556847801</v>
+        <v>3.8294798967562933</v>
       </c>
       <c r="L609" t="n">
-        <v>3.683359976678746</v>
+        <v>3.750712615016596</v>
       </c>
     </row>
     <row r="610">
@@ -23283,37 +23283,37 @@
         <v>610.0</v>
       </c>
       <c r="B611" t="n">
-        <v>0.8893821972326241</v>
+        <v>0.8984575257758142</v>
       </c>
       <c r="C611" t="n">
-        <v>0.914968776033145</v>
+        <v>0.9298721240527831</v>
       </c>
       <c r="D611" t="n">
-        <v>0.8900118263534115</v>
+        <v>0.8949302103689866</v>
       </c>
       <c r="E611" t="n">
-        <v>0.9731891065103142</v>
+        <v>0.9653118965090466</v>
       </c>
       <c r="F611" t="n">
-        <v>0.8893821972326241</v>
+        <v>0.9676534665251982</v>
       </c>
       <c r="G611" t="n">
-        <v>0.914968776033145</v>
+        <v>0.8510189680159487</v>
       </c>
       <c r="H611" t="n">
-        <v>0.8900118263534115</v>
+        <v>0.9705964515580915</v>
       </c>
       <c r="I611" t="n">
-        <v>0.9731891065103142</v>
+        <v>0.9825496089467082</v>
       </c>
       <c r="J611" t="n">
-        <v>0.8893821972326241</v>
+        <v>0.9647282746305762</v>
       </c>
       <c r="K611" t="n">
-        <v>0.914968776033145</v>
+        <v>0.8714694512215251</v>
       </c>
       <c r="L611" t="n">
-        <v>0.8900118263534115</v>
+        <v>1.0016701604763614</v>
       </c>
     </row>
     <row r="612">
@@ -23473,37 +23473,37 @@
         <v>615.0</v>
       </c>
       <c r="B616" t="n">
-        <v>1.7131324284194285</v>
+        <v>1.7309775578821307</v>
       </c>
       <c r="C616" t="n">
-        <v>1.4984366420343458</v>
+        <v>1.5094124294240738</v>
       </c>
       <c r="D616" t="n">
-        <v>1.5398209002408365</v>
+        <v>1.5766842934077459</v>
       </c>
       <c r="E616" t="n">
-        <v>1.6291531840310463</v>
+        <v>1.6536069565377014</v>
       </c>
       <c r="F616" t="n">
-        <v>1.7131324284194285</v>
+        <v>1.5490685851078139</v>
       </c>
       <c r="G616" t="n">
-        <v>1.4984366420343458</v>
+        <v>1.6492705739479254</v>
       </c>
       <c r="H616" t="n">
-        <v>1.5398209002408365</v>
+        <v>1.7121284361717939</v>
       </c>
       <c r="I616" t="n">
-        <v>1.6291531840310463</v>
+        <v>1.7766153837100986</v>
       </c>
       <c r="J616" t="n">
-        <v>1.7131324284194285</v>
+        <v>1.7215014036082315</v>
       </c>
       <c r="K616" t="n">
-        <v>1.4984366420343458</v>
+        <v>1.7427021582462905</v>
       </c>
       <c r="L616" t="n">
-        <v>1.5398209002408365</v>
+        <v>1.545684492325552</v>
       </c>
     </row>
     <row r="617">
@@ -23511,37 +23511,37 @@
         <v>616.0</v>
       </c>
       <c r="B617" t="n">
-        <v>5.169163185442887</v>
+        <v>5.272546449151745</v>
       </c>
       <c r="C617" t="n">
-        <v>5.1981443617331795</v>
+        <v>5.284090063952377</v>
       </c>
       <c r="D617" t="n">
-        <v>5.085482854748175</v>
+        <v>5.148817358639322</v>
       </c>
       <c r="E617" t="n">
-        <v>5.252563350598032</v>
+        <v>5.37529652040524</v>
       </c>
       <c r="F617" t="n">
-        <v>5.169163185442887</v>
+        <v>5.904607066763877</v>
       </c>
       <c r="G617" t="n">
-        <v>5.1981443617331795</v>
+        <v>5.64068510117985</v>
       </c>
       <c r="H617" t="n">
-        <v>5.085482854748175</v>
+        <v>5.900997892460207</v>
       </c>
       <c r="I617" t="n">
-        <v>5.252563350598032</v>
+        <v>5.378291115629195</v>
       </c>
       <c r="J617" t="n">
-        <v>5.169163185442887</v>
+        <v>5.815682260441324</v>
       </c>
       <c r="K617" t="n">
-        <v>5.1981443617331795</v>
+        <v>5.414488248906133</v>
       </c>
       <c r="L617" t="n">
-        <v>5.085482854748175</v>
+        <v>5.168111644227038</v>
       </c>
     </row>
     <row r="618">
@@ -23549,37 +23549,37 @@
         <v>617.0</v>
       </c>
       <c r="B618" t="n">
-        <v>2.944663200318279</v>
+        <v>2.9744072730487665</v>
       </c>
       <c r="C618" t="n">
-        <v>3.1731311310331636</v>
+        <v>3.2161116870070785</v>
       </c>
       <c r="D618" t="n">
-        <v>3.2035779845106025</v>
+        <v>3.208329199830204</v>
       </c>
       <c r="E618" t="n">
-        <v>3.190729222761671</v>
+        <v>3.241667585690123</v>
       </c>
       <c r="F618" t="n">
-        <v>2.944663200318279</v>
+        <v>2.9861307264296495</v>
       </c>
       <c r="G618" t="n">
-        <v>3.1731311310331636</v>
+        <v>3.275706094819426</v>
       </c>
       <c r="H618" t="n">
-        <v>3.2035779845106025</v>
+        <v>3.2656207926843144</v>
       </c>
       <c r="I618" t="n">
-        <v>3.190729222761671</v>
+        <v>3.2063894629212024</v>
       </c>
       <c r="J618" t="n">
-        <v>2.944663200318279</v>
+        <v>3.329170225785981</v>
       </c>
       <c r="K618" t="n">
-        <v>3.1731311310331636</v>
+        <v>3.090540889939937</v>
       </c>
       <c r="L618" t="n">
-        <v>3.2035779845106025</v>
+        <v>3.2258930487097994</v>
       </c>
     </row>
     <row r="619">
@@ -23704,34 +23704,34 @@
         <v>0.5893724400159357</v>
       </c>
       <c r="C622" t="n">
-        <v>0.6080402320926958</v>
+        <v>0.6017496253130669</v>
       </c>
       <c r="D622" t="n">
-        <v>0.5738689966003233</v>
+        <v>0.5677346406251956</v>
       </c>
       <c r="E622" t="n">
-        <v>0.5847861905820798</v>
+        <v>0.5925989320077133</v>
       </c>
       <c r="F622" t="n">
-        <v>0.5893724400159357</v>
+        <v>0.5320768123994266</v>
       </c>
       <c r="G622" t="n">
-        <v>0.6080402320926958</v>
+        <v>0.5464008095586556</v>
       </c>
       <c r="H622" t="n">
-        <v>0.5738689966003233</v>
+        <v>0.5215378178843885</v>
       </c>
       <c r="I622" t="n">
-        <v>0.5847861905820798</v>
+        <v>0.5332417314429895</v>
       </c>
       <c r="J622" t="n">
-        <v>0.5893724400159357</v>
+        <v>0.595860944394391</v>
       </c>
       <c r="K622" t="n">
-        <v>0.6080402320926958</v>
+        <v>0.5692273699869561</v>
       </c>
       <c r="L622" t="n">
-        <v>0.5738689966003233</v>
+        <v>0.5868871348798343</v>
       </c>
     </row>
     <row r="623">
